--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.21</v>
+        <v>36.28</v>
       </c>
       <c r="C2" t="n">
         <v>36.21</v>
       </c>
       <c r="D2" t="n">
-        <v>36.21</v>
+        <v>36.28</v>
       </c>
       <c r="E2" t="n">
         <v>36.21</v>
       </c>
       <c r="F2" t="n">
-        <v>888</v>
+        <v>27000</v>
       </c>
       <c r="G2" t="n">
-        <v>36.54750000000004</v>
+        <v>36.55100000000004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>36.21</v>
       </c>
       <c r="C3" t="n">
-        <v>36.2</v>
+        <v>36.21</v>
       </c>
       <c r="D3" t="n">
         <v>36.21</v>
       </c>
       <c r="E3" t="n">
-        <v>36.2</v>
+        <v>36.21</v>
       </c>
       <c r="F3" t="n">
-        <v>600</v>
+        <v>888</v>
       </c>
       <c r="G3" t="n">
-        <v>36.54100000000004</v>
+        <v>36.54750000000004</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.2</v>
+        <v>36.21</v>
       </c>
       <c r="C4" t="n">
         <v>36.2</v>
       </c>
       <c r="D4" t="n">
-        <v>36.2</v>
+        <v>36.21</v>
       </c>
       <c r="E4" t="n">
         <v>36.2</v>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G4" t="n">
-        <v>36.53450000000003</v>
+        <v>36.54100000000004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>36.2</v>
       </c>
       <c r="C5" t="n">
-        <v>36.17</v>
+        <v>36.2</v>
       </c>
       <c r="D5" t="n">
         <v>36.2</v>
       </c>
       <c r="E5" t="n">
-        <v>36.17</v>
+        <v>36.2</v>
       </c>
       <c r="F5" t="n">
-        <v>12206.8535</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>36.52750000000003</v>
+        <v>36.53450000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C6" t="n">
         <v>36.17</v>
       </c>
-      <c r="C6" t="n">
-        <v>36.15</v>
-      </c>
       <c r="D6" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E6" t="n">
         <v>36.17</v>
       </c>
-      <c r="E6" t="n">
-        <v>36.15</v>
-      </c>
       <c r="F6" t="n">
-        <v>35488.4324</v>
+        <v>12206.8535</v>
       </c>
       <c r="G6" t="n">
-        <v>36.52500000000003</v>
+        <v>36.52750000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.43</v>
+        <v>36.17</v>
       </c>
       <c r="C7" t="n">
-        <v>36.43</v>
+        <v>36.15</v>
       </c>
       <c r="D7" t="n">
-        <v>36.43</v>
+        <v>36.17</v>
       </c>
       <c r="E7" t="n">
-        <v>36.43</v>
+        <v>36.15</v>
       </c>
       <c r="F7" t="n">
-        <v>10080.8492</v>
+        <v>35488.4324</v>
       </c>
       <c r="G7" t="n">
-        <v>36.52233333333336</v>
+        <v>36.52500000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.2</v>
+        <v>36.43</v>
       </c>
       <c r="C8" t="n">
-        <v>36.2</v>
+        <v>36.43</v>
       </c>
       <c r="D8" t="n">
-        <v>36.2</v>
+        <v>36.43</v>
       </c>
       <c r="E8" t="n">
-        <v>36.2</v>
+        <v>36.43</v>
       </c>
       <c r="F8" t="n">
-        <v>12247.166</v>
+        <v>10080.8492</v>
       </c>
       <c r="G8" t="n">
-        <v>36.50766666666669</v>
+        <v>36.52233333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.14</v>
+        <v>36.2</v>
       </c>
       <c r="C9" t="n">
-        <v>36.12</v>
+        <v>36.2</v>
       </c>
       <c r="D9" t="n">
-        <v>36.14</v>
+        <v>36.2</v>
       </c>
       <c r="E9" t="n">
-        <v>36.12</v>
+        <v>36.2</v>
       </c>
       <c r="F9" t="n">
-        <v>57887.8968</v>
+        <v>12247.166</v>
       </c>
       <c r="G9" t="n">
-        <v>36.50450000000002</v>
+        <v>36.50766666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36.11</v>
+        <v>36.14</v>
       </c>
       <c r="C10" t="n">
-        <v>36.1</v>
+        <v>36.12</v>
       </c>
       <c r="D10" t="n">
-        <v>36.11</v>
+        <v>36.14</v>
       </c>
       <c r="E10" t="n">
-        <v>36.1</v>
+        <v>36.12</v>
       </c>
       <c r="F10" t="n">
-        <v>243182.9021</v>
+        <v>57887.8968</v>
       </c>
       <c r="G10" t="n">
-        <v>36.48816666666669</v>
+        <v>36.50450000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.1</v>
+        <v>36.11</v>
       </c>
       <c r="C11" t="n">
         <v>36.1</v>
       </c>
       <c r="D11" t="n">
-        <v>36.1</v>
+        <v>36.11</v>
       </c>
       <c r="E11" t="n">
         <v>36.1</v>
       </c>
       <c r="F11" t="n">
-        <v>4080.8744</v>
+        <v>243182.9021</v>
       </c>
       <c r="G11" t="n">
-        <v>36.47216666666669</v>
+        <v>36.48816666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>36.1</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>4080.8744</v>
       </c>
       <c r="G12" t="n">
-        <v>36.45616666666669</v>
+        <v>36.47216666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>36.1</v>
       </c>
       <c r="F13" t="n">
-        <v>69081.4757</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>36.45266666666669</v>
+        <v>36.45616666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>36.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2626.8063</v>
+        <v>69081.4757</v>
       </c>
       <c r="G14" t="n">
-        <v>36.43450000000002</v>
+        <v>36.45266666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>2626.8063</v>
       </c>
       <c r="G15" t="n">
-        <v>36.42116666666668</v>
+        <v>36.43450000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>36.1</v>
       </c>
       <c r="F16" t="n">
-        <v>13694.8275</v>
+        <v>2626.8063</v>
       </c>
       <c r="G16" t="n">
-        <v>36.41433333333335</v>
+        <v>36.42116666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>36.1</v>
       </c>
       <c r="F17" t="n">
-        <v>19757.559</v>
+        <v>13694.8275</v>
       </c>
       <c r="G17" t="n">
-        <v>36.40750000000001</v>
+        <v>36.41433333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>36.1</v>
       </c>
       <c r="F18" t="n">
-        <v>2593.7644</v>
+        <v>19757.559</v>
       </c>
       <c r="G18" t="n">
-        <v>36.40066666666667</v>
+        <v>36.40750000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.09</v>
+        <v>36.1</v>
       </c>
       <c r="C19" t="n">
-        <v>35.98</v>
+        <v>36.1</v>
       </c>
       <c r="D19" t="n">
-        <v>36.09</v>
+        <v>36.1</v>
       </c>
       <c r="E19" t="n">
-        <v>35.98</v>
+        <v>36.1</v>
       </c>
       <c r="F19" t="n">
-        <v>56308.1853</v>
+        <v>2593.7644</v>
       </c>
       <c r="G19" t="n">
-        <v>36.39183333333333</v>
+        <v>36.40066666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>35.98</v>
+        <v>36.09</v>
       </c>
       <c r="C20" t="n">
         <v>35.98</v>
       </c>
       <c r="D20" t="n">
-        <v>35.98</v>
+        <v>36.09</v>
       </c>
       <c r="E20" t="n">
         <v>35.98</v>
       </c>
       <c r="F20" t="n">
-        <v>13524.1563</v>
+        <v>56308.1853</v>
       </c>
       <c r="G20" t="n">
-        <v>36.3835</v>
+        <v>36.39183333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>35.84</v>
+        <v>35.98</v>
       </c>
       <c r="C21" t="n">
-        <v>35.84</v>
+        <v>35.98</v>
       </c>
       <c r="D21" t="n">
-        <v>35.84</v>
+        <v>35.98</v>
       </c>
       <c r="E21" t="n">
-        <v>35.84</v>
+        <v>35.98</v>
       </c>
       <c r="F21" t="n">
-        <v>15990.9326</v>
+        <v>13524.1563</v>
       </c>
       <c r="G21" t="n">
-        <v>36.3775</v>
+        <v>36.3835</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35.82</v>
+        <v>35.84</v>
       </c>
       <c r="C22" t="n">
-        <v>35.82</v>
+        <v>35.84</v>
       </c>
       <c r="D22" t="n">
-        <v>35.82</v>
+        <v>35.84</v>
       </c>
       <c r="E22" t="n">
-        <v>35.82</v>
+        <v>35.84</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>15990.9326</v>
       </c>
       <c r="G22" t="n">
-        <v>36.37116666666667</v>
+        <v>36.3775</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="C23" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="D23" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="F23" t="n">
-        <v>50000</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>36.36533333333334</v>
+        <v>36.37116666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.18</v>
+        <v>36</v>
       </c>
       <c r="C24" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="D24" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="E24" t="n">
-        <v>36.18</v>
+        <v>36</v>
       </c>
       <c r="F24" t="n">
-        <v>62</v>
+        <v>50000</v>
       </c>
       <c r="G24" t="n">
-        <v>36.36283333333335</v>
+        <v>36.36533333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.15</v>
+        <v>36.18</v>
       </c>
       <c r="C25" t="n">
-        <v>36.15</v>
+        <v>36.3</v>
       </c>
       <c r="D25" t="n">
-        <v>36.15</v>
+        <v>36.3</v>
       </c>
       <c r="E25" t="n">
-        <v>36.15</v>
+        <v>36.18</v>
       </c>
       <c r="F25" t="n">
-        <v>2794.0067</v>
+        <v>62</v>
       </c>
       <c r="G25" t="n">
-        <v>36.35516666666668</v>
+        <v>36.36283333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.01</v>
+        <v>36.15</v>
       </c>
       <c r="C26" t="n">
-        <v>35.82</v>
+        <v>36.15</v>
       </c>
       <c r="D26" t="n">
-        <v>36.01</v>
+        <v>36.15</v>
       </c>
       <c r="E26" t="n">
-        <v>35.82</v>
+        <v>36.15</v>
       </c>
       <c r="F26" t="n">
-        <v>32786.2738</v>
+        <v>2794.0067</v>
       </c>
       <c r="G26" t="n">
-        <v>36.34433333333335</v>
+        <v>36.35516666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35.9</v>
+        <v>36.01</v>
       </c>
       <c r="C27" t="n">
-        <v>35.9</v>
+        <v>35.82</v>
       </c>
       <c r="D27" t="n">
-        <v>35.9</v>
+        <v>36.01</v>
       </c>
       <c r="E27" t="n">
-        <v>35.9</v>
+        <v>35.82</v>
       </c>
       <c r="F27" t="n">
-        <v>198.7119</v>
+        <v>32786.2738</v>
       </c>
       <c r="G27" t="n">
-        <v>36.33250000000002</v>
+        <v>36.34433333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>35.9</v>
       </c>
       <c r="F28" t="n">
-        <v>198.712</v>
+        <v>198.7119</v>
       </c>
       <c r="G28" t="n">
-        <v>36.32066666666669</v>
+        <v>36.33250000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>35.9</v>
       </c>
       <c r="C29" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="D29" t="n">
         <v>35.9</v>
       </c>
       <c r="E29" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="F29" t="n">
-        <v>36079.1928</v>
+        <v>198.712</v>
       </c>
       <c r="G29" t="n">
-        <v>36.30750000000002</v>
+        <v>36.32066666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="C30" t="n">
-        <v>35.82</v>
+        <v>35.83</v>
       </c>
       <c r="D30" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="E30" t="n">
-        <v>35.82</v>
+        <v>35.83</v>
       </c>
       <c r="F30" t="n">
-        <v>393.1114</v>
+        <v>36079.1928</v>
       </c>
       <c r="G30" t="n">
-        <v>36.29416666666669</v>
+        <v>36.30750000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>35.82</v>
       </c>
       <c r="F31" t="n">
-        <v>3858.4169</v>
+        <v>393.1114</v>
       </c>
       <c r="G31" t="n">
-        <v>36.28100000000003</v>
+        <v>36.29416666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>35.82</v>
       </c>
       <c r="F32" t="n">
-        <v>13807.1284</v>
+        <v>3858.4169</v>
       </c>
       <c r="G32" t="n">
-        <v>36.26800000000003</v>
+        <v>36.28100000000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="F33" t="n">
-        <v>252.0781</v>
+        <v>13807.1284</v>
       </c>
       <c r="G33" t="n">
-        <v>36.2601666666667</v>
+        <v>36.26800000000003</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="E34" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="F34" t="n">
-        <v>2141.2122</v>
+        <v>252.0781</v>
       </c>
       <c r="G34" t="n">
-        <v>36.24933333333338</v>
+        <v>36.2601666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>35.82</v>
       </c>
       <c r="C35" t="n">
-        <v>35.79</v>
+        <v>35.82</v>
       </c>
       <c r="D35" t="n">
         <v>35.82</v>
       </c>
       <c r="E35" t="n">
-        <v>35.79</v>
+        <v>35.82</v>
       </c>
       <c r="F35" t="n">
-        <v>11016.5635</v>
+        <v>2141.2122</v>
       </c>
       <c r="G35" t="n">
-        <v>36.23583333333337</v>
+        <v>36.24933333333338</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.71</v>
+        <v>35.82</v>
       </c>
       <c r="C36" t="n">
-        <v>35.69</v>
+        <v>35.79</v>
       </c>
       <c r="D36" t="n">
-        <v>35.71</v>
+        <v>35.82</v>
       </c>
       <c r="E36" t="n">
-        <v>35.69</v>
+        <v>35.79</v>
       </c>
       <c r="F36" t="n">
-        <v>8695.785599999999</v>
+        <v>11016.5635</v>
       </c>
       <c r="G36" t="n">
-        <v>36.22066666666671</v>
+        <v>36.23583333333337</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.61</v>
+        <v>35.71</v>
       </c>
       <c r="C37" t="n">
-        <v>35.6</v>
+        <v>35.69</v>
       </c>
       <c r="D37" t="n">
-        <v>35.61</v>
+        <v>35.71</v>
       </c>
       <c r="E37" t="n">
-        <v>35.6</v>
+        <v>35.69</v>
       </c>
       <c r="F37" t="n">
-        <v>8051.5924</v>
+        <v>8695.785599999999</v>
       </c>
       <c r="G37" t="n">
-        <v>36.20533333333337</v>
+        <v>36.22066666666671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.54</v>
+        <v>35.61</v>
       </c>
       <c r="C38" t="n">
-        <v>35.54</v>
+        <v>35.6</v>
       </c>
       <c r="D38" t="n">
-        <v>35.54</v>
+        <v>35.61</v>
       </c>
       <c r="E38" t="n">
-        <v>35.54</v>
+        <v>35.6</v>
       </c>
       <c r="F38" t="n">
-        <v>9385.230799999999</v>
+        <v>8051.5924</v>
       </c>
       <c r="G38" t="n">
-        <v>36.18900000000004</v>
+        <v>36.20533333333337</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>35.54</v>
       </c>
       <c r="E39" t="n">
-        <v>35.53</v>
+        <v>35.54</v>
       </c>
       <c r="F39" t="n">
-        <v>48971.5311</v>
+        <v>9385.230799999999</v>
       </c>
       <c r="G39" t="n">
-        <v>36.17283333333337</v>
+        <v>36.18900000000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>35.54</v>
       </c>
       <c r="E40" t="n">
-        <v>35.54</v>
+        <v>35.53</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5145999999999999</v>
+        <v>48971.5311</v>
       </c>
       <c r="G40" t="n">
-        <v>36.15650000000004</v>
+        <v>36.17283333333337</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,35 +1798,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>35.75</v>
+        <v>35.54</v>
       </c>
       <c r="C41" t="n">
-        <v>35.75</v>
+        <v>35.54</v>
       </c>
       <c r="D41" t="n">
-        <v>35.75</v>
+        <v>35.54</v>
       </c>
       <c r="E41" t="n">
-        <v>35.75</v>
+        <v>35.54</v>
       </c>
       <c r="F41" t="n">
-        <v>23.5104</v>
+        <v>0.5145999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>36.1436666666667</v>
+        <v>36.15650000000004</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K41" t="n">
-        <v>35.54</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1840,37 +1836,29 @@
         <v>35.75</v>
       </c>
       <c r="C42" t="n">
-        <v>35.82</v>
+        <v>35.75</v>
       </c>
       <c r="D42" t="n">
-        <v>35.82</v>
+        <v>35.75</v>
       </c>
       <c r="E42" t="n">
         <v>35.75</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>23.5104</v>
       </c>
       <c r="G42" t="n">
-        <v>36.1321666666667</v>
+        <v>36.1436666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,40 +1868,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="C43" t="n">
         <v>35.82</v>
-      </c>
-      <c r="C43" t="n">
-        <v>35.61</v>
       </c>
       <c r="D43" t="n">
         <v>35.82</v>
       </c>
       <c r="E43" t="n">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="F43" t="n">
-        <v>2268.8205</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>36.1171666666667</v>
+        <v>36.1321666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K43" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1923,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="C44" t="n">
         <v>35.61</v>
       </c>
-      <c r="C44" t="n">
-        <v>35.5</v>
-      </c>
       <c r="D44" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="E44" t="n">
         <v>35.61</v>
       </c>
-      <c r="E44" t="n">
-        <v>35.5</v>
-      </c>
       <c r="F44" t="n">
-        <v>114335.8928</v>
+        <v>2268.8205</v>
       </c>
       <c r="G44" t="n">
-        <v>36.10033333333336</v>
+        <v>36.1171666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1958,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>35.51</v>
+        <v>35.61</v>
       </c>
       <c r="C45" t="n">
-        <v>35.51</v>
+        <v>35.5</v>
       </c>
       <c r="D45" t="n">
-        <v>35.51</v>
+        <v>35.61</v>
       </c>
       <c r="E45" t="n">
-        <v>35.51</v>
+        <v>35.5</v>
       </c>
       <c r="F45" t="n">
-        <v>4023.5291</v>
+        <v>114335.8928</v>
       </c>
       <c r="G45" t="n">
-        <v>36.08300000000003</v>
+        <v>36.10033333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2005,10 +1985,10 @@
         <v>35.51</v>
       </c>
       <c r="F46" t="n">
-        <v>24834.7648</v>
+        <v>4023.5291</v>
       </c>
       <c r="G46" t="n">
-        <v>36.06233333333337</v>
+        <v>36.08300000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2028,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>35.75</v>
+        <v>35.51</v>
       </c>
       <c r="C47" t="n">
-        <v>35.75</v>
+        <v>35.51</v>
       </c>
       <c r="D47" t="n">
-        <v>35.75</v>
+        <v>35.51</v>
       </c>
       <c r="E47" t="n">
-        <v>35.75</v>
+        <v>35.51</v>
       </c>
       <c r="F47" t="n">
-        <v>62.1293</v>
+        <v>24834.7648</v>
       </c>
       <c r="G47" t="n">
-        <v>36.04900000000003</v>
+        <v>36.06233333333337</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2075,10 +2055,10 @@
         <v>35.75</v>
       </c>
       <c r="F48" t="n">
-        <v>50.7875</v>
+        <v>62.1293</v>
       </c>
       <c r="G48" t="n">
-        <v>36.03616666666669</v>
+        <v>36.04900000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2098,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>35.6</v>
+        <v>35.75</v>
       </c>
       <c r="C49" t="n">
-        <v>35.6</v>
+        <v>35.75</v>
       </c>
       <c r="D49" t="n">
-        <v>35.6</v>
+        <v>35.75</v>
       </c>
       <c r="E49" t="n">
-        <v>35.6</v>
+        <v>35.75</v>
       </c>
       <c r="F49" t="n">
-        <v>15507.4136</v>
+        <v>50.7875</v>
       </c>
       <c r="G49" t="n">
-        <v>36.02066666666669</v>
+        <v>36.03616666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2133,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>35.57</v>
+        <v>35.6</v>
       </c>
       <c r="C50" t="n">
-        <v>36.29</v>
+        <v>35.6</v>
       </c>
       <c r="D50" t="n">
-        <v>36.29</v>
+        <v>35.6</v>
       </c>
       <c r="E50" t="n">
-        <v>35.52</v>
+        <v>35.6</v>
       </c>
       <c r="F50" t="n">
-        <v>193450</v>
+        <v>15507.4136</v>
       </c>
       <c r="G50" t="n">
-        <v>36.01666666666669</v>
+        <v>36.02066666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2168,32 +2148,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35.61</v>
+        <v>35.57</v>
       </c>
       <c r="C51" t="n">
-        <v>36.3</v>
+        <v>36.29</v>
       </c>
       <c r="D51" t="n">
-        <v>36.89</v>
+        <v>36.29</v>
       </c>
       <c r="E51" t="n">
         <v>35.52</v>
       </c>
       <c r="F51" t="n">
-        <v>190674.1855</v>
+        <v>193450</v>
       </c>
       <c r="G51" t="n">
-        <v>36.01300000000003</v>
+        <v>36.01666666666669</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>35.6</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2203,22 +2189,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>36.17</v>
+        <v>35.61</v>
       </c>
       <c r="C52" t="n">
-        <v>36.59</v>
+        <v>36.3</v>
       </c>
       <c r="D52" t="n">
-        <v>36.77</v>
+        <v>36.89</v>
       </c>
       <c r="E52" t="n">
-        <v>36.17</v>
+        <v>35.52</v>
       </c>
       <c r="F52" t="n">
-        <v>2422.1111</v>
+        <v>190674.1855</v>
       </c>
       <c r="G52" t="n">
-        <v>36.0141666666667</v>
+        <v>36.01300000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,7 +2214,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2228,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36.38</v>
+        <v>36.17</v>
       </c>
       <c r="C53" t="n">
-        <v>36.38</v>
+        <v>36.59</v>
       </c>
       <c r="D53" t="n">
-        <v>36.38</v>
+        <v>36.77</v>
       </c>
       <c r="E53" t="n">
-        <v>36.38</v>
+        <v>36.17</v>
       </c>
       <c r="F53" t="n">
-        <v>488.6415</v>
+        <v>2422.1111</v>
       </c>
       <c r="G53" t="n">
-        <v>36.01183333333336</v>
+        <v>36.0141666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,7 +2253,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2273,22 +2267,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.27</v>
+        <v>36.38</v>
       </c>
       <c r="C54" t="n">
-        <v>36</v>
+        <v>36.38</v>
       </c>
       <c r="D54" t="n">
-        <v>36.27</v>
+        <v>36.38</v>
       </c>
       <c r="E54" t="n">
-        <v>36</v>
+        <v>36.38</v>
       </c>
       <c r="F54" t="n">
-        <v>23266.8503</v>
+        <v>488.6415</v>
       </c>
       <c r="G54" t="n">
-        <v>36.0031666666667</v>
+        <v>36.01183333333336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,7 +2292,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2308,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>36.1</v>
+        <v>36.27</v>
       </c>
       <c r="C55" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
-        <v>36.1</v>
+        <v>36.27</v>
       </c>
       <c r="E55" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="F55" t="n">
-        <v>50578.7371</v>
+        <v>23266.8503</v>
       </c>
       <c r="G55" t="n">
-        <v>35.99650000000003</v>
+        <v>36.0031666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,7 +2331,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2343,32 +2345,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36.17</v>
+        <v>36.1</v>
       </c>
       <c r="C56" t="n">
-        <v>36.59</v>
+        <v>36.1</v>
       </c>
       <c r="D56" t="n">
-        <v>36.59</v>
+        <v>36.1</v>
       </c>
       <c r="E56" t="n">
-        <v>36.17</v>
+        <v>36.1</v>
       </c>
       <c r="F56" t="n">
-        <v>62</v>
+        <v>50578.7371</v>
       </c>
       <c r="G56" t="n">
-        <v>35.99800000000003</v>
+        <v>35.99650000000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2378,32 +2384,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36.11</v>
+        <v>36.17</v>
       </c>
       <c r="C57" t="n">
-        <v>36.88</v>
+        <v>36.59</v>
       </c>
       <c r="D57" t="n">
-        <v>36.88</v>
+        <v>36.59</v>
       </c>
       <c r="E57" t="n">
-        <v>36.1</v>
+        <v>36.17</v>
       </c>
       <c r="F57" t="n">
-        <v>171000</v>
+        <v>62</v>
       </c>
       <c r="G57" t="n">
-        <v>36.00533333333337</v>
+        <v>35.99800000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2413,22 +2423,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>36.2</v>
+        <v>36.11</v>
       </c>
       <c r="C58" t="n">
-        <v>36.21</v>
+        <v>36.88</v>
       </c>
       <c r="D58" t="n">
-        <v>36.21</v>
+        <v>36.88</v>
       </c>
       <c r="E58" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F58" t="n">
-        <v>35603.1823</v>
+        <v>171000</v>
       </c>
       <c r="G58" t="n">
-        <v>36.00150000000004</v>
+        <v>36.00533333333337</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,7 +2448,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>36.21</v>
+        <v>36.2</v>
       </c>
       <c r="C59" t="n">
         <v>36.21</v>
@@ -2457,23 +2471,27 @@
         <v>36.21</v>
       </c>
       <c r="E59" t="n">
-        <v>36.21</v>
+        <v>36.2</v>
       </c>
       <c r="F59" t="n">
-        <v>11813.568</v>
+        <v>35603.1823</v>
       </c>
       <c r="G59" t="n">
-        <v>36.00033333333337</v>
+        <v>36.00150000000004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2483,22 +2501,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>36.3</v>
+        <v>36.21</v>
       </c>
       <c r="C60" t="n">
-        <v>36.3</v>
+        <v>36.21</v>
       </c>
       <c r="D60" t="n">
-        <v>36.3</v>
+        <v>36.21</v>
       </c>
       <c r="E60" t="n">
-        <v>36.3</v>
+        <v>36.21</v>
       </c>
       <c r="F60" t="n">
-        <v>14</v>
+        <v>11813.568</v>
       </c>
       <c r="G60" t="n">
-        <v>36.0006666666667</v>
+        <v>36.00033333333337</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,7 +2526,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2530,10 +2552,10 @@
         <v>36.3</v>
       </c>
       <c r="F61" t="n">
-        <v>275.4820936639118</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
-        <v>36.0021666666667</v>
+        <v>36.0006666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,7 +2565,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2553,22 +2579,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>36.16</v>
+        <v>36.3</v>
       </c>
       <c r="C62" t="n">
-        <v>36.12</v>
+        <v>36.3</v>
       </c>
       <c r="D62" t="n">
-        <v>36.16</v>
+        <v>36.3</v>
       </c>
       <c r="E62" t="n">
-        <v>36.12</v>
+        <v>36.3</v>
       </c>
       <c r="F62" t="n">
-        <v>21038.1582</v>
+        <v>275.4820936639118</v>
       </c>
       <c r="G62" t="n">
-        <v>36.0006666666667</v>
+        <v>36.0021666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,7 +2604,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2618,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="C63" t="n">
         <v>36.12</v>
       </c>
-      <c r="C63" t="n">
-        <v>36.1</v>
-      </c>
       <c r="D63" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="E63" t="n">
         <v>36.12</v>
       </c>
-      <c r="E63" t="n">
-        <v>36.1</v>
-      </c>
       <c r="F63" t="n">
-        <v>17809.2528</v>
+        <v>21038.1582</v>
       </c>
       <c r="G63" t="n">
-        <v>35.99900000000003</v>
+        <v>36.0006666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,7 +2643,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2623,22 +2657,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="C64" t="n">
         <v>36.1</v>
       </c>
-      <c r="C64" t="n">
-        <v>36</v>
-      </c>
       <c r="D64" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="E64" t="n">
         <v>36.1</v>
       </c>
-      <c r="E64" t="n">
-        <v>36</v>
-      </c>
       <c r="F64" t="n">
-        <v>20307.1905</v>
+        <v>17809.2528</v>
       </c>
       <c r="G64" t="n">
-        <v>35.9956666666667</v>
+        <v>35.99900000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,7 +2682,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2658,22 +2696,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>36.19</v>
+        <v>36.1</v>
       </c>
       <c r="C65" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
-        <v>36.19</v>
+        <v>36.1</v>
       </c>
       <c r="E65" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="F65" t="n">
-        <v>14</v>
+        <v>20307.1905</v>
       </c>
       <c r="G65" t="n">
-        <v>35.99600000000003</v>
+        <v>35.9956666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,7 +2721,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2705,10 +2747,10 @@
         <v>36.19</v>
       </c>
       <c r="F66" t="n">
-        <v>9991.7068</v>
+        <v>14</v>
       </c>
       <c r="G66" t="n">
-        <v>35.9966666666667</v>
+        <v>35.99600000000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,7 +2760,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2740,10 +2786,10 @@
         <v>36.19</v>
       </c>
       <c r="F67" t="n">
-        <v>7442.0748</v>
+        <v>9991.7068</v>
       </c>
       <c r="G67" t="n">
-        <v>35.9926666666667</v>
+        <v>35.9966666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,7 +2799,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2763,22 +2813,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="C68" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="D68" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="E68" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="F68" t="n">
-        <v>2253.8205</v>
+        <v>7442.0748</v>
       </c>
       <c r="G68" t="n">
-        <v>35.98933333333337</v>
+        <v>35.9926666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,7 +2838,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2801,19 +2855,19 @@
         <v>36</v>
       </c>
       <c r="C69" t="n">
-        <v>36.84</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
-        <v>36.84</v>
+        <v>36</v>
       </c>
       <c r="E69" t="n">
-        <v>35.53</v>
+        <v>36</v>
       </c>
       <c r="F69" t="n">
-        <v>380000</v>
+        <v>2253.8205</v>
       </c>
       <c r="G69" t="n">
-        <v>36.00133333333338</v>
+        <v>35.98933333333337</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,7 +2877,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2833,22 +2891,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C70" t="n">
-        <v>35.9</v>
+        <v>36.84</v>
       </c>
       <c r="D70" t="n">
-        <v>35.9</v>
+        <v>36.84</v>
       </c>
       <c r="E70" t="n">
-        <v>35.9</v>
+        <v>35.53</v>
       </c>
       <c r="F70" t="n">
-        <v>400</v>
+        <v>380000</v>
       </c>
       <c r="G70" t="n">
-        <v>35.99800000000005</v>
+        <v>36.00133333333338</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,7 +2916,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2868,22 +2930,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35.92</v>
+        <v>35.9</v>
       </c>
       <c r="C71" t="n">
-        <v>35.91</v>
+        <v>35.9</v>
       </c>
       <c r="D71" t="n">
-        <v>35.92</v>
+        <v>35.9</v>
       </c>
       <c r="E71" t="n">
-        <v>35.91</v>
+        <v>35.9</v>
       </c>
       <c r="F71" t="n">
-        <v>15662.706</v>
+        <v>400</v>
       </c>
       <c r="G71" t="n">
-        <v>35.99483333333338</v>
+        <v>35.99800000000005</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,7 +2955,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2903,22 +2969,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="C72" t="n">
         <v>35.91</v>
       </c>
-      <c r="C72" t="n">
-        <v>35.83</v>
-      </c>
       <c r="D72" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="E72" t="n">
         <v>35.91</v>
       </c>
-      <c r="E72" t="n">
-        <v>35.83</v>
-      </c>
       <c r="F72" t="n">
-        <v>30358.7836</v>
+        <v>15662.706</v>
       </c>
       <c r="G72" t="n">
-        <v>35.99033333333338</v>
+        <v>35.99483333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,7 +2994,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +3008,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>36</v>
+        <v>35.91</v>
       </c>
       <c r="C73" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="D73" t="n">
-        <v>36</v>
+        <v>35.91</v>
       </c>
       <c r="E73" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="F73" t="n">
-        <v>14</v>
+        <v>30358.7836</v>
       </c>
       <c r="G73" t="n">
-        <v>35.98866666666672</v>
+        <v>35.99033333333338</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,7 +3033,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2973,22 +3047,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="E74" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="F74" t="n">
-        <v>11912.9801</v>
+        <v>14</v>
       </c>
       <c r="G74" t="n">
-        <v>35.98533333333339</v>
+        <v>35.98866666666672</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,7 +3072,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3008,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="C75" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="D75" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="E75" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>11912.9801</v>
       </c>
       <c r="G75" t="n">
-        <v>35.98083333333339</v>
+        <v>35.98533333333339</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,7 +3111,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3043,22 +3125,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35.9</v>
+        <v>35.83</v>
       </c>
       <c r="C76" t="n">
-        <v>35.9</v>
+        <v>35.83</v>
       </c>
       <c r="D76" t="n">
-        <v>35.9</v>
+        <v>35.83</v>
       </c>
       <c r="E76" t="n">
-        <v>35.9</v>
+        <v>35.83</v>
       </c>
       <c r="F76" t="n">
-        <v>1250.4109</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>35.97750000000006</v>
+        <v>35.98083333333339</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,7 +3150,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3090,10 +3176,10 @@
         <v>35.9</v>
       </c>
       <c r="F77" t="n">
-        <v>375.1066</v>
+        <v>1250.4109</v>
       </c>
       <c r="G77" t="n">
-        <v>35.97416666666673</v>
+        <v>35.97750000000006</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,7 +3189,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +3203,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="C78" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="D78" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="E78" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="F78" t="n">
-        <v>47.6246</v>
+        <v>375.1066</v>
       </c>
       <c r="G78" t="n">
-        <v>35.97250000000006</v>
+        <v>35.97416666666673</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,7 +3228,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3148,22 +3242,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.85</v>
+        <v>36</v>
       </c>
       <c r="C79" t="n">
-        <v>35.85</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
-        <v>35.85</v>
+        <v>36</v>
       </c>
       <c r="E79" t="n">
-        <v>35.84</v>
+        <v>36</v>
       </c>
       <c r="F79" t="n">
-        <v>4077.7335</v>
+        <v>47.6246</v>
       </c>
       <c r="G79" t="n">
-        <v>35.97033333333339</v>
+        <v>35.97250000000006</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,7 +3267,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3183,22 +3281,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>35.84</v>
+        <v>35.85</v>
       </c>
       <c r="C80" t="n">
-        <v>35.84</v>
+        <v>35.85</v>
       </c>
       <c r="D80" t="n">
-        <v>35.84</v>
+        <v>35.85</v>
       </c>
       <c r="E80" t="n">
         <v>35.84</v>
       </c>
       <c r="F80" t="n">
-        <v>3878.6534</v>
+        <v>4077.7335</v>
       </c>
       <c r="G80" t="n">
-        <v>35.96800000000006</v>
+        <v>35.97033333333339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,7 +3306,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3218,22 +3320,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.85</v>
+        <v>35.84</v>
       </c>
       <c r="C81" t="n">
-        <v>35.85</v>
+        <v>35.84</v>
       </c>
       <c r="D81" t="n">
-        <v>35.85</v>
+        <v>35.84</v>
       </c>
       <c r="E81" t="n">
-        <v>35.85</v>
+        <v>35.84</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>3878.6534</v>
       </c>
       <c r="G81" t="n">
-        <v>35.96816666666673</v>
+        <v>35.96800000000006</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,7 +3345,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3253,22 +3359,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>35.84</v>
+        <v>35.85</v>
       </c>
       <c r="C82" t="n">
-        <v>35.83</v>
+        <v>35.85</v>
       </c>
       <c r="D82" t="n">
-        <v>35.84</v>
+        <v>35.85</v>
       </c>
       <c r="E82" t="n">
-        <v>35.83</v>
+        <v>35.85</v>
       </c>
       <c r="F82" t="n">
-        <v>6959.0093</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>35.96833333333338</v>
+        <v>35.96816666666673</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,7 +3384,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3288,22 +3398,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>35.85</v>
+        <v>35.84</v>
       </c>
       <c r="C83" t="n">
-        <v>35.85</v>
+        <v>35.83</v>
       </c>
       <c r="D83" t="n">
-        <v>35.85</v>
+        <v>35.84</v>
       </c>
       <c r="E83" t="n">
-        <v>35.85</v>
+        <v>35.83</v>
       </c>
       <c r="F83" t="n">
-        <v>522.0751</v>
+        <v>6959.0093</v>
       </c>
       <c r="G83" t="n">
-        <v>35.96416666666672</v>
+        <v>35.96833333333338</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,7 +3423,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3335,10 +3449,10 @@
         <v>35.85</v>
       </c>
       <c r="F84" t="n">
-        <v>34414.1914</v>
+        <v>522.0751</v>
       </c>
       <c r="G84" t="n">
-        <v>35.95666666666671</v>
+        <v>35.96416666666672</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,7 +3462,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3361,19 +3479,19 @@
         <v>35.85</v>
       </c>
       <c r="C85" t="n">
-        <v>35.83</v>
+        <v>35.85</v>
       </c>
       <c r="D85" t="n">
         <v>35.85</v>
       </c>
       <c r="E85" t="n">
-        <v>35.83</v>
+        <v>35.85</v>
       </c>
       <c r="F85" t="n">
-        <v>7788.3283</v>
+        <v>34414.1914</v>
       </c>
       <c r="G85" t="n">
-        <v>35.95133333333338</v>
+        <v>35.95666666666671</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,7 +3501,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3393,22 +3515,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.83</v>
+        <v>35.85</v>
       </c>
       <c r="C86" t="n">
         <v>35.83</v>
       </c>
       <c r="D86" t="n">
-        <v>35.83</v>
+        <v>35.85</v>
       </c>
       <c r="E86" t="n">
         <v>35.83</v>
       </c>
       <c r="F86" t="n">
-        <v>749.7804</v>
+        <v>7788.3283</v>
       </c>
       <c r="G86" t="n">
-        <v>35.95150000000004</v>
+        <v>35.95133333333338</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,7 +3540,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3554,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="D87" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="E87" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>749.7804</v>
       </c>
       <c r="G87" t="n">
-        <v>35.9531666666667</v>
+        <v>35.95150000000004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,7 +3579,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3475,10 +3605,10 @@
         <v>36</v>
       </c>
       <c r="F88" t="n">
-        <v>47.6246</v>
+        <v>14</v>
       </c>
       <c r="G88" t="n">
-        <v>35.95483333333337</v>
+        <v>35.9531666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,7 +3618,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3510,10 +3644,10 @@
         <v>36</v>
       </c>
       <c r="F89" t="n">
-        <v>1665.0449</v>
+        <v>47.6246</v>
       </c>
       <c r="G89" t="n">
-        <v>35.9576666666667</v>
+        <v>35.95483333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,7 +3657,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3545,10 +3683,10 @@
         <v>36</v>
       </c>
       <c r="F90" t="n">
-        <v>1017.3746</v>
+        <v>1665.0449</v>
       </c>
       <c r="G90" t="n">
-        <v>35.9606666666667</v>
+        <v>35.9576666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,7 +3696,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3710,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C91" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="D91" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="E91" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>1017.3746</v>
       </c>
       <c r="G91" t="n">
-        <v>35.96200000000003</v>
+        <v>35.9606666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,7 +3735,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3603,22 +3749,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="C92" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="D92" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="E92" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="F92" t="n">
-        <v>61240.3979</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="n">
-        <v>35.9616666666667</v>
+        <v>35.96200000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3628,7 +3774,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3638,22 +3788,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="C93" t="n">
         <v>35.8</v>
       </c>
       <c r="D93" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="E93" t="n">
         <v>35.8</v>
       </c>
       <c r="F93" t="n">
-        <v>9322.685600000001</v>
+        <v>61240.3979</v>
       </c>
       <c r="G93" t="n">
-        <v>35.95833333333337</v>
+        <v>35.9616666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,7 +3813,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3673,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="C94" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="D94" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="E94" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1385.4253</v>
+        <v>9322.685600000001</v>
       </c>
       <c r="G94" t="n">
-        <v>35.96133333333337</v>
+        <v>35.95833333333337</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,7 +3852,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3866,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
-        <v>39518.6365</v>
+        <v>1385.4253</v>
       </c>
       <c r="G95" t="n">
-        <v>35.96150000000004</v>
+        <v>35.96133333333337</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,7 +3891,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3746,19 +3908,19 @@
         <v>35.8</v>
       </c>
       <c r="C96" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="D96" t="n">
         <v>35.8</v>
       </c>
       <c r="E96" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="F96" t="n">
-        <v>20232.4371</v>
+        <v>39518.6365</v>
       </c>
       <c r="G96" t="n">
-        <v>35.9616666666667</v>
+        <v>35.96150000000004</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,7 +3930,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3944,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="C97" t="n">
         <v>35.7</v>
       </c>
       <c r="D97" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="E97" t="n">
         <v>35.7</v>
       </c>
       <c r="F97" t="n">
-        <v>8142.1693</v>
+        <v>20232.4371</v>
       </c>
       <c r="G97" t="n">
-        <v>35.96333333333337</v>
+        <v>35.9616666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,7 +3969,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3825,10 +3995,10 @@
         <v>35.7</v>
       </c>
       <c r="F98" t="n">
-        <v>31511.0922</v>
+        <v>8142.1693</v>
       </c>
       <c r="G98" t="n">
-        <v>35.96600000000003</v>
+        <v>35.96333333333337</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,7 +4008,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3860,10 +4034,10 @@
         <v>35.7</v>
       </c>
       <c r="F99" t="n">
-        <v>6479.7242</v>
+        <v>31511.0922</v>
       </c>
       <c r="G99" t="n">
-        <v>35.96866666666669</v>
+        <v>35.96600000000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,7 +4047,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3886,19 +4064,19 @@
         <v>35.7</v>
       </c>
       <c r="C100" t="n">
-        <v>36.24</v>
+        <v>35.7</v>
       </c>
       <c r="D100" t="n">
-        <v>36.24</v>
+        <v>35.7</v>
       </c>
       <c r="E100" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="F100" t="n">
-        <v>380000</v>
+        <v>6479.7242</v>
       </c>
       <c r="G100" t="n">
-        <v>35.98033333333336</v>
+        <v>35.96866666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,7 +4086,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +4100,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35.84</v>
+        <v>35.7</v>
       </c>
       <c r="C101" t="n">
-        <v>35.86</v>
+        <v>36.24</v>
       </c>
       <c r="D101" t="n">
-        <v>35.86</v>
+        <v>36.24</v>
       </c>
       <c r="E101" t="n">
-        <v>35.84</v>
+        <v>35.6</v>
       </c>
       <c r="F101" t="n">
-        <v>123.5956</v>
+        <v>380000</v>
       </c>
       <c r="G101" t="n">
-        <v>35.98216666666669</v>
+        <v>35.98033333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,7 +4125,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3953,22 +4139,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.8</v>
+        <v>35.84</v>
       </c>
       <c r="C102" t="n">
-        <v>35.7</v>
+        <v>35.86</v>
       </c>
       <c r="D102" t="n">
-        <v>35.8</v>
+        <v>35.86</v>
       </c>
       <c r="E102" t="n">
-        <v>35.7</v>
+        <v>35.84</v>
       </c>
       <c r="F102" t="n">
-        <v>97564.3968</v>
+        <v>123.5956</v>
       </c>
       <c r="G102" t="n">
-        <v>35.98016666666669</v>
+        <v>35.98216666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,7 +4164,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +4178,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>35.84</v>
+        <v>35.8</v>
       </c>
       <c r="C103" t="n">
-        <v>35.98</v>
+        <v>35.7</v>
       </c>
       <c r="D103" t="n">
-        <v>35.98</v>
+        <v>35.8</v>
       </c>
       <c r="E103" t="n">
-        <v>35.84</v>
+        <v>35.7</v>
       </c>
       <c r="F103" t="n">
-        <v>62</v>
+        <v>97564.3968</v>
       </c>
       <c r="G103" t="n">
-        <v>35.98633333333336</v>
+        <v>35.98016666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,7 +4203,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4023,22 +4217,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>35.8</v>
+        <v>35.84</v>
       </c>
       <c r="C104" t="n">
-        <v>35.8</v>
+        <v>35.98</v>
       </c>
       <c r="D104" t="n">
-        <v>35.8</v>
+        <v>35.98</v>
       </c>
       <c r="E104" t="n">
-        <v>35.8</v>
+        <v>35.84</v>
       </c>
       <c r="F104" t="n">
-        <v>16978.7015</v>
+        <v>62</v>
       </c>
       <c r="G104" t="n">
-        <v>35.99133333333336</v>
+        <v>35.98633333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,7 +4242,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +4256,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>35.79</v>
+        <v>35.8</v>
       </c>
       <c r="C105" t="n">
-        <v>35.65</v>
+        <v>35.8</v>
       </c>
       <c r="D105" t="n">
-        <v>35.79</v>
+        <v>35.8</v>
       </c>
       <c r="E105" t="n">
-        <v>35.65</v>
+        <v>35.8</v>
       </c>
       <c r="F105" t="n">
-        <v>25462.1016</v>
+        <v>16978.7015</v>
       </c>
       <c r="G105" t="n">
-        <v>35.99366666666669</v>
+        <v>35.99133333333336</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4083,7 +4281,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4093,22 +4295,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="C106" t="n">
         <v>35.65</v>
       </c>
-      <c r="C106" t="n">
-        <v>35.6</v>
-      </c>
       <c r="D106" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="E106" t="n">
         <v>35.65</v>
       </c>
-      <c r="E106" t="n">
-        <v>35.6</v>
-      </c>
       <c r="F106" t="n">
-        <v>62980.1615</v>
+        <v>25462.1016</v>
       </c>
       <c r="G106" t="n">
-        <v>35.99516666666668</v>
+        <v>35.99366666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4118,7 +4320,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +4334,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.84</v>
+        <v>35.65</v>
       </c>
       <c r="C107" t="n">
-        <v>36.09</v>
+        <v>35.6</v>
       </c>
       <c r="D107" t="n">
-        <v>36.09</v>
+        <v>35.65</v>
       </c>
       <c r="E107" t="n">
-        <v>35.84</v>
+        <v>35.6</v>
       </c>
       <c r="F107" t="n">
-        <v>62</v>
+        <v>62980.1615</v>
       </c>
       <c r="G107" t="n">
-        <v>36.00083333333335</v>
+        <v>35.99516666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4153,7 +4359,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4163,22 +4373,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="C108" t="n">
-        <v>36</v>
+        <v>36.09</v>
       </c>
       <c r="D108" t="n">
-        <v>36</v>
+        <v>36.09</v>
       </c>
       <c r="E108" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="F108" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="G108" t="n">
-        <v>36.00500000000002</v>
+        <v>36.00083333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4188,7 +4398,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4201,29 +4415,35 @@
         <v>36</v>
       </c>
       <c r="C109" t="n">
+        <v>36</v>
+      </c>
+      <c r="D109" t="n">
+        <v>36</v>
+      </c>
+      <c r="E109" t="n">
+        <v>36</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="n">
+        <v>36.00500000000002</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>36.09</v>
       </c>
-      <c r="D109" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="E109" t="n">
-        <v>36</v>
-      </c>
-      <c r="F109" t="n">
-        <v>33270.1464</v>
-      </c>
-      <c r="G109" t="n">
-        <v>36.01316666666669</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4233,32 +4453,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="C110" t="n">
-        <v>36.2</v>
+        <v>36.09</v>
       </c>
       <c r="D110" t="n">
-        <v>36.2</v>
+        <v>36.09</v>
       </c>
       <c r="E110" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="F110" t="n">
-        <v>20926.70475643647</v>
+        <v>33270.1464</v>
       </c>
       <c r="G110" t="n">
-        <v>36.01166666666668</v>
+        <v>36.01316666666669</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>36</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +4494,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C111" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D111" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="E111" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F111" t="n">
-        <v>20680.8492</v>
+        <v>20926.70475643647</v>
       </c>
       <c r="G111" t="n">
-        <v>36.00666666666668</v>
+        <v>36.01166666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4293,7 +4519,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4315,10 +4545,10 @@
         <v>36</v>
       </c>
       <c r="F112" t="n">
-        <v>24000</v>
+        <v>20680.8492</v>
       </c>
       <c r="G112" t="n">
-        <v>35.99683333333335</v>
+        <v>36.00666666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4328,7 +4558,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4572,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="C113" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="D113" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="E113" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="F113" t="n">
-        <v>14</v>
+        <v>24000</v>
       </c>
       <c r="G113" t="n">
-        <v>35.99333333333335</v>
+        <v>35.99683333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4363,7 +4597,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4373,19 +4611,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>36</v>
+        <v>36.17</v>
       </c>
       <c r="C114" t="n">
-        <v>36</v>
+        <v>36.17</v>
       </c>
       <c r="D114" t="n">
-        <v>36</v>
+        <v>36.17</v>
       </c>
       <c r="E114" t="n">
-        <v>36</v>
+        <v>36.17</v>
       </c>
       <c r="F114" t="n">
-        <v>756.3323</v>
+        <v>14</v>
       </c>
       <c r="G114" t="n">
         <v>35.99333333333335</v>
@@ -4398,7 +4636,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4408,32 +4650,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>35.83</v>
+        <v>36</v>
       </c>
       <c r="C115" t="n">
-        <v>35.74</v>
+        <v>36</v>
       </c>
       <c r="D115" t="n">
-        <v>35.83</v>
+        <v>36</v>
       </c>
       <c r="E115" t="n">
-        <v>35.74</v>
+        <v>36</v>
       </c>
       <c r="F115" t="n">
-        <v>57000</v>
+        <v>756.3323</v>
       </c>
       <c r="G115" t="n">
-        <v>35.98733333333335</v>
+        <v>35.99333333333335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4443,32 +4689,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C116" t="n">
         <v>35.74</v>
       </c>
-      <c r="C116" t="n">
-        <v>35.61</v>
-      </c>
       <c r="D116" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="E116" t="n">
         <v>35.74</v>
       </c>
-      <c r="E116" t="n">
-        <v>35.61</v>
-      </c>
       <c r="F116" t="n">
-        <v>30106.9182</v>
+        <v>57000</v>
       </c>
       <c r="G116" t="n">
-        <v>35.97100000000001</v>
+        <v>35.98733333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4478,32 +4728,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.62</v>
+        <v>35.74</v>
       </c>
       <c r="C117" t="n">
         <v>35.61</v>
       </c>
       <c r="D117" t="n">
-        <v>35.62</v>
+        <v>35.74</v>
       </c>
       <c r="E117" t="n">
         <v>35.61</v>
       </c>
       <c r="F117" t="n">
-        <v>1126.0252</v>
+        <v>30106.9182</v>
       </c>
       <c r="G117" t="n">
-        <v>35.94983333333334</v>
+        <v>35.97100000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4513,32 +4767,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.61</v>
+        <v>35.62</v>
       </c>
       <c r="C118" t="n">
         <v>35.61</v>
       </c>
       <c r="D118" t="n">
-        <v>35.61</v>
+        <v>35.62</v>
       </c>
       <c r="E118" t="n">
         <v>35.61</v>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>1126.0252</v>
       </c>
       <c r="G118" t="n">
-        <v>35.93983333333335</v>
+        <v>35.94983333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4551,19 +4809,19 @@
         <v>35.61</v>
       </c>
       <c r="C119" t="n">
-        <v>36.09</v>
+        <v>35.61</v>
       </c>
       <c r="D119" t="n">
-        <v>36.09</v>
+        <v>35.61</v>
       </c>
       <c r="E119" t="n">
-        <v>35.6</v>
+        <v>35.61</v>
       </c>
       <c r="F119" t="n">
-        <v>56787.3867</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="n">
-        <v>35.93783333333335</v>
+        <v>35.93983333333335</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4573,7 +4831,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4583,32 +4845,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.73</v>
+        <v>35.61</v>
       </c>
       <c r="C120" t="n">
-        <v>35.72</v>
+        <v>36.09</v>
       </c>
       <c r="D120" t="n">
-        <v>35.73</v>
+        <v>36.09</v>
       </c>
       <c r="E120" t="n">
-        <v>35.72</v>
+        <v>35.6</v>
       </c>
       <c r="F120" t="n">
-        <v>19509.3562</v>
+        <v>56787.3867</v>
       </c>
       <c r="G120" t="n">
-        <v>35.92816666666668</v>
+        <v>35.93783333333335</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>35.61</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4618,32 +4886,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>35.89</v>
+        <v>35.73</v>
       </c>
       <c r="C121" t="n">
-        <v>35.89</v>
+        <v>35.72</v>
       </c>
       <c r="D121" t="n">
-        <v>35.89</v>
+        <v>35.73</v>
       </c>
       <c r="E121" t="n">
-        <v>35.89</v>
+        <v>35.72</v>
       </c>
       <c r="F121" t="n">
-        <v>14</v>
+        <v>19509.3562</v>
       </c>
       <c r="G121" t="n">
-        <v>35.92133333333334</v>
+        <v>35.92816666666668</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>36.09</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4653,22 +4927,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>35.72</v>
+        <v>35.89</v>
       </c>
       <c r="C122" t="n">
-        <v>35.72</v>
+        <v>35.89</v>
       </c>
       <c r="D122" t="n">
-        <v>35.72</v>
+        <v>35.89</v>
       </c>
       <c r="E122" t="n">
-        <v>35.72</v>
+        <v>35.89</v>
       </c>
       <c r="F122" t="n">
-        <v>635.5423</v>
+        <v>14</v>
       </c>
       <c r="G122" t="n">
-        <v>35.91466666666667</v>
+        <v>35.92133333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4678,8 +4952,51 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C123" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D123" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E123" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F123" t="n">
+        <v>635.5423</v>
+      </c>
+      <c r="G123" t="n">
+        <v>35.91466666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>27000</v>
       </c>
       <c r="G2" t="n">
+        <v>36.45733333333331</v>
+      </c>
+      <c r="H2" t="n">
         <v>36.55100000000004</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>888</v>
       </c>
       <c r="G3" t="n">
+        <v>36.43466666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>36.54750000000004</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>600</v>
       </c>
       <c r="G4" t="n">
+        <v>36.41333333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>36.54100000000004</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3000</v>
       </c>
       <c r="G5" t="n">
+        <v>36.39133333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>36.53450000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>12206.8535</v>
       </c>
       <c r="G6" t="n">
+        <v>36.36733333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>36.52750000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>35488.4324</v>
       </c>
       <c r="G7" t="n">
+        <v>36.34266666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>36.52500000000003</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>10080.8492</v>
       </c>
       <c r="G8" t="n">
+        <v>36.33666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>36.52233333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>12247.166</v>
       </c>
       <c r="G9" t="n">
+        <v>36.31533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>36.50766666666669</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>57887.8968</v>
       </c>
       <c r="G10" t="n">
+        <v>36.28866666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>36.50450000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>243182.9021</v>
       </c>
       <c r="G11" t="n">
+        <v>36.26199999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>36.48816666666669</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>4080.8744</v>
       </c>
       <c r="G12" t="n">
+        <v>36.23533333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>36.47216666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
+        <v>36.21266666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>36.45616666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>69081.4757</v>
       </c>
       <c r="G14" t="n">
+        <v>36.19000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>36.45266666666669</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2626.8063</v>
       </c>
       <c r="G15" t="n">
+        <v>36.17800000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>36.43450000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2626.8063</v>
       </c>
       <c r="G16" t="n">
+        <v>36.16600000000002</v>
+      </c>
+      <c r="H16" t="n">
         <v>36.42116666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>13694.8275</v>
       </c>
       <c r="G17" t="n">
+        <v>36.15866666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>36.41433333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>19757.559</v>
       </c>
       <c r="G18" t="n">
+        <v>36.15133333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>36.40750000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2593.7644</v>
       </c>
       <c r="G19" t="n">
+        <v>36.14466666666668</v>
+      </c>
+      <c r="H19" t="n">
         <v>36.40066666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>56308.1853</v>
       </c>
       <c r="G20" t="n">
+        <v>36.13000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>36.39183333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>13524.1563</v>
       </c>
       <c r="G21" t="n">
+        <v>36.11733333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>36.3835</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>15990.9326</v>
       </c>
       <c r="G22" t="n">
+        <v>36.09666666666669</v>
+      </c>
+      <c r="H22" t="n">
         <v>36.3775</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>14</v>
       </c>
       <c r="G23" t="n">
+        <v>36.05600000000003</v>
+      </c>
+      <c r="H23" t="n">
         <v>36.37116666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>50000</v>
       </c>
       <c r="G24" t="n">
+        <v>36.04933333333336</v>
+      </c>
+      <c r="H24" t="n">
         <v>36.36533333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>62</v>
       </c>
       <c r="G25" t="n">
+        <v>36.06133333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>36.36283333333335</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>2794.0067</v>
       </c>
       <c r="G26" t="n">
+        <v>36.06466666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>36.35516666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>32786.2738</v>
       </c>
       <c r="G27" t="n">
+        <v>36.04600000000002</v>
+      </c>
+      <c r="H27" t="n">
         <v>36.34433333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>198.7119</v>
       </c>
       <c r="G28" t="n">
+        <v>36.03266666666669</v>
+      </c>
+      <c r="H28" t="n">
         <v>36.33250000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>198.712</v>
       </c>
       <c r="G29" t="n">
+        <v>36.01933333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>36.32066666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>36079.1928</v>
       </c>
       <c r="G30" t="n">
+        <v>36.00133333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>36.30750000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>393.1114</v>
       </c>
       <c r="G31" t="n">
+        <v>35.98266666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>36.29416666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3858.4169</v>
       </c>
       <c r="G32" t="n">
+        <v>35.96400000000002</v>
+      </c>
+      <c r="H32" t="n">
         <v>36.28100000000003</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>13807.1284</v>
       </c>
       <c r="G33" t="n">
+        <v>35.94533333333335</v>
+      </c>
+      <c r="H33" t="n">
         <v>36.26800000000003</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>252.0781</v>
       </c>
       <c r="G34" t="n">
+        <v>35.93866666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>36.2601666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2141.2122</v>
       </c>
       <c r="G35" t="n">
+        <v>35.92800000000002</v>
+      </c>
+      <c r="H35" t="n">
         <v>36.24933333333338</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>11016.5635</v>
       </c>
       <c r="G36" t="n">
+        <v>35.91533333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>36.23583333333337</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>8695.785599999999</v>
       </c>
       <c r="G37" t="n">
+        <v>35.90533333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>36.22066666666671</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>8051.5924</v>
       </c>
       <c r="G38" t="n">
+        <v>35.89066666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>36.20533333333337</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>9385.230799999999</v>
       </c>
       <c r="G39" t="n">
+        <v>35.85333333333335</v>
+      </c>
+      <c r="H39" t="n">
         <v>36.18900000000004</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>48971.5311</v>
       </c>
       <c r="G40" t="n">
+        <v>35.80266666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>36.17283333333337</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,25 @@
         <v>0.5145999999999999</v>
       </c>
       <c r="G41" t="n">
+        <v>35.76200000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>36.15650000000004</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="L41" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1977,29 @@
         <v>23.5104</v>
       </c>
       <c r="G42" t="n">
+        <v>35.75733333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>36.1436666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="L42" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2023,29 @@
         <v>50</v>
       </c>
       <c r="G43" t="n">
+        <v>35.75200000000002</v>
+      </c>
+      <c r="H43" t="n">
         <v>36.1321666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2069,21 @@
         <v>2268.8205</v>
       </c>
       <c r="G44" t="n">
+        <v>35.73266666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>36.1171666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2107,27 @@
         <v>114335.8928</v>
       </c>
       <c r="G45" t="n">
+        <v>35.71066666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>36.10033333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>35.61</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2151,27 @@
         <v>4023.5291</v>
       </c>
       <c r="G46" t="n">
+        <v>35.69000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>36.08300000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>35.5</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2195,27 @@
         <v>24834.7648</v>
       </c>
       <c r="G47" t="n">
+        <v>35.66933333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>36.06233333333337</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>35.51</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2239,27 @@
         <v>62.1293</v>
       </c>
       <c r="G48" t="n">
+        <v>35.66466666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>36.04900000000003</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35.51</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2283,27 @@
         <v>50.7875</v>
       </c>
       <c r="G49" t="n">
+        <v>35.648</v>
+      </c>
+      <c r="H49" t="n">
         <v>36.03616666666669</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>35.75</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2327,27 @@
         <v>15507.4136</v>
       </c>
       <c r="G50" t="n">
+        <v>35.63333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>36.02066666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>35.75</v>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,24 +2371,27 @@
         <v>193450</v>
       </c>
       <c r="G51" t="n">
+        <v>35.66666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>36.01666666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>35.6</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,22 +2415,25 @@
         <v>190674.1855</v>
       </c>
       <c r="G52" t="n">
+        <v>35.70733333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>36.01300000000003</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,22 +2457,25 @@
         <v>2422.1111</v>
       </c>
       <c r="G53" t="n">
+        <v>35.77333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>36.0141666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,22 +2499,25 @@
         <v>488.6415</v>
       </c>
       <c r="G54" t="n">
+        <v>35.82933333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>36.01183333333336</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,22 +2541,25 @@
         <v>23266.8503</v>
       </c>
       <c r="G55" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="H55" t="n">
         <v>36.0031666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,22 +2583,25 @@
         <v>50578.7371</v>
       </c>
       <c r="G56" t="n">
+        <v>35.89733333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>35.99650000000003</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,22 +2625,25 @@
         <v>62</v>
       </c>
       <c r="G57" t="n">
+        <v>35.95333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>35.99800000000003</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,22 +2667,25 @@
         <v>171000</v>
       </c>
       <c r="G58" t="n">
+        <v>36.024</v>
+      </c>
+      <c r="H58" t="n">
         <v>36.00533333333337</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,22 +2709,25 @@
         <v>35603.1823</v>
       </c>
       <c r="G59" t="n">
+        <v>36.064</v>
+      </c>
+      <c r="H59" t="n">
         <v>36.00150000000004</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,22 +2751,25 @@
         <v>11813.568</v>
       </c>
       <c r="G60" t="n">
+        <v>36.11133333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>36.00033333333337</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2555,22 +2793,25 @@
         <v>14</v>
       </c>
       <c r="G61" t="n">
+        <v>36.164</v>
+      </c>
+      <c r="H61" t="n">
         <v>36.0006666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,22 +2835,25 @@
         <v>275.4820936639118</v>
       </c>
       <c r="G62" t="n">
+        <v>36.21666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>36.0021666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,22 +2877,25 @@
         <v>21038.1582</v>
       </c>
       <c r="G63" t="n">
+        <v>36.24133333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>36.0006666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,22 +2919,25 @@
         <v>17809.2528</v>
       </c>
       <c r="G64" t="n">
+        <v>36.26466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>35.99900000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2711,22 +2961,25 @@
         <v>20307.1905</v>
       </c>
       <c r="G65" t="n">
+        <v>36.29133333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>35.9956666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,22 +3003,25 @@
         <v>14</v>
       </c>
       <c r="G66" t="n">
+        <v>36.28466666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>35.99600000000003</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,22 +3045,25 @@
         <v>9991.7068</v>
       </c>
       <c r="G67" t="n">
+        <v>36.27733333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>35.9966666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,22 +3087,25 @@
         <v>7442.0748</v>
       </c>
       <c r="G68" t="n">
+        <v>36.25066666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>35.9926666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2867,22 +3129,25 @@
         <v>2253.8205</v>
       </c>
       <c r="G69" t="n">
+        <v>36.22533333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>35.98933333333337</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,22 +3171,25 @@
         <v>380000</v>
       </c>
       <c r="G70" t="n">
+        <v>36.28133333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>36.00133333333338</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,22 +3213,25 @@
         <v>400</v>
       </c>
       <c r="G71" t="n">
+        <v>36.26800000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>35.99800000000005</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,22 +3255,25 @@
         <v>15662.706</v>
       </c>
       <c r="G72" t="n">
+        <v>36.22266666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>35.99483333333338</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,22 +3297,25 @@
         <v>30358.7836</v>
       </c>
       <c r="G73" t="n">
+        <v>36.15266666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>35.99033333333338</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,22 +3339,25 @@
         <v>14</v>
       </c>
       <c r="G74" t="n">
+        <v>36.13866666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>35.98866666666672</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,22 +3381,25 @@
         <v>11912.9801</v>
       </c>
       <c r="G75" t="n">
+        <v>36.118</v>
+      </c>
+      <c r="H75" t="n">
         <v>35.98533333333339</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,22 +3423,25 @@
         <v>5000</v>
       </c>
       <c r="G76" t="n">
+        <v>36.08666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>35.98083333333339</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,22 +3465,25 @@
         <v>1250.4109</v>
       </c>
       <c r="G77" t="n">
+        <v>36.06000000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>35.97750000000006</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,22 +3507,25 @@
         <v>375.1066</v>
       </c>
       <c r="G78" t="n">
+        <v>36.04533333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>35.97416666666673</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3257,22 +3549,25 @@
         <v>47.6246</v>
       </c>
       <c r="G79" t="n">
+        <v>36.03866666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>35.97250000000006</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,22 +3591,25 @@
         <v>4077.7335</v>
       </c>
       <c r="G80" t="n">
+        <v>36.02866666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>35.97033333333339</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,22 +3633,25 @@
         <v>3878.6534</v>
       </c>
       <c r="G81" t="n">
+        <v>36.00533333333335</v>
+      </c>
+      <c r="H81" t="n">
         <v>35.96800000000006</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,22 +3675,25 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
+        <v>35.98266666666668</v>
+      </c>
+      <c r="H82" t="n">
         <v>35.96816666666673</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,22 +3717,25 @@
         <v>6959.0093</v>
       </c>
       <c r="G83" t="n">
+        <v>35.95866666666669</v>
+      </c>
+      <c r="H83" t="n">
         <v>35.96833333333338</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,22 +3759,25 @@
         <v>522.0751</v>
       </c>
       <c r="G84" t="n">
+        <v>35.94866666666669</v>
+      </c>
+      <c r="H84" t="n">
         <v>35.96416666666672</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3491,22 +3801,25 @@
         <v>34414.1914</v>
       </c>
       <c r="G85" t="n">
+        <v>35.88266666666669</v>
+      </c>
+      <c r="H85" t="n">
         <v>35.95666666666671</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,22 +3843,25 @@
         <v>7788.3283</v>
       </c>
       <c r="G86" t="n">
+        <v>35.87800000000003</v>
+      </c>
+      <c r="H86" t="n">
         <v>35.95133333333338</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3569,22 +3885,25 @@
         <v>749.7804</v>
       </c>
       <c r="G87" t="n">
+        <v>35.8726666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>35.95150000000004</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,22 +3927,25 @@
         <v>14</v>
       </c>
       <c r="G88" t="n">
+        <v>35.88400000000003</v>
+      </c>
+      <c r="H88" t="n">
         <v>35.9531666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3647,22 +3969,25 @@
         <v>47.6246</v>
       </c>
       <c r="G89" t="n">
+        <v>35.88400000000003</v>
+      </c>
+      <c r="H89" t="n">
         <v>35.95483333333337</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,22 +4011,25 @@
         <v>1665.0449</v>
       </c>
       <c r="G90" t="n">
+        <v>35.8906666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>35.9576666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,22 +4053,25 @@
         <v>1017.3746</v>
       </c>
       <c r="G91" t="n">
+        <v>35.90200000000003</v>
+      </c>
+      <c r="H91" t="n">
         <v>35.9606666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,22 +4095,25 @@
         <v>1000</v>
       </c>
       <c r="G92" t="n">
+        <v>35.90200000000003</v>
+      </c>
+      <c r="H92" t="n">
         <v>35.96200000000003</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,22 +4137,25 @@
         <v>61240.3979</v>
       </c>
       <c r="G93" t="n">
+        <v>35.89533333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>35.9616666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,22 +4179,25 @@
         <v>9322.685600000001</v>
       </c>
       <c r="G94" t="n">
+        <v>35.88200000000003</v>
+      </c>
+      <c r="H94" t="n">
         <v>35.95833333333337</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,22 +4221,25 @@
         <v>1385.4253</v>
       </c>
       <c r="G95" t="n">
+        <v>35.89200000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>35.96133333333337</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,22 +4263,25 @@
         <v>39518.6365</v>
       </c>
       <c r="G96" t="n">
+        <v>35.88933333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>35.96150000000004</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,22 +4305,25 @@
         <v>20232.4371</v>
       </c>
       <c r="G97" t="n">
+        <v>35.87933333333335</v>
+      </c>
+      <c r="H97" t="n">
         <v>35.9616666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,22 +4347,25 @@
         <v>8142.1693</v>
       </c>
       <c r="G98" t="n">
+        <v>35.87066666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>35.96333333333337</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,22 +4389,25 @@
         <v>31511.0922</v>
       </c>
       <c r="G99" t="n">
+        <v>35.86066666666669</v>
+      </c>
+      <c r="H99" t="n">
         <v>35.96600000000003</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,22 +4431,25 @@
         <v>6479.7242</v>
       </c>
       <c r="G100" t="n">
+        <v>35.85066666666669</v>
+      </c>
+      <c r="H100" t="n">
         <v>35.96866666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4115,22 +4473,25 @@
         <v>380000</v>
       </c>
       <c r="G101" t="n">
+        <v>35.87800000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>35.98033333333336</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,22 +4515,25 @@
         <v>123.5956</v>
       </c>
       <c r="G102" t="n">
+        <v>35.88000000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>35.98216666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,22 +4557,25 @@
         <v>97564.3968</v>
       </c>
       <c r="G103" t="n">
+        <v>35.86000000000002</v>
+      </c>
+      <c r="H103" t="n">
         <v>35.98016666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,22 +4599,25 @@
         <v>62</v>
       </c>
       <c r="G104" t="n">
+        <v>35.85866666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>35.98633333333336</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,22 +4641,25 @@
         <v>16978.7015</v>
       </c>
       <c r="G105" t="n">
+        <v>35.84533333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>35.99133333333336</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,22 +4683,25 @@
         <v>25462.1016</v>
       </c>
       <c r="G106" t="n">
+        <v>35.82200000000002</v>
+      </c>
+      <c r="H106" t="n">
         <v>35.99366666666669</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,22 +4725,25 @@
         <v>62980.1615</v>
       </c>
       <c r="G107" t="n">
+        <v>35.80200000000002</v>
+      </c>
+      <c r="H107" t="n">
         <v>35.99516666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,22 +4767,25 @@
         <v>62</v>
       </c>
       <c r="G108" t="n">
+        <v>35.82133333333336</v>
+      </c>
+      <c r="H108" t="n">
         <v>36.00083333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4427,24 +4809,25 @@
         <v>14</v>
       </c>
       <c r="G109" t="n">
+        <v>35.8346666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>36.00500000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>36.09</v>
+        <v>0</v>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,24 +4851,25 @@
         <v>33270.1464</v>
       </c>
       <c r="G110" t="n">
+        <v>35.8406666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>36.01316666666669</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,22 +4893,25 @@
         <v>20926.70475643647</v>
       </c>
       <c r="G111" t="n">
+        <v>35.86733333333337</v>
+      </c>
+      <c r="H111" t="n">
         <v>36.01166666666668</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,22 +4935,25 @@
         <v>20680.8492</v>
       </c>
       <c r="G112" t="n">
+        <v>35.88733333333337</v>
+      </c>
+      <c r="H112" t="n">
         <v>36.00666666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4587,22 +4977,25 @@
         <v>24000</v>
       </c>
       <c r="G113" t="n">
+        <v>35.90733333333336</v>
+      </c>
+      <c r="H113" t="n">
         <v>35.99683333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,22 +5019,25 @@
         <v>14</v>
       </c>
       <c r="G114" t="n">
+        <v>35.93866666666669</v>
+      </c>
+      <c r="H114" t="n">
         <v>35.99333333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,22 +5061,25 @@
         <v>756.3323</v>
       </c>
       <c r="G115" t="n">
+        <v>35.95866666666669</v>
+      </c>
+      <c r="H115" t="n">
         <v>35.99333333333335</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,22 +5103,25 @@
         <v>57000</v>
       </c>
       <c r="G116" t="n">
+        <v>35.92533333333336</v>
+      </c>
+      <c r="H116" t="n">
         <v>35.98733333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,22 +5145,25 @@
         <v>30106.9182</v>
       </c>
       <c r="G117" t="n">
+        <v>35.90866666666669</v>
+      </c>
+      <c r="H117" t="n">
         <v>35.97100000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,22 +5187,25 @@
         <v>1126.0252</v>
       </c>
       <c r="G118" t="n">
+        <v>35.90266666666669</v>
+      </c>
+      <c r="H118" t="n">
         <v>35.94983333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4821,22 +5229,25 @@
         <v>1200</v>
       </c>
       <c r="G119" t="n">
+        <v>35.87800000000002</v>
+      </c>
+      <c r="H119" t="n">
         <v>35.93983333333335</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,24 +5271,25 @@
         <v>56787.3867</v>
       </c>
       <c r="G120" t="n">
+        <v>35.89733333333336</v>
+      </c>
+      <c r="H120" t="n">
         <v>35.93783333333335</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>35.61</v>
+        <v>0</v>
       </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,24 +5313,25 @@
         <v>19509.3562</v>
       </c>
       <c r="G121" t="n">
+        <v>35.90200000000003</v>
+      </c>
+      <c r="H121" t="n">
         <v>35.92816666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>36.09</v>
+        <v>0</v>
       </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,22 +5355,25 @@
         <v>14</v>
       </c>
       <c r="G122" t="n">
+        <v>35.92133333333336</v>
+      </c>
+      <c r="H122" t="n">
         <v>35.92133333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,22 +5397,445 @@
         <v>635.5423</v>
       </c>
       <c r="G123" t="n">
+        <v>35.89666666666669</v>
+      </c>
+      <c r="H123" t="n">
         <v>35.91466666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C124" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D124" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E124" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F124" t="n">
+        <v>33829.741</v>
+      </c>
+      <c r="G124" t="n">
+        <v>35.88933333333336</v>
+      </c>
+      <c r="H124" t="n">
+        <v>35.91116666666667</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C125" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D125" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E125" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13973</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35.87600000000002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>35.90933333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C126" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D126" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E126" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F126" t="n">
+        <v>400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>35.84400000000002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>35.90149999999999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D127" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E127" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F127" t="n">
+        <v>549.7526</v>
+      </c>
+      <c r="G127" t="n">
+        <v>35.82533333333335</v>
+      </c>
+      <c r="H127" t="n">
+        <v>35.89366666666665</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C128" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D128" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6208.4643</v>
+      </c>
+      <c r="G128" t="n">
+        <v>35.80666666666669</v>
+      </c>
+      <c r="H128" t="n">
+        <v>35.88583333333332</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14233.3563</v>
+      </c>
+      <c r="G129" t="n">
+        <v>35.78866666666669</v>
+      </c>
+      <c r="H129" t="n">
+        <v>35.88416666666665</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>49420</v>
+      </c>
+      <c r="G130" t="n">
+        <v>35.78200000000002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>35.86849999999999</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>36</v>
+      </c>
+      <c r="C131" t="n">
+        <v>36</v>
+      </c>
+      <c r="D131" t="n">
+        <v>36</v>
+      </c>
+      <c r="E131" t="n">
+        <v>36</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14</v>
+      </c>
+      <c r="G131" t="n">
+        <v>35.79933333333336</v>
+      </c>
+      <c r="H131" t="n">
+        <v>35.87016666666666</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="G132" t="n">
+        <v>35.81866666666669</v>
+      </c>
+      <c r="H132" t="n">
+        <v>35.86999999999999</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="C133" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="D133" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="E133" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4394.133</v>
+      </c>
+      <c r="G133" t="n">
+        <v>35.82933333333335</v>
+      </c>
+      <c r="H133" t="n">
+        <v>35.86899999999999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.28</v>
+        <v>36.6</v>
       </c>
       <c r="C2" t="n">
-        <v>36.21</v>
+        <v>36.6</v>
       </c>
       <c r="D2" t="n">
-        <v>36.28</v>
+        <v>36.6</v>
       </c>
       <c r="E2" t="n">
-        <v>36.21</v>
+        <v>36.6</v>
       </c>
       <c r="F2" t="n">
-        <v>27000</v>
+        <v>7785.3482</v>
       </c>
       <c r="G2" t="n">
-        <v>36.45733333333331</v>
+        <v>-3845292.4279</v>
       </c>
       <c r="H2" t="n">
-        <v>36.55100000000004</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36.21</v>
+        <v>36.47</v>
       </c>
       <c r="C3" t="n">
-        <v>36.21</v>
+        <v>36.47</v>
       </c>
       <c r="D3" t="n">
-        <v>36.21</v>
+        <v>36.47</v>
       </c>
       <c r="E3" t="n">
-        <v>36.21</v>
+        <v>36.47</v>
       </c>
       <c r="F3" t="n">
-        <v>888</v>
+        <v>5698.8425</v>
       </c>
       <c r="G3" t="n">
-        <v>36.43466666666665</v>
+        <v>-3850991.2704</v>
       </c>
       <c r="H3" t="n">
-        <v>36.54750000000004</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.21</v>
+        <v>36.47</v>
       </c>
       <c r="C4" t="n">
-        <v>36.2</v>
+        <v>36.47</v>
       </c>
       <c r="D4" t="n">
-        <v>36.21</v>
+        <v>36.47</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2</v>
+        <v>36.47</v>
       </c>
       <c r="F4" t="n">
-        <v>600</v>
+        <v>5698.8425</v>
       </c>
       <c r="G4" t="n">
-        <v>36.41333333333332</v>
+        <v>-3850991.2704</v>
       </c>
       <c r="H4" t="n">
-        <v>36.54100000000004</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C5" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="F5" t="n">
-        <v>3000</v>
+        <v>21923.7232</v>
       </c>
       <c r="G5" t="n">
-        <v>36.39133333333333</v>
+        <v>-3829067.5472</v>
       </c>
       <c r="H5" t="n">
-        <v>36.53450000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C6" t="n">
-        <v>36.17</v>
+        <v>36.6</v>
       </c>
       <c r="D6" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="E6" t="n">
-        <v>36.17</v>
+        <v>36.6</v>
       </c>
       <c r="F6" t="n">
-        <v>12206.8535</v>
+        <v>76.27679999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>36.36733333333333</v>
+        <v>-3829067.5472</v>
       </c>
       <c r="H6" t="n">
-        <v>36.52750000000003</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.17</v>
+        <v>36.52</v>
       </c>
       <c r="C7" t="n">
-        <v>36.15</v>
+        <v>36.52</v>
       </c>
       <c r="D7" t="n">
-        <v>36.17</v>
+        <v>36.52</v>
       </c>
       <c r="E7" t="n">
-        <v>36.15</v>
+        <v>36.52</v>
       </c>
       <c r="F7" t="n">
-        <v>35488.4324</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>36.34266666666666</v>
+        <v>-3834067.5472</v>
       </c>
       <c r="H7" t="n">
-        <v>36.52500000000003</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.43</v>
+        <v>36.52</v>
       </c>
       <c r="C8" t="n">
-        <v>36.43</v>
+        <v>36.52</v>
       </c>
       <c r="D8" t="n">
-        <v>36.43</v>
+        <v>36.52</v>
       </c>
       <c r="E8" t="n">
-        <v>36.43</v>
+        <v>36.52</v>
       </c>
       <c r="F8" t="n">
-        <v>10080.8492</v>
+        <v>30.6372</v>
       </c>
       <c r="G8" t="n">
-        <v>36.33666666666666</v>
+        <v>-3834067.5472</v>
       </c>
       <c r="H8" t="n">
-        <v>36.52233333333336</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.2</v>
+        <v>36.51</v>
       </c>
       <c r="C9" t="n">
-        <v>36.2</v>
+        <v>36.51</v>
       </c>
       <c r="D9" t="n">
-        <v>36.2</v>
+        <v>36.51</v>
       </c>
       <c r="E9" t="n">
-        <v>36.2</v>
+        <v>36.51</v>
       </c>
       <c r="F9" t="n">
-        <v>12247.166</v>
+        <v>5099.0238</v>
       </c>
       <c r="G9" t="n">
-        <v>36.31533333333333</v>
+        <v>-3839166.571</v>
       </c>
       <c r="H9" t="n">
-        <v>36.50766666666669</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36.14</v>
+        <v>36.52</v>
       </c>
       <c r="C10" t="n">
-        <v>36.12</v>
+        <v>36.52</v>
       </c>
       <c r="D10" t="n">
-        <v>36.14</v>
+        <v>36.52</v>
       </c>
       <c r="E10" t="n">
-        <v>36.12</v>
+        <v>36.52</v>
       </c>
       <c r="F10" t="n">
-        <v>57887.8968</v>
+        <v>58271.4028</v>
       </c>
       <c r="G10" t="n">
-        <v>36.28866666666666</v>
+        <v>-3780895.1682</v>
       </c>
       <c r="H10" t="n">
-        <v>36.50450000000002</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.11</v>
+        <v>36.52</v>
       </c>
       <c r="C11" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="D11" t="n">
-        <v>36.11</v>
+        <v>36.52</v>
       </c>
       <c r="E11" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="F11" t="n">
-        <v>243182.9021</v>
+        <v>11370.6258</v>
       </c>
       <c r="G11" t="n">
-        <v>36.26199999999999</v>
+        <v>-3780895.1682</v>
       </c>
       <c r="H11" t="n">
-        <v>36.48816666666669</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="C12" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="E12" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="F12" t="n">
-        <v>4080.8744</v>
+        <v>14076.5401</v>
       </c>
       <c r="G12" t="n">
-        <v>36.23533333333333</v>
+        <v>-3794971.7083</v>
       </c>
       <c r="H12" t="n">
-        <v>36.47216666666669</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="C13" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="D13" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="E13" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>1795.9827</v>
       </c>
       <c r="G13" t="n">
-        <v>36.21266666666667</v>
+        <v>-3794971.7083</v>
       </c>
       <c r="H13" t="n">
-        <v>36.45616666666669</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="C14" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="D14" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="E14" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="F14" t="n">
-        <v>69081.4757</v>
+        <v>16.0923</v>
       </c>
       <c r="G14" t="n">
-        <v>36.19000000000001</v>
+        <v>-3794971.7083</v>
       </c>
       <c r="H14" t="n">
-        <v>36.45266666666669</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36.1</v>
+        <v>36.55</v>
       </c>
       <c r="C15" t="n">
-        <v>36.1</v>
+        <v>36.55</v>
       </c>
       <c r="D15" t="n">
-        <v>36.1</v>
+        <v>36.55</v>
       </c>
       <c r="E15" t="n">
-        <v>36.1</v>
+        <v>36.55</v>
       </c>
       <c r="F15" t="n">
-        <v>2626.8063</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>36.17800000000001</v>
+        <v>-3794951.7083</v>
       </c>
       <c r="H15" t="n">
-        <v>36.43450000000002</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36.1</v>
+        <v>36.75</v>
       </c>
       <c r="C16" t="n">
-        <v>36.1</v>
+        <v>36.75</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1</v>
+        <v>36.75</v>
       </c>
       <c r="E16" t="n">
-        <v>36.1</v>
+        <v>36.75</v>
       </c>
       <c r="F16" t="n">
-        <v>2626.8063</v>
+        <v>60.3732</v>
       </c>
       <c r="G16" t="n">
-        <v>36.16600000000002</v>
+        <v>-3794891.3351</v>
       </c>
       <c r="H16" t="n">
-        <v>36.42116666666668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1</v>
+        <v>36.55</v>
       </c>
       <c r="D17" t="n">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="E17" t="n">
-        <v>36.1</v>
+        <v>36.55</v>
       </c>
       <c r="F17" t="n">
-        <v>13694.8275</v>
+        <v>2085.5096</v>
       </c>
       <c r="G17" t="n">
-        <v>36.15866666666668</v>
+        <v>-3796976.8447</v>
       </c>
       <c r="H17" t="n">
-        <v>36.41433333333335</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="C18" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="D18" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="E18" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="F18" t="n">
-        <v>19757.559</v>
+        <v>9714.0244</v>
       </c>
       <c r="G18" t="n">
-        <v>36.15133333333335</v>
+        <v>-3806690.8691</v>
       </c>
       <c r="H18" t="n">
-        <v>36.40750000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.1</v>
+        <v>36.53</v>
       </c>
       <c r="C19" t="n">
-        <v>36.1</v>
+        <v>36.53</v>
       </c>
       <c r="D19" t="n">
-        <v>36.1</v>
+        <v>36.53</v>
       </c>
       <c r="E19" t="n">
-        <v>36.1</v>
+        <v>36.53</v>
       </c>
       <c r="F19" t="n">
-        <v>2593.7644</v>
+        <v>9714.0245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.14466666666668</v>
+        <v>-3796976.8446</v>
       </c>
       <c r="H19" t="n">
-        <v>36.40066666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.09</v>
+        <v>36.53</v>
       </c>
       <c r="C20" t="n">
-        <v>35.98</v>
+        <v>36.53</v>
       </c>
       <c r="D20" t="n">
-        <v>36.09</v>
+        <v>36.53</v>
       </c>
       <c r="E20" t="n">
-        <v>35.98</v>
+        <v>36.53</v>
       </c>
       <c r="F20" t="n">
-        <v>56308.1853</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="n">
-        <v>36.13000000000001</v>
+        <v>-3796976.8446</v>
       </c>
       <c r="H20" t="n">
-        <v>36.39183333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>35.98</v>
+        <v>36.53</v>
       </c>
       <c r="C21" t="n">
-        <v>35.98</v>
+        <v>36.52</v>
       </c>
       <c r="D21" t="n">
-        <v>35.98</v>
+        <v>36.53</v>
       </c>
       <c r="E21" t="n">
-        <v>35.98</v>
+        <v>36.52</v>
       </c>
       <c r="F21" t="n">
-        <v>13524.1563</v>
+        <v>8055.232</v>
       </c>
       <c r="G21" t="n">
-        <v>36.11733333333335</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H21" t="n">
-        <v>36.3835</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35.84</v>
+        <v>36.52</v>
       </c>
       <c r="C22" t="n">
-        <v>35.84</v>
+        <v>36.52</v>
       </c>
       <c r="D22" t="n">
-        <v>35.84</v>
+        <v>36.52</v>
       </c>
       <c r="E22" t="n">
-        <v>35.84</v>
+        <v>36.52</v>
       </c>
       <c r="F22" t="n">
-        <v>15990.9326</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="n">
-        <v>36.09666666666669</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H22" t="n">
-        <v>36.3775</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>35.82</v>
+        <v>36.52</v>
       </c>
       <c r="C23" t="n">
-        <v>35.82</v>
+        <v>36.52</v>
       </c>
       <c r="D23" t="n">
-        <v>35.82</v>
+        <v>36.52</v>
       </c>
       <c r="E23" t="n">
-        <v>35.82</v>
+        <v>36.52</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>1578.7061</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05600000000003</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H23" t="n">
-        <v>36.37116666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>36.52</v>
       </c>
       <c r="C24" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="D24" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>36.52</v>
       </c>
       <c r="F24" t="n">
-        <v>50000</v>
+        <v>6302.2235</v>
       </c>
       <c r="G24" t="n">
-        <v>36.04933333333336</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H24" t="n">
-        <v>36.36533333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.18</v>
+        <v>36.52</v>
       </c>
       <c r="C25" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D25" t="n">
-        <v>36.3</v>
+        <v>36.52</v>
       </c>
       <c r="E25" t="n">
-        <v>36.18</v>
+        <v>36.5</v>
       </c>
       <c r="F25" t="n">
-        <v>62</v>
+        <v>40823.8867</v>
       </c>
       <c r="G25" t="n">
-        <v>36.06133333333335</v>
+        <v>-3845855.9633</v>
       </c>
       <c r="H25" t="n">
-        <v>36.36283333333335</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.15</v>
+        <v>36.5</v>
       </c>
       <c r="C26" t="n">
-        <v>36.15</v>
+        <v>36.5</v>
       </c>
       <c r="D26" t="n">
-        <v>36.15</v>
+        <v>36.5</v>
       </c>
       <c r="E26" t="n">
-        <v>36.15</v>
+        <v>36.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2794.0067</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>36.06466666666668</v>
+        <v>-3845855.9633</v>
       </c>
       <c r="H26" t="n">
-        <v>36.35516666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.01</v>
+        <v>36.5</v>
       </c>
       <c r="C27" t="n">
-        <v>35.82</v>
+        <v>36.44</v>
       </c>
       <c r="D27" t="n">
-        <v>36.01</v>
+        <v>36.5</v>
       </c>
       <c r="E27" t="n">
-        <v>35.82</v>
+        <v>36.44</v>
       </c>
       <c r="F27" t="n">
-        <v>32786.2738</v>
+        <v>10073.3544</v>
       </c>
       <c r="G27" t="n">
-        <v>36.04600000000002</v>
+        <v>-3855929.3177</v>
       </c>
       <c r="H27" t="n">
-        <v>36.34433333333335</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.9</v>
+        <v>36.44</v>
       </c>
       <c r="C28" t="n">
-        <v>35.9</v>
+        <v>36.44</v>
       </c>
       <c r="D28" t="n">
-        <v>35.9</v>
+        <v>36.44</v>
       </c>
       <c r="E28" t="n">
-        <v>35.9</v>
+        <v>36.44</v>
       </c>
       <c r="F28" t="n">
-        <v>198.7119</v>
+        <v>572.3418</v>
       </c>
       <c r="G28" t="n">
-        <v>36.03266666666669</v>
+        <v>-3855929.3177</v>
       </c>
       <c r="H28" t="n">
-        <v>36.33250000000002</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="C29" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="D29" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="E29" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="F29" t="n">
-        <v>198.712</v>
+        <v>352.3387</v>
       </c>
       <c r="G29" t="n">
-        <v>36.01933333333334</v>
+        <v>-3856281.656400001</v>
       </c>
       <c r="H29" t="n">
-        <v>36.32066666666669</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="C30" t="n">
-        <v>35.83</v>
+        <v>36.28</v>
       </c>
       <c r="D30" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="E30" t="n">
-        <v>35.83</v>
+        <v>36.28</v>
       </c>
       <c r="F30" t="n">
-        <v>36079.1928</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="n">
-        <v>36.00133333333335</v>
+        <v>-3856281.656400001</v>
       </c>
       <c r="H30" t="n">
-        <v>36.30750000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35.82</v>
+        <v>36.28</v>
       </c>
       <c r="C31" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="D31" t="n">
-        <v>35.82</v>
+        <v>36.28</v>
       </c>
       <c r="E31" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="F31" t="n">
-        <v>393.1114</v>
+        <v>27000</v>
       </c>
       <c r="G31" t="n">
-        <v>35.98266666666668</v>
+        <v>-3883281.656400001</v>
       </c>
       <c r="H31" t="n">
-        <v>36.29416666666669</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="C32" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="D32" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="E32" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="F32" t="n">
-        <v>3858.4169</v>
+        <v>888</v>
       </c>
       <c r="G32" t="n">
-        <v>35.96400000000002</v>
+        <v>-3883281.656400001</v>
       </c>
       <c r="H32" t="n">
-        <v>36.28100000000003</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="C33" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="D33" t="n">
-        <v>35.82</v>
+        <v>36.21</v>
       </c>
       <c r="E33" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="F33" t="n">
-        <v>13807.1284</v>
+        <v>600</v>
       </c>
       <c r="G33" t="n">
-        <v>35.94533333333335</v>
+        <v>-3883881.656400001</v>
       </c>
       <c r="H33" t="n">
-        <v>36.26800000000003</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="C34" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="F34" t="n">
-        <v>252.0781</v>
+        <v>3000</v>
       </c>
       <c r="G34" t="n">
-        <v>35.93866666666668</v>
+        <v>-3883881.656400001</v>
       </c>
       <c r="H34" t="n">
-        <v>36.2601666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="C35" t="n">
-        <v>35.82</v>
+        <v>36.17</v>
       </c>
       <c r="D35" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="E35" t="n">
-        <v>35.82</v>
+        <v>36.17</v>
       </c>
       <c r="F35" t="n">
-        <v>2141.2122</v>
+        <v>12206.8535</v>
       </c>
       <c r="G35" t="n">
-        <v>35.92800000000002</v>
+        <v>-3896088.509900001</v>
       </c>
       <c r="H35" t="n">
-        <v>36.24933333333338</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.82</v>
+        <v>36.17</v>
       </c>
       <c r="C36" t="n">
-        <v>35.79</v>
+        <v>36.15</v>
       </c>
       <c r="D36" t="n">
-        <v>35.82</v>
+        <v>36.17</v>
       </c>
       <c r="E36" t="n">
-        <v>35.79</v>
+        <v>36.15</v>
       </c>
       <c r="F36" t="n">
-        <v>11016.5635</v>
+        <v>35488.4324</v>
       </c>
       <c r="G36" t="n">
-        <v>35.91533333333335</v>
+        <v>-3931576.942300001</v>
       </c>
       <c r="H36" t="n">
-        <v>36.23583333333337</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.71</v>
+        <v>36.43</v>
       </c>
       <c r="C37" t="n">
-        <v>35.69</v>
+        <v>36.43</v>
       </c>
       <c r="D37" t="n">
-        <v>35.71</v>
+        <v>36.43</v>
       </c>
       <c r="E37" t="n">
-        <v>35.69</v>
+        <v>36.43</v>
       </c>
       <c r="F37" t="n">
-        <v>8695.785599999999</v>
+        <v>10080.8492</v>
       </c>
       <c r="G37" t="n">
-        <v>35.90533333333335</v>
+        <v>-3921496.093100001</v>
       </c>
       <c r="H37" t="n">
-        <v>36.22066666666671</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.61</v>
+        <v>36.2</v>
       </c>
       <c r="C38" t="n">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="D38" t="n">
-        <v>35.61</v>
+        <v>36.2</v>
       </c>
       <c r="E38" t="n">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="F38" t="n">
-        <v>8051.5924</v>
+        <v>12247.166</v>
       </c>
       <c r="G38" t="n">
-        <v>35.89066666666668</v>
+        <v>-3933743.259100001</v>
       </c>
       <c r="H38" t="n">
-        <v>36.20533333333337</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35.54</v>
+        <v>36.14</v>
       </c>
       <c r="C39" t="n">
-        <v>35.54</v>
+        <v>36.12</v>
       </c>
       <c r="D39" t="n">
-        <v>35.54</v>
+        <v>36.14</v>
       </c>
       <c r="E39" t="n">
-        <v>35.54</v>
+        <v>36.12</v>
       </c>
       <c r="F39" t="n">
-        <v>9385.230799999999</v>
+        <v>57887.8968</v>
       </c>
       <c r="G39" t="n">
-        <v>35.85333333333335</v>
+        <v>-3991631.155900001</v>
       </c>
       <c r="H39" t="n">
-        <v>36.18900000000004</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>35.54</v>
+        <v>36.11</v>
       </c>
       <c r="C40" t="n">
-        <v>35.54</v>
+        <v>36.1</v>
       </c>
       <c r="D40" t="n">
-        <v>35.54</v>
+        <v>36.11</v>
       </c>
       <c r="E40" t="n">
-        <v>35.53</v>
+        <v>36.1</v>
       </c>
       <c r="F40" t="n">
-        <v>48971.5311</v>
+        <v>243182.9021</v>
       </c>
       <c r="G40" t="n">
-        <v>35.80266666666668</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H40" t="n">
-        <v>36.17283333333337</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,40 +1798,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>35.54</v>
+        <v>36.1</v>
       </c>
       <c r="C41" t="n">
-        <v>35.54</v>
+        <v>36.1</v>
       </c>
       <c r="D41" t="n">
-        <v>35.54</v>
+        <v>36.1</v>
       </c>
       <c r="E41" t="n">
-        <v>35.54</v>
+        <v>36.1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5145999999999999</v>
+        <v>4080.8744</v>
       </c>
       <c r="G41" t="n">
-        <v>35.76200000000001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H41" t="n">
-        <v>36.15650000000004</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K41" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="L41" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1962,44 +1837,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="C42" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="D42" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="E42" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="F42" t="n">
-        <v>23.5104</v>
+        <v>10000</v>
       </c>
       <c r="G42" t="n">
-        <v>35.75733333333334</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H42" t="n">
-        <v>36.1436666666667</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K42" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="L42" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="M42" t="inlineStr">
+        <v>36.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,44 +1880,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="C43" t="n">
-        <v>35.82</v>
+        <v>36.1</v>
       </c>
       <c r="D43" t="n">
-        <v>35.82</v>
+        <v>36.1</v>
       </c>
       <c r="E43" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>69081.4757</v>
       </c>
       <c r="G43" t="n">
-        <v>35.75200000000002</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H43" t="n">
-        <v>36.1321666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="L43" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="M43" t="inlineStr">
+        <v>36.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,36 +1921,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>35.82</v>
+        <v>36.1</v>
       </c>
       <c r="C44" t="n">
-        <v>35.61</v>
+        <v>36.1</v>
       </c>
       <c r="D44" t="n">
-        <v>35.82</v>
+        <v>36.1</v>
       </c>
       <c r="E44" t="n">
-        <v>35.61</v>
+        <v>36.1</v>
       </c>
       <c r="F44" t="n">
-        <v>2268.8205</v>
+        <v>2626.8063</v>
       </c>
       <c r="G44" t="n">
-        <v>35.73266666666668</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H44" t="n">
-        <v>36.1171666666667</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>36.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>36.1</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,42 +1960,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>35.61</v>
+        <v>36.1</v>
       </c>
       <c r="C45" t="n">
-        <v>35.5</v>
+        <v>36.1</v>
       </c>
       <c r="D45" t="n">
-        <v>35.61</v>
+        <v>36.1</v>
       </c>
       <c r="E45" t="n">
-        <v>35.5</v>
+        <v>36.1</v>
       </c>
       <c r="F45" t="n">
-        <v>114335.8928</v>
+        <v>2626.8063</v>
       </c>
       <c r="G45" t="n">
-        <v>35.71066666666668</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H45" t="n">
-        <v>36.10033333333336</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K45" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,42 +2003,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="C46" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="D46" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="E46" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="F46" t="n">
-        <v>4023.5291</v>
+        <v>13694.8275</v>
       </c>
       <c r="G46" t="n">
-        <v>35.69000000000001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H46" t="n">
-        <v>36.08300000000003</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K46" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,42 +2046,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="C47" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="D47" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="E47" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="F47" t="n">
-        <v>24834.7648</v>
+        <v>19757.559</v>
       </c>
       <c r="G47" t="n">
-        <v>35.66933333333334</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H47" t="n">
-        <v>36.06233333333337</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K47" t="n">
-        <v>35.51</v>
+        <v>36.1</v>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,42 +2085,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="C48" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="D48" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="E48" t="n">
-        <v>35.75</v>
+        <v>36.1</v>
       </c>
       <c r="F48" t="n">
-        <v>62.1293</v>
+        <v>2593.7644</v>
       </c>
       <c r="G48" t="n">
-        <v>35.66466666666667</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H48" t="n">
-        <v>36.04900000000003</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K48" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,42 +2128,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>35.75</v>
+        <v>36.09</v>
       </c>
       <c r="C49" t="n">
-        <v>35.75</v>
+        <v>35.98</v>
       </c>
       <c r="D49" t="n">
-        <v>35.75</v>
+        <v>36.09</v>
       </c>
       <c r="E49" t="n">
-        <v>35.75</v>
+        <v>35.98</v>
       </c>
       <c r="F49" t="n">
-        <v>50.7875</v>
+        <v>56308.1853</v>
       </c>
       <c r="G49" t="n">
-        <v>35.648</v>
+        <v>-4291122.243300001</v>
       </c>
       <c r="H49" t="n">
-        <v>36.03616666666669</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="K49" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2312,42 +2171,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>35.6</v>
+        <v>35.98</v>
       </c>
       <c r="C50" t="n">
-        <v>35.6</v>
+        <v>35.98</v>
       </c>
       <c r="D50" t="n">
-        <v>35.6</v>
+        <v>35.98</v>
       </c>
       <c r="E50" t="n">
-        <v>35.6</v>
+        <v>35.98</v>
       </c>
       <c r="F50" t="n">
-        <v>15507.4136</v>
+        <v>13524.1563</v>
       </c>
       <c r="G50" t="n">
-        <v>35.63333333333333</v>
+        <v>-4291122.243300001</v>
       </c>
       <c r="H50" t="n">
-        <v>36.02066666666669</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>35.98</v>
       </c>
       <c r="K50" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,42 +2214,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35.57</v>
+        <v>35.84</v>
       </c>
       <c r="C51" t="n">
-        <v>36.29</v>
+        <v>35.84</v>
       </c>
       <c r="D51" t="n">
-        <v>36.29</v>
+        <v>35.84</v>
       </c>
       <c r="E51" t="n">
-        <v>35.52</v>
+        <v>35.84</v>
       </c>
       <c r="F51" t="n">
-        <v>193450</v>
+        <v>15990.9326</v>
       </c>
       <c r="G51" t="n">
-        <v>35.66666666666666</v>
+        <v>-4307113.175900001</v>
       </c>
       <c r="H51" t="n">
-        <v>36.01666666666669</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,40 +2255,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>35.61</v>
+        <v>35.82</v>
       </c>
       <c r="C52" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="D52" t="n">
-        <v>36.89</v>
+        <v>35.82</v>
       </c>
       <c r="E52" t="n">
-        <v>35.52</v>
+        <v>35.82</v>
       </c>
       <c r="F52" t="n">
-        <v>190674.1855</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>35.70733333333332</v>
+        <v>-4307127.175900001</v>
       </c>
       <c r="H52" t="n">
-        <v>36.01300000000003</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,40 +2296,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="C53" t="n">
-        <v>36.59</v>
+        <v>36.1</v>
       </c>
       <c r="D53" t="n">
-        <v>36.77</v>
+        <v>36.1</v>
       </c>
       <c r="E53" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="F53" t="n">
-        <v>2422.1111</v>
+        <v>50000</v>
       </c>
       <c r="G53" t="n">
-        <v>35.77333333333333</v>
+        <v>-4257127.175900001</v>
       </c>
       <c r="H53" t="n">
-        <v>36.0141666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,40 +2337,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.38</v>
+        <v>36.18</v>
       </c>
       <c r="C54" t="n">
-        <v>36.38</v>
+        <v>36.3</v>
       </c>
       <c r="D54" t="n">
-        <v>36.38</v>
+        <v>36.3</v>
       </c>
       <c r="E54" t="n">
-        <v>36.38</v>
+        <v>36.18</v>
       </c>
       <c r="F54" t="n">
-        <v>488.6415</v>
+        <v>62</v>
       </c>
       <c r="G54" t="n">
-        <v>35.82933333333333</v>
+        <v>-4257065.175900001</v>
       </c>
       <c r="H54" t="n">
-        <v>36.01183333333336</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,40 +2378,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>36.27</v>
+        <v>36.15</v>
       </c>
       <c r="C55" t="n">
-        <v>36</v>
+        <v>36.15</v>
       </c>
       <c r="D55" t="n">
-        <v>36.27</v>
+        <v>36.15</v>
       </c>
       <c r="E55" t="n">
-        <v>36</v>
+        <v>36.15</v>
       </c>
       <c r="F55" t="n">
-        <v>23266.8503</v>
+        <v>2794.0067</v>
       </c>
       <c r="G55" t="n">
-        <v>35.86</v>
+        <v>-4259859.182600001</v>
       </c>
       <c r="H55" t="n">
-        <v>36.0031666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,40 +2419,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36.1</v>
+        <v>36.01</v>
       </c>
       <c r="C56" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="D56" t="n">
-        <v>36.1</v>
+        <v>36.01</v>
       </c>
       <c r="E56" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="F56" t="n">
-        <v>50578.7371</v>
+        <v>32786.2738</v>
       </c>
       <c r="G56" t="n">
-        <v>35.89733333333334</v>
+        <v>-4292645.4564</v>
       </c>
       <c r="H56" t="n">
-        <v>35.99650000000003</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,40 +2460,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36.17</v>
+        <v>35.9</v>
       </c>
       <c r="C57" t="n">
-        <v>36.59</v>
+        <v>35.9</v>
       </c>
       <c r="D57" t="n">
-        <v>36.59</v>
+        <v>35.9</v>
       </c>
       <c r="E57" t="n">
-        <v>36.17</v>
+        <v>35.9</v>
       </c>
       <c r="F57" t="n">
-        <v>62</v>
+        <v>198.7119</v>
       </c>
       <c r="G57" t="n">
-        <v>35.95333333333334</v>
+        <v>-4292446.7445</v>
       </c>
       <c r="H57" t="n">
-        <v>35.99800000000003</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,40 +2501,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>36.11</v>
+        <v>35.9</v>
       </c>
       <c r="C58" t="n">
-        <v>36.88</v>
+        <v>35.9</v>
       </c>
       <c r="D58" t="n">
-        <v>36.88</v>
+        <v>35.9</v>
       </c>
       <c r="E58" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F58" t="n">
-        <v>171000</v>
+        <v>198.712</v>
       </c>
       <c r="G58" t="n">
-        <v>36.024</v>
+        <v>-4292446.7445</v>
       </c>
       <c r="H58" t="n">
-        <v>36.00533333333337</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,40 +2542,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="C59" t="n">
-        <v>36.21</v>
+        <v>35.83</v>
       </c>
       <c r="D59" t="n">
-        <v>36.21</v>
+        <v>35.9</v>
       </c>
       <c r="E59" t="n">
-        <v>36.2</v>
+        <v>35.83</v>
       </c>
       <c r="F59" t="n">
-        <v>35603.1823</v>
+        <v>36079.1928</v>
       </c>
       <c r="G59" t="n">
-        <v>36.064</v>
+        <v>-4328525.9373</v>
       </c>
       <c r="H59" t="n">
-        <v>36.00150000000004</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,40 +2583,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>36.21</v>
+        <v>35.82</v>
       </c>
       <c r="C60" t="n">
-        <v>36.21</v>
+        <v>35.82</v>
       </c>
       <c r="D60" t="n">
-        <v>36.21</v>
+        <v>35.82</v>
       </c>
       <c r="E60" t="n">
-        <v>36.21</v>
+        <v>35.82</v>
       </c>
       <c r="F60" t="n">
-        <v>11813.568</v>
+        <v>393.1114</v>
       </c>
       <c r="G60" t="n">
-        <v>36.11133333333334</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H60" t="n">
-        <v>36.00033333333337</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,40 +2624,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="C61" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="D61" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="E61" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>3858.4169</v>
       </c>
       <c r="G61" t="n">
-        <v>36.164</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H61" t="n">
-        <v>36.0006666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,40 +2665,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="C62" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="D62" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="E62" t="n">
-        <v>36.3</v>
+        <v>35.82</v>
       </c>
       <c r="F62" t="n">
-        <v>275.4820936639118</v>
+        <v>13807.1284</v>
       </c>
       <c r="G62" t="n">
-        <v>36.21666666666667</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H62" t="n">
-        <v>36.0021666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,40 +2706,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>36.16</v>
+        <v>36</v>
       </c>
       <c r="C63" t="n">
-        <v>36.12</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
-        <v>36.16</v>
+        <v>36</v>
       </c>
       <c r="E63" t="n">
-        <v>36.12</v>
+        <v>36</v>
       </c>
       <c r="F63" t="n">
-        <v>21038.1582</v>
+        <v>252.0781</v>
       </c>
       <c r="G63" t="n">
-        <v>36.24133333333334</v>
+        <v>-4328666.970600001</v>
       </c>
       <c r="H63" t="n">
-        <v>36.0006666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,40 +2747,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>36.12</v>
+        <v>35.82</v>
       </c>
       <c r="C64" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="D64" t="n">
-        <v>36.12</v>
+        <v>35.82</v>
       </c>
       <c r="E64" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="F64" t="n">
-        <v>17809.2528</v>
+        <v>2141.2122</v>
       </c>
       <c r="G64" t="n">
-        <v>36.26466666666667</v>
+        <v>-4330808.182800001</v>
       </c>
       <c r="H64" t="n">
-        <v>35.99900000000003</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,40 +2788,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="C65" t="n">
-        <v>36</v>
+        <v>35.79</v>
       </c>
       <c r="D65" t="n">
-        <v>36.1</v>
+        <v>35.82</v>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>35.79</v>
       </c>
       <c r="F65" t="n">
-        <v>20307.1905</v>
+        <v>11016.5635</v>
       </c>
       <c r="G65" t="n">
-        <v>36.29133333333333</v>
+        <v>-4341824.746300001</v>
       </c>
       <c r="H65" t="n">
-        <v>35.9956666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,40 +2829,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>36.19</v>
+        <v>35.71</v>
       </c>
       <c r="C66" t="n">
-        <v>36.19</v>
+        <v>35.69</v>
       </c>
       <c r="D66" t="n">
-        <v>36.19</v>
+        <v>35.71</v>
       </c>
       <c r="E66" t="n">
-        <v>36.19</v>
+        <v>35.69</v>
       </c>
       <c r="F66" t="n">
-        <v>14</v>
+        <v>8695.785599999999</v>
       </c>
       <c r="G66" t="n">
-        <v>36.28466666666667</v>
+        <v>-4350520.531900001</v>
       </c>
       <c r="H66" t="n">
-        <v>35.99600000000003</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,40 +2870,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>36.19</v>
+        <v>35.61</v>
       </c>
       <c r="C67" t="n">
-        <v>36.19</v>
+        <v>35.6</v>
       </c>
       <c r="D67" t="n">
-        <v>36.19</v>
+        <v>35.61</v>
       </c>
       <c r="E67" t="n">
-        <v>36.19</v>
+        <v>35.6</v>
       </c>
       <c r="F67" t="n">
-        <v>9991.7068</v>
+        <v>8051.5924</v>
       </c>
       <c r="G67" t="n">
-        <v>36.27733333333334</v>
+        <v>-4358572.124300001</v>
       </c>
       <c r="H67" t="n">
-        <v>35.9966666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,40 +2911,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>36.19</v>
+        <v>35.54</v>
       </c>
       <c r="C68" t="n">
-        <v>36.19</v>
+        <v>35.54</v>
       </c>
       <c r="D68" t="n">
-        <v>36.19</v>
+        <v>35.54</v>
       </c>
       <c r="E68" t="n">
-        <v>36.19</v>
+        <v>35.54</v>
       </c>
       <c r="F68" t="n">
-        <v>7442.0748</v>
+        <v>9385.230799999999</v>
       </c>
       <c r="G68" t="n">
-        <v>36.25066666666667</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H68" t="n">
-        <v>35.9926666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,40 +2952,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="C69" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="D69" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="E69" t="n">
-        <v>36</v>
+        <v>35.53</v>
       </c>
       <c r="F69" t="n">
-        <v>2253.8205</v>
+        <v>48971.5311</v>
       </c>
       <c r="G69" t="n">
-        <v>36.22533333333334</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H69" t="n">
-        <v>35.98933333333337</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,40 +2993,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="C70" t="n">
-        <v>36.84</v>
+        <v>35.54</v>
       </c>
       <c r="D70" t="n">
-        <v>36.84</v>
+        <v>35.54</v>
       </c>
       <c r="E70" t="n">
-        <v>35.53</v>
+        <v>35.54</v>
       </c>
       <c r="F70" t="n">
-        <v>380000</v>
+        <v>0.5145999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>36.28133333333334</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H70" t="n">
-        <v>36.00133333333338</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,40 +3034,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="C71" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="D71" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="E71" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>23.5104</v>
       </c>
       <c r="G71" t="n">
-        <v>36.26800000000001</v>
+        <v>-4367933.844700001</v>
       </c>
       <c r="H71" t="n">
-        <v>35.99800000000005</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,40 +3075,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>35.92</v>
+        <v>35.75</v>
       </c>
       <c r="C72" t="n">
-        <v>35.91</v>
+        <v>35.82</v>
       </c>
       <c r="D72" t="n">
-        <v>35.92</v>
+        <v>35.82</v>
       </c>
       <c r="E72" t="n">
-        <v>35.91</v>
+        <v>35.75</v>
       </c>
       <c r="F72" t="n">
-        <v>15662.706</v>
+        <v>50</v>
       </c>
       <c r="G72" t="n">
-        <v>36.22266666666667</v>
+        <v>-4367883.844700001</v>
       </c>
       <c r="H72" t="n">
-        <v>35.99483333333338</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,40 +3116,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>35.91</v>
+        <v>35.82</v>
       </c>
       <c r="C73" t="n">
-        <v>35.83</v>
+        <v>35.61</v>
       </c>
       <c r="D73" t="n">
-        <v>35.91</v>
+        <v>35.82</v>
       </c>
       <c r="E73" t="n">
-        <v>35.83</v>
+        <v>35.61</v>
       </c>
       <c r="F73" t="n">
-        <v>30358.7836</v>
+        <v>2268.8205</v>
       </c>
       <c r="G73" t="n">
-        <v>36.15266666666667</v>
+        <v>-4370152.665200002</v>
       </c>
       <c r="H73" t="n">
-        <v>35.99033333333338</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,40 +3157,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="C74" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="D74" t="n">
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="E74" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="F74" t="n">
-        <v>14</v>
+        <v>114335.8928</v>
       </c>
       <c r="G74" t="n">
-        <v>36.13866666666667</v>
+        <v>-4484488.558000001</v>
       </c>
       <c r="H74" t="n">
-        <v>35.98866666666672</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3366,40 +3198,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35.9</v>
+        <v>35.51</v>
       </c>
       <c r="C75" t="n">
-        <v>35.9</v>
+        <v>35.51</v>
       </c>
       <c r="D75" t="n">
-        <v>35.9</v>
+        <v>35.51</v>
       </c>
       <c r="E75" t="n">
-        <v>35.9</v>
+        <v>35.51</v>
       </c>
       <c r="F75" t="n">
-        <v>11912.9801</v>
+        <v>4023.5291</v>
       </c>
       <c r="G75" t="n">
-        <v>36.118</v>
+        <v>-4480465.028900001</v>
       </c>
       <c r="H75" t="n">
-        <v>35.98533333333339</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,40 +3239,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35.83</v>
+        <v>35.51</v>
       </c>
       <c r="C76" t="n">
-        <v>35.83</v>
+        <v>35.51</v>
       </c>
       <c r="D76" t="n">
-        <v>35.83</v>
+        <v>35.51</v>
       </c>
       <c r="E76" t="n">
-        <v>35.83</v>
+        <v>35.51</v>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>24834.7648</v>
       </c>
       <c r="G76" t="n">
-        <v>36.08666666666667</v>
+        <v>-4480465.028900001</v>
       </c>
       <c r="H76" t="n">
-        <v>35.98083333333339</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,40 +3280,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="C77" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="D77" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="E77" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="F77" t="n">
-        <v>1250.4109</v>
+        <v>62.1293</v>
       </c>
       <c r="G77" t="n">
-        <v>36.06000000000001</v>
+        <v>-4480402.899600001</v>
       </c>
       <c r="H77" t="n">
-        <v>35.97750000000006</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,40 +3321,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="C78" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="D78" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="E78" t="n">
-        <v>35.9</v>
+        <v>35.75</v>
       </c>
       <c r="F78" t="n">
-        <v>375.1066</v>
+        <v>50.7875</v>
       </c>
       <c r="G78" t="n">
-        <v>36.04533333333334</v>
+        <v>-4480402.899600001</v>
       </c>
       <c r="H78" t="n">
-        <v>35.97416666666673</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,40 +3362,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="C79" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="D79" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="E79" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="F79" t="n">
-        <v>47.6246</v>
+        <v>15507.4136</v>
       </c>
       <c r="G79" t="n">
-        <v>36.03866666666667</v>
+        <v>-4495910.313200001</v>
       </c>
       <c r="H79" t="n">
-        <v>35.97250000000006</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,40 +3403,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>35.85</v>
+        <v>35.57</v>
       </c>
       <c r="C80" t="n">
-        <v>35.85</v>
+        <v>36.29</v>
       </c>
       <c r="D80" t="n">
-        <v>35.85</v>
+        <v>36.29</v>
       </c>
       <c r="E80" t="n">
-        <v>35.84</v>
+        <v>35.52</v>
       </c>
       <c r="F80" t="n">
-        <v>4077.7335</v>
+        <v>193450</v>
       </c>
       <c r="G80" t="n">
-        <v>36.02866666666667</v>
+        <v>-4302460.313200001</v>
       </c>
       <c r="H80" t="n">
-        <v>35.97033333333339</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,40 +3444,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.84</v>
+        <v>35.61</v>
       </c>
       <c r="C81" t="n">
-        <v>35.84</v>
+        <v>36.3</v>
       </c>
       <c r="D81" t="n">
-        <v>35.84</v>
+        <v>36.89</v>
       </c>
       <c r="E81" t="n">
-        <v>35.84</v>
+        <v>35.52</v>
       </c>
       <c r="F81" t="n">
-        <v>3878.6534</v>
+        <v>190674.1855</v>
       </c>
       <c r="G81" t="n">
-        <v>36.00533333333335</v>
+        <v>-4111786.127700001</v>
       </c>
       <c r="H81" t="n">
-        <v>35.96800000000006</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,40 +3485,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>35.85</v>
+        <v>36.17</v>
       </c>
       <c r="C82" t="n">
-        <v>35.85</v>
+        <v>36.59</v>
       </c>
       <c r="D82" t="n">
-        <v>35.85</v>
+        <v>36.77</v>
       </c>
       <c r="E82" t="n">
-        <v>35.85</v>
+        <v>36.17</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>2422.1111</v>
       </c>
       <c r="G82" t="n">
-        <v>35.98266666666668</v>
+        <v>-4109364.016600001</v>
       </c>
       <c r="H82" t="n">
-        <v>35.96816666666673</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,40 +3526,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>35.84</v>
+        <v>36.38</v>
       </c>
       <c r="C83" t="n">
-        <v>35.83</v>
+        <v>36.38</v>
       </c>
       <c r="D83" t="n">
-        <v>35.84</v>
+        <v>36.38</v>
       </c>
       <c r="E83" t="n">
-        <v>35.83</v>
+        <v>36.38</v>
       </c>
       <c r="F83" t="n">
-        <v>6959.0093</v>
+        <v>488.6415</v>
       </c>
       <c r="G83" t="n">
-        <v>35.95866666666669</v>
+        <v>-4109852.658100001</v>
       </c>
       <c r="H83" t="n">
-        <v>35.96833333333338</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,40 +3567,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>35.85</v>
+        <v>36.27</v>
       </c>
       <c r="C84" t="n">
-        <v>35.85</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>35.85</v>
+        <v>36.27</v>
       </c>
       <c r="E84" t="n">
-        <v>35.85</v>
+        <v>36</v>
       </c>
       <c r="F84" t="n">
-        <v>522.0751</v>
+        <v>23266.8503</v>
       </c>
       <c r="G84" t="n">
-        <v>35.94866666666669</v>
+        <v>-4133119.508400001</v>
       </c>
       <c r="H84" t="n">
-        <v>35.96416666666672</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,40 +3608,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="C85" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="D85" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="E85" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="F85" t="n">
-        <v>34414.1914</v>
+        <v>50578.7371</v>
       </c>
       <c r="G85" t="n">
-        <v>35.88266666666669</v>
+        <v>-4082540.771300001</v>
       </c>
       <c r="H85" t="n">
-        <v>35.95666666666671</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,40 +3649,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.85</v>
+        <v>36.17</v>
       </c>
       <c r="C86" t="n">
-        <v>35.83</v>
+        <v>36.59</v>
       </c>
       <c r="D86" t="n">
-        <v>35.85</v>
+        <v>36.59</v>
       </c>
       <c r="E86" t="n">
-        <v>35.83</v>
+        <v>36.17</v>
       </c>
       <c r="F86" t="n">
-        <v>7788.3283</v>
+        <v>62</v>
       </c>
       <c r="G86" t="n">
-        <v>35.87800000000003</v>
+        <v>-4082478.771300001</v>
       </c>
       <c r="H86" t="n">
-        <v>35.95133333333338</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,40 +3690,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>35.83</v>
+        <v>36.11</v>
       </c>
       <c r="C87" t="n">
-        <v>35.83</v>
+        <v>36.88</v>
       </c>
       <c r="D87" t="n">
-        <v>35.83</v>
+        <v>36.88</v>
       </c>
       <c r="E87" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="F87" t="n">
-        <v>749.7804</v>
+        <v>171000</v>
       </c>
       <c r="G87" t="n">
-        <v>35.8726666666667</v>
+        <v>-3911478.771300001</v>
       </c>
       <c r="H87" t="n">
-        <v>35.95150000000004</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,40 +3731,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="D88" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="E88" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="F88" t="n">
-        <v>14</v>
+        <v>35603.1823</v>
       </c>
       <c r="G88" t="n">
-        <v>35.88400000000003</v>
+        <v>-3947081.953600001</v>
       </c>
       <c r="H88" t="n">
-        <v>35.9531666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,40 +3772,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="D89" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="E89" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="F89" t="n">
-        <v>47.6246</v>
+        <v>11813.568</v>
       </c>
       <c r="G89" t="n">
-        <v>35.88400000000003</v>
+        <v>-3947081.953600001</v>
       </c>
       <c r="H89" t="n">
-        <v>35.95483333333337</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,40 +3813,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="C90" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="D90" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="E90" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="F90" t="n">
-        <v>1665.0449</v>
+        <v>14</v>
       </c>
       <c r="G90" t="n">
-        <v>35.8906666666667</v>
+        <v>-3947067.953600001</v>
       </c>
       <c r="H90" t="n">
-        <v>35.9576666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,40 +3854,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="C91" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="D91" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="E91" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="F91" t="n">
-        <v>1017.3746</v>
+        <v>275.4820936639118</v>
       </c>
       <c r="G91" t="n">
-        <v>35.90200000000003</v>
+        <v>-3947067.953600001</v>
       </c>
       <c r="H91" t="n">
-        <v>35.9606666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,40 +3895,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.9</v>
+        <v>36.16</v>
       </c>
       <c r="C92" t="n">
-        <v>35.9</v>
+        <v>36.12</v>
       </c>
       <c r="D92" t="n">
-        <v>35.9</v>
+        <v>36.16</v>
       </c>
       <c r="E92" t="n">
-        <v>35.9</v>
+        <v>36.12</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>21038.1582</v>
       </c>
       <c r="G92" t="n">
-        <v>35.90200000000003</v>
+        <v>-3968106.111800001</v>
       </c>
       <c r="H92" t="n">
-        <v>35.96200000000003</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,40 +3936,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>35.83</v>
+        <v>36.12</v>
       </c>
       <c r="C93" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="D93" t="n">
-        <v>35.83</v>
+        <v>36.12</v>
       </c>
       <c r="E93" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="F93" t="n">
-        <v>61240.3979</v>
+        <v>17809.2528</v>
       </c>
       <c r="G93" t="n">
-        <v>35.89533333333336</v>
+        <v>-3985915.3646</v>
       </c>
       <c r="H93" t="n">
-        <v>35.9616666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,40 +3977,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="C94" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D94" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="E94" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="F94" t="n">
-        <v>9322.685600000001</v>
+        <v>20307.1905</v>
       </c>
       <c r="G94" t="n">
-        <v>35.88200000000003</v>
+        <v>-4006222.5551</v>
       </c>
       <c r="H94" t="n">
-        <v>35.95833333333337</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,40 +4018,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="F95" t="n">
-        <v>1385.4253</v>
+        <v>14</v>
       </c>
       <c r="G95" t="n">
-        <v>35.89200000000002</v>
+        <v>-4006208.5551</v>
       </c>
       <c r="H95" t="n">
-        <v>35.96133333333337</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,40 +4059,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>35.8</v>
+        <v>36.19</v>
       </c>
       <c r="C96" t="n">
-        <v>35.8</v>
+        <v>36.19</v>
       </c>
       <c r="D96" t="n">
-        <v>35.8</v>
+        <v>36.19</v>
       </c>
       <c r="E96" t="n">
-        <v>35.8</v>
+        <v>36.19</v>
       </c>
       <c r="F96" t="n">
-        <v>39518.6365</v>
+        <v>9991.7068</v>
       </c>
       <c r="G96" t="n">
-        <v>35.88933333333335</v>
+        <v>-4006208.5551</v>
       </c>
       <c r="H96" t="n">
-        <v>35.96150000000004</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,40 +4100,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35.8</v>
+        <v>36.19</v>
       </c>
       <c r="C97" t="n">
-        <v>35.7</v>
+        <v>36.19</v>
       </c>
       <c r="D97" t="n">
-        <v>35.8</v>
+        <v>36.19</v>
       </c>
       <c r="E97" t="n">
-        <v>35.7</v>
+        <v>36.19</v>
       </c>
       <c r="F97" t="n">
-        <v>20232.4371</v>
+        <v>7442.0748</v>
       </c>
       <c r="G97" t="n">
-        <v>35.87933333333335</v>
+        <v>-4006208.5551</v>
       </c>
       <c r="H97" t="n">
-        <v>35.9616666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,40 +4141,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="C98" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="D98" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="E98" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="F98" t="n">
-        <v>8142.1693</v>
+        <v>2253.8205</v>
       </c>
       <c r="G98" t="n">
-        <v>35.87066666666669</v>
+        <v>-4008462.3756</v>
       </c>
       <c r="H98" t="n">
-        <v>35.96333333333337</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,40 +4182,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="C99" t="n">
-        <v>35.7</v>
+        <v>36.84</v>
       </c>
       <c r="D99" t="n">
-        <v>35.7</v>
+        <v>36.84</v>
       </c>
       <c r="E99" t="n">
-        <v>35.7</v>
+        <v>35.53</v>
       </c>
       <c r="F99" t="n">
-        <v>31511.0922</v>
+        <v>380000</v>
       </c>
       <c r="G99" t="n">
-        <v>35.86066666666669</v>
+        <v>-3628462.3756</v>
       </c>
       <c r="H99" t="n">
-        <v>35.96600000000003</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,40 +4223,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C100" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="D100" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="E100" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="F100" t="n">
-        <v>6479.7242</v>
+        <v>400</v>
       </c>
       <c r="G100" t="n">
-        <v>35.85066666666669</v>
+        <v>-3628862.3756</v>
       </c>
       <c r="H100" t="n">
-        <v>35.96866666666669</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,40 +4264,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35.7</v>
+        <v>35.92</v>
       </c>
       <c r="C101" t="n">
-        <v>36.24</v>
+        <v>35.91</v>
       </c>
       <c r="D101" t="n">
-        <v>36.24</v>
+        <v>35.92</v>
       </c>
       <c r="E101" t="n">
-        <v>35.6</v>
+        <v>35.91</v>
       </c>
       <c r="F101" t="n">
-        <v>380000</v>
+        <v>15662.706</v>
       </c>
       <c r="G101" t="n">
-        <v>35.87800000000002</v>
+        <v>-3613199.669600001</v>
       </c>
       <c r="H101" t="n">
-        <v>35.98033333333336</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,40 +4305,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.84</v>
+        <v>35.91</v>
       </c>
       <c r="C102" t="n">
-        <v>35.86</v>
+        <v>35.83</v>
       </c>
       <c r="D102" t="n">
-        <v>35.86</v>
+        <v>35.91</v>
       </c>
       <c r="E102" t="n">
-        <v>35.84</v>
+        <v>35.83</v>
       </c>
       <c r="F102" t="n">
-        <v>123.5956</v>
+        <v>30358.7836</v>
       </c>
       <c r="G102" t="n">
-        <v>35.88000000000002</v>
+        <v>-3643558.453200001</v>
       </c>
       <c r="H102" t="n">
-        <v>35.98216666666669</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,40 +4346,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="C103" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="D103" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E103" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="F103" t="n">
-        <v>97564.3968</v>
+        <v>14</v>
       </c>
       <c r="G103" t="n">
-        <v>35.86000000000002</v>
+        <v>-3643544.453200001</v>
       </c>
       <c r="H103" t="n">
-        <v>35.98016666666669</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,40 +4387,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>35.84</v>
+        <v>35.9</v>
       </c>
       <c r="C104" t="n">
-        <v>35.98</v>
+        <v>35.9</v>
       </c>
       <c r="D104" t="n">
-        <v>35.98</v>
+        <v>35.9</v>
       </c>
       <c r="E104" t="n">
-        <v>35.84</v>
+        <v>35.9</v>
       </c>
       <c r="F104" t="n">
-        <v>62</v>
+        <v>11912.9801</v>
       </c>
       <c r="G104" t="n">
-        <v>35.85866666666669</v>
+        <v>-3655457.433300001</v>
       </c>
       <c r="H104" t="n">
-        <v>35.98633333333336</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,40 +4428,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="C105" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="D105" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="E105" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="F105" t="n">
-        <v>16978.7015</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>35.84533333333335</v>
+        <v>-3660457.433300001</v>
       </c>
       <c r="H105" t="n">
-        <v>35.99133333333336</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,40 +4469,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>35.79</v>
+        <v>35.9</v>
       </c>
       <c r="C106" t="n">
-        <v>35.65</v>
+        <v>35.9</v>
       </c>
       <c r="D106" t="n">
-        <v>35.79</v>
+        <v>35.9</v>
       </c>
       <c r="E106" t="n">
-        <v>35.65</v>
+        <v>35.9</v>
       </c>
       <c r="F106" t="n">
-        <v>25462.1016</v>
+        <v>1250.4109</v>
       </c>
       <c r="G106" t="n">
-        <v>35.82200000000002</v>
+        <v>-3659207.022400001</v>
       </c>
       <c r="H106" t="n">
-        <v>35.99366666666669</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,40 +4510,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.65</v>
+        <v>35.9</v>
       </c>
       <c r="C107" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="D107" t="n">
-        <v>35.65</v>
+        <v>35.9</v>
       </c>
       <c r="E107" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="F107" t="n">
-        <v>62980.1615</v>
+        <v>375.1066</v>
       </c>
       <c r="G107" t="n">
-        <v>35.80200000000002</v>
+        <v>-3659207.022400001</v>
       </c>
       <c r="H107" t="n">
-        <v>35.99516666666668</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,40 +4551,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>35.84</v>
+        <v>36</v>
       </c>
       <c r="C108" t="n">
-        <v>36.09</v>
+        <v>36</v>
       </c>
       <c r="D108" t="n">
-        <v>36.09</v>
+        <v>36</v>
       </c>
       <c r="E108" t="n">
-        <v>35.84</v>
+        <v>36</v>
       </c>
       <c r="F108" t="n">
-        <v>62</v>
+        <v>47.6246</v>
       </c>
       <c r="G108" t="n">
-        <v>35.82133333333336</v>
+        <v>-3659159.3978</v>
       </c>
       <c r="H108" t="n">
-        <v>36.00083333333335</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,40 +4592,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="C109" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="D109" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="E109" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>4077.7335</v>
       </c>
       <c r="G109" t="n">
-        <v>35.8346666666667</v>
+        <v>-3663237.1313</v>
       </c>
       <c r="H109" t="n">
-        <v>36.00500000000002</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,40 +4633,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="C110" t="n">
-        <v>36.09</v>
+        <v>35.84</v>
       </c>
       <c r="D110" t="n">
-        <v>36.09</v>
+        <v>35.84</v>
       </c>
       <c r="E110" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="F110" t="n">
-        <v>33270.1464</v>
+        <v>3878.6534</v>
       </c>
       <c r="G110" t="n">
-        <v>35.8406666666667</v>
+        <v>-3667115.784700001</v>
       </c>
       <c r="H110" t="n">
-        <v>36.01316666666669</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,40 +4674,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36.1</v>
+        <v>35.85</v>
       </c>
       <c r="C111" t="n">
-        <v>36.2</v>
+        <v>35.85</v>
       </c>
       <c r="D111" t="n">
-        <v>36.2</v>
+        <v>35.85</v>
       </c>
       <c r="E111" t="n">
-        <v>36.1</v>
+        <v>35.85</v>
       </c>
       <c r="F111" t="n">
-        <v>20926.70475643647</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>35.86733333333337</v>
+        <v>-3666115.784700001</v>
       </c>
       <c r="H111" t="n">
-        <v>36.01166666666668</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,40 +4715,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="C112" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="D112" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="E112" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="F112" t="n">
-        <v>20680.8492</v>
+        <v>6959.0093</v>
       </c>
       <c r="G112" t="n">
-        <v>35.88733333333337</v>
+        <v>-3673074.794000001</v>
       </c>
       <c r="H112" t="n">
-        <v>36.00666666666668</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="K112" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,40 +4758,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="C113" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="D113" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="E113" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="F113" t="n">
-        <v>24000</v>
+        <v>522.0751</v>
       </c>
       <c r="G113" t="n">
-        <v>35.90733333333336</v>
+        <v>-3672552.718900001</v>
       </c>
       <c r="H113" t="n">
-        <v>35.99683333333335</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="K113" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,40 +4801,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>36.17</v>
+        <v>35.85</v>
       </c>
       <c r="C114" t="n">
-        <v>36.17</v>
+        <v>35.85</v>
       </c>
       <c r="D114" t="n">
-        <v>36.17</v>
+        <v>35.85</v>
       </c>
       <c r="E114" t="n">
-        <v>36.17</v>
+        <v>35.85</v>
       </c>
       <c r="F114" t="n">
-        <v>14</v>
+        <v>34414.1914</v>
       </c>
       <c r="G114" t="n">
-        <v>35.93866666666669</v>
+        <v>-3672552.718900001</v>
       </c>
       <c r="H114" t="n">
-        <v>35.99333333333335</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,40 +4842,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="C115" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="D115" t="n">
-        <v>36</v>
+        <v>35.85</v>
       </c>
       <c r="E115" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="F115" t="n">
-        <v>756.3323</v>
+        <v>7788.3283</v>
       </c>
       <c r="G115" t="n">
-        <v>35.95866666666669</v>
+        <v>-3680341.047200001</v>
       </c>
       <c r="H115" t="n">
-        <v>35.99333333333335</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,37 +4886,36 @@
         <v>35.83</v>
       </c>
       <c r="C116" t="n">
-        <v>35.74</v>
+        <v>35.83</v>
       </c>
       <c r="D116" t="n">
         <v>35.83</v>
       </c>
       <c r="E116" t="n">
-        <v>35.74</v>
+        <v>35.83</v>
       </c>
       <c r="F116" t="n">
-        <v>57000</v>
+        <v>749.7804</v>
       </c>
       <c r="G116" t="n">
-        <v>35.92533333333336</v>
+        <v>-3680341.047200001</v>
       </c>
       <c r="H116" t="n">
-        <v>35.98733333333335</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,40 +4924,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.74</v>
+        <v>36</v>
       </c>
       <c r="C117" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="D117" t="n">
-        <v>35.74</v>
+        <v>36</v>
       </c>
       <c r="E117" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="F117" t="n">
-        <v>30106.9182</v>
+        <v>14</v>
       </c>
       <c r="G117" t="n">
-        <v>35.90866666666669</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H117" t="n">
-        <v>35.97100000000001</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,40 +4965,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.62</v>
+        <v>36</v>
       </c>
       <c r="C118" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="D118" t="n">
-        <v>35.62</v>
+        <v>36</v>
       </c>
       <c r="E118" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="F118" t="n">
-        <v>1126.0252</v>
+        <v>47.6246</v>
       </c>
       <c r="G118" t="n">
-        <v>35.90266666666669</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H118" t="n">
-        <v>35.94983333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,40 +5006,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="C119" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="D119" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="E119" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>1665.0449</v>
       </c>
       <c r="G119" t="n">
-        <v>35.87800000000002</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H119" t="n">
-        <v>35.93983333333335</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,40 +5047,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.61</v>
+        <v>36</v>
       </c>
       <c r="C120" t="n">
-        <v>36.09</v>
+        <v>36</v>
       </c>
       <c r="D120" t="n">
-        <v>36.09</v>
+        <v>36</v>
       </c>
       <c r="E120" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="F120" t="n">
-        <v>56787.3867</v>
+        <v>1017.3746</v>
       </c>
       <c r="G120" t="n">
-        <v>35.89733333333336</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H120" t="n">
-        <v>35.93783333333335</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,40 +5088,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>35.73</v>
+        <v>35.9</v>
       </c>
       <c r="C121" t="n">
-        <v>35.72</v>
+        <v>35.9</v>
       </c>
       <c r="D121" t="n">
-        <v>35.73</v>
+        <v>35.9</v>
       </c>
       <c r="E121" t="n">
-        <v>35.72</v>
+        <v>35.9</v>
       </c>
       <c r="F121" t="n">
-        <v>19509.3562</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>35.90200000000003</v>
+        <v>-3681327.047200001</v>
       </c>
       <c r="H121" t="n">
-        <v>35.92816666666668</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,40 +5129,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>35.89</v>
+        <v>35.83</v>
       </c>
       <c r="C122" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="D122" t="n">
-        <v>35.89</v>
+        <v>35.83</v>
       </c>
       <c r="E122" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="F122" t="n">
-        <v>14</v>
+        <v>61240.3979</v>
       </c>
       <c r="G122" t="n">
-        <v>35.92133333333336</v>
+        <v>-3742567.445100001</v>
       </c>
       <c r="H122" t="n">
-        <v>35.92133333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,40 +5170,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>35.72</v>
+        <v>35.8</v>
       </c>
       <c r="C123" t="n">
-        <v>35.72</v>
+        <v>35.8</v>
       </c>
       <c r="D123" t="n">
-        <v>35.72</v>
+        <v>35.8</v>
       </c>
       <c r="E123" t="n">
-        <v>35.72</v>
+        <v>35.8</v>
       </c>
       <c r="F123" t="n">
-        <v>635.5423</v>
+        <v>9322.685600000001</v>
       </c>
       <c r="G123" t="n">
-        <v>35.89666666666669</v>
+        <v>-3742567.445100001</v>
       </c>
       <c r="H123" t="n">
-        <v>35.91466666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,40 +5211,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>35.89</v>
+        <v>36</v>
       </c>
       <c r="C124" t="n">
-        <v>35.89</v>
+        <v>36</v>
       </c>
       <c r="D124" t="n">
-        <v>35.89</v>
+        <v>36</v>
       </c>
       <c r="E124" t="n">
-        <v>35.89</v>
+        <v>36</v>
       </c>
       <c r="F124" t="n">
-        <v>33829.741</v>
+        <v>1385.4253</v>
       </c>
       <c r="G124" t="n">
-        <v>35.88933333333336</v>
+        <v>-3741182.019800001</v>
       </c>
       <c r="H124" t="n">
-        <v>35.91116666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,40 +5252,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="C125" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="D125" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="E125" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="F125" t="n">
-        <v>13973</v>
+        <v>39518.6365</v>
       </c>
       <c r="G125" t="n">
-        <v>35.87600000000002</v>
+        <v>-3780700.656300001</v>
       </c>
       <c r="H125" t="n">
-        <v>35.90933333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,40 +5293,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="C126" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="D126" t="n">
-        <v>35.89</v>
+        <v>35.8</v>
       </c>
       <c r="E126" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="F126" t="n">
-        <v>400</v>
+        <v>20232.4371</v>
       </c>
       <c r="G126" t="n">
-        <v>35.84400000000002</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H126" t="n">
-        <v>35.90149999999999</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,40 +5334,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="C127" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="D127" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="E127" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="F127" t="n">
-        <v>549.7526</v>
+        <v>8142.1693</v>
       </c>
       <c r="G127" t="n">
-        <v>35.82533333333335</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H127" t="n">
-        <v>35.89366666666665</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,40 +5375,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="C128" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="D128" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="E128" t="n">
-        <v>35.72</v>
+        <v>35.7</v>
       </c>
       <c r="F128" t="n">
-        <v>6208.4643</v>
+        <v>31511.0922</v>
       </c>
       <c r="G128" t="n">
-        <v>35.80666666666669</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H128" t="n">
-        <v>35.88583333333332</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,40 +5416,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="C129" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="D129" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="E129" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="F129" t="n">
-        <v>14233.3563</v>
+        <v>6479.7242</v>
       </c>
       <c r="G129" t="n">
-        <v>35.78866666666669</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H129" t="n">
-        <v>35.88416666666665</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,40 +5457,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="C130" t="n">
-        <v>35.9</v>
+        <v>36.24</v>
       </c>
       <c r="D130" t="n">
-        <v>35.9</v>
+        <v>36.24</v>
       </c>
       <c r="E130" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="F130" t="n">
-        <v>49420</v>
+        <v>380000</v>
       </c>
       <c r="G130" t="n">
-        <v>35.78200000000002</v>
+        <v>-3420933.093400002</v>
       </c>
       <c r="H130" t="n">
-        <v>35.86849999999999</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,40 +5498,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="C131" t="n">
-        <v>36</v>
+        <v>35.86</v>
       </c>
       <c r="D131" t="n">
-        <v>36</v>
+        <v>35.86</v>
       </c>
       <c r="E131" t="n">
-        <v>36</v>
+        <v>35.84</v>
       </c>
       <c r="F131" t="n">
-        <v>14</v>
+        <v>123.5956</v>
       </c>
       <c r="G131" t="n">
-        <v>35.79933333333336</v>
+        <v>-3421056.689000002</v>
       </c>
       <c r="H131" t="n">
-        <v>35.87016666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,40 +5539,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="C132" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="D132" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E132" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3592</v>
+        <v>97564.3968</v>
       </c>
       <c r="G132" t="n">
-        <v>35.81866666666669</v>
+        <v>-3518621.085800002</v>
       </c>
       <c r="H132" t="n">
-        <v>35.86999999999999</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,40 +5580,1228 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C133" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="D133" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="E133" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F133" t="n">
+        <v>62</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3518559.085800002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>16978.7015</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3535537.787300002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="C135" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="D135" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="E135" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25462.1016</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3560999.888900002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="C136" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="E136" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>62980.1615</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3623980.050400002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C137" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D137" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E137" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F137" t="n">
+        <v>62</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3623918.050400002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>36</v>
+      </c>
+      <c r="C138" t="n">
+        <v>36</v>
+      </c>
+      <c r="D138" t="n">
+        <v>36</v>
+      </c>
+      <c r="E138" t="n">
+        <v>36</v>
+      </c>
+      <c r="F138" t="n">
+        <v>14</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3623932.050400002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>36</v>
+      </c>
+      <c r="C139" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E139" t="n">
+        <v>36</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33270.1464</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3590661.904000002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20926.70475643647</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3569735.199243566</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>36</v>
+      </c>
+      <c r="C141" t="n">
+        <v>36</v>
+      </c>
+      <c r="D141" t="n">
+        <v>36</v>
+      </c>
+      <c r="E141" t="n">
+        <v>36</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20680.8492</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-3590416.048443566</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>36</v>
+      </c>
+      <c r="C142" t="n">
+        <v>36</v>
+      </c>
+      <c r="D142" t="n">
+        <v>36</v>
+      </c>
+      <c r="E142" t="n">
+        <v>36</v>
+      </c>
+      <c r="F142" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3590416.048443566</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="C143" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="D143" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="E143" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="F143" t="n">
+        <v>14</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-3590402.048443566</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>36</v>
+      </c>
+      <c r="C144" t="n">
+        <v>36</v>
+      </c>
+      <c r="D144" t="n">
+        <v>36</v>
+      </c>
+      <c r="E144" t="n">
+        <v>36</v>
+      </c>
+      <c r="F144" t="n">
+        <v>756.3323</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3591158.380743566</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C145" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="D145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="E145" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="F145" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3648158.380743566</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="C146" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D146" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="E146" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30106.9182</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-3678265.298943566</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="C147" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D147" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="E147" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1126.0252</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3678265.298943566</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="C148" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D148" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="E148" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3678265.298943566</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="C149" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D149" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E149" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>56787.3867</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3621477.912243566</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="C150" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D150" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="E150" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F150" t="n">
+        <v>19509.3562</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3640987.268443565</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C151" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D151" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E151" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3640973.268443565</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C152" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D152" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E152" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F152" t="n">
+        <v>635.5423</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-3641608.810743565</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C153" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D153" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E153" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F153" t="n">
+        <v>33829.741</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-3607779.069743565</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C154" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D154" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E154" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13973</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-3607779.069743565</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C155" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D155" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E155" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3608179.069743565</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C156" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D156" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E156" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F156" t="n">
+        <v>549.7526</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3608179.069743565</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C157" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D157" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6208.4643</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3608179.069743565</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14233.3563</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3593945.713443565</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>49420</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3593945.713443565</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>36</v>
+      </c>
+      <c r="C160" t="n">
+        <v>36</v>
+      </c>
+      <c r="D160" t="n">
+        <v>36</v>
+      </c>
+      <c r="E160" t="n">
+        <v>36</v>
+      </c>
+      <c r="F160" t="n">
+        <v>14</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3593931.713443565</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3593932.072643565</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>35.77</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C162" t="n">
         <v>35.77</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D162" t="n">
         <v>35.77</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E162" t="n">
         <v>35.77</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F162" t="n">
         <v>4394.133</v>
       </c>
-      <c r="G133" t="n">
-        <v>35.82933333333335</v>
-      </c>
-      <c r="H133" t="n">
-        <v>35.86899999999999</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="G162" t="n">
+        <v>-3598326.205643565</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="C2" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="D2" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="E2" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="F2" t="n">
-        <v>7785.3482</v>
+        <v>2626.8063</v>
       </c>
       <c r="G2" t="n">
-        <v>-3845292.4279</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="C3" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="D3" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="E3" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="F3" t="n">
-        <v>5698.8425</v>
+        <v>2626.8063</v>
       </c>
       <c r="G3" t="n">
-        <v>-3850991.2704</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="C4" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="D4" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="E4" t="n">
-        <v>36.47</v>
+        <v>36.1</v>
       </c>
       <c r="F4" t="n">
-        <v>5698.8425</v>
+        <v>13694.8275</v>
       </c>
       <c r="G4" t="n">
-        <v>-3850991.2704</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="C5" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="E5" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="F5" t="n">
-        <v>21923.7232</v>
+        <v>19757.559</v>
       </c>
       <c r="G5" t="n">
-        <v>-3829067.5472</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="C6" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="D6" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="E6" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="F6" t="n">
-        <v>76.27679999999999</v>
+        <v>2593.7644</v>
       </c>
       <c r="G6" t="n">
-        <v>-3829067.5472</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.52</v>
+        <v>36.09</v>
       </c>
       <c r="C7" t="n">
-        <v>36.52</v>
+        <v>35.98</v>
       </c>
       <c r="D7" t="n">
-        <v>36.52</v>
+        <v>36.09</v>
       </c>
       <c r="E7" t="n">
-        <v>36.52</v>
+        <v>35.98</v>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>56308.1853</v>
       </c>
       <c r="G7" t="n">
-        <v>-3834067.5472</v>
+        <v>-4291122.243300001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.52</v>
+        <v>35.98</v>
       </c>
       <c r="C8" t="n">
-        <v>36.52</v>
+        <v>35.98</v>
       </c>
       <c r="D8" t="n">
-        <v>36.52</v>
+        <v>35.98</v>
       </c>
       <c r="E8" t="n">
-        <v>36.52</v>
+        <v>35.98</v>
       </c>
       <c r="F8" t="n">
-        <v>30.6372</v>
+        <v>13524.1563</v>
       </c>
       <c r="G8" t="n">
-        <v>-3834067.5472</v>
+        <v>-4291122.243300001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.51</v>
+        <v>35.84</v>
       </c>
       <c r="C9" t="n">
-        <v>36.51</v>
+        <v>35.84</v>
       </c>
       <c r="D9" t="n">
-        <v>36.51</v>
+        <v>35.84</v>
       </c>
       <c r="E9" t="n">
-        <v>36.51</v>
+        <v>35.84</v>
       </c>
       <c r="F9" t="n">
-        <v>5099.0238</v>
+        <v>15990.9326</v>
       </c>
       <c r="G9" t="n">
-        <v>-3839166.571</v>
+        <v>-4307113.175900001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="C10" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="D10" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="E10" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="F10" t="n">
-        <v>58271.4028</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>-3780895.1682</v>
+        <v>-4307127.175900001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.52</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>36.52</v>
+        <v>36.1</v>
       </c>
       <c r="D11" t="n">
-        <v>36.52</v>
+        <v>36.1</v>
       </c>
       <c r="E11" t="n">
-        <v>36.52</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>11370.6258</v>
+        <v>50000</v>
       </c>
       <c r="G11" t="n">
-        <v>-3780895.1682</v>
+        <v>-4257127.175900001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.51</v>
+        <v>36.18</v>
       </c>
       <c r="C12" t="n">
-        <v>36.51</v>
+        <v>36.3</v>
       </c>
       <c r="D12" t="n">
-        <v>36.51</v>
+        <v>36.3</v>
       </c>
       <c r="E12" t="n">
-        <v>36.51</v>
+        <v>36.18</v>
       </c>
       <c r="F12" t="n">
-        <v>14076.5401</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>-3794971.7083</v>
+        <v>-4257065.175900001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.51</v>
+        <v>36.15</v>
       </c>
       <c r="C13" t="n">
-        <v>36.51</v>
+        <v>36.15</v>
       </c>
       <c r="D13" t="n">
-        <v>36.51</v>
+        <v>36.15</v>
       </c>
       <c r="E13" t="n">
-        <v>36.51</v>
+        <v>36.15</v>
       </c>
       <c r="F13" t="n">
-        <v>1795.9827</v>
+        <v>2794.0067</v>
       </c>
       <c r="G13" t="n">
-        <v>-3794971.7083</v>
+        <v>-4259859.182600001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36.51</v>
+        <v>36.01</v>
       </c>
       <c r="C14" t="n">
-        <v>36.51</v>
+        <v>35.82</v>
       </c>
       <c r="D14" t="n">
-        <v>36.51</v>
+        <v>36.01</v>
       </c>
       <c r="E14" t="n">
-        <v>36.51</v>
+        <v>35.82</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0923</v>
+        <v>32786.2738</v>
       </c>
       <c r="G14" t="n">
-        <v>-3794971.7083</v>
+        <v>-4292645.4564</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36.55</v>
+        <v>35.9</v>
       </c>
       <c r="C15" t="n">
-        <v>36.55</v>
+        <v>35.9</v>
       </c>
       <c r="D15" t="n">
-        <v>36.55</v>
+        <v>35.9</v>
       </c>
       <c r="E15" t="n">
-        <v>36.55</v>
+        <v>35.9</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>198.7119</v>
       </c>
       <c r="G15" t="n">
-        <v>-3794951.7083</v>
+        <v>-4292446.7445</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36.75</v>
+        <v>35.9</v>
       </c>
       <c r="C16" t="n">
-        <v>36.75</v>
+        <v>35.9</v>
       </c>
       <c r="D16" t="n">
-        <v>36.75</v>
+        <v>35.9</v>
       </c>
       <c r="E16" t="n">
-        <v>36.75</v>
+        <v>35.9</v>
       </c>
       <c r="F16" t="n">
-        <v>60.3732</v>
+        <v>198.712</v>
       </c>
       <c r="G16" t="n">
-        <v>-3794891.3351</v>
+        <v>-4292446.7445</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36.6</v>
+        <v>35.9</v>
       </c>
       <c r="C17" t="n">
-        <v>36.55</v>
+        <v>35.83</v>
       </c>
       <c r="D17" t="n">
-        <v>36.6</v>
+        <v>35.9</v>
       </c>
       <c r="E17" t="n">
-        <v>36.55</v>
+        <v>35.83</v>
       </c>
       <c r="F17" t="n">
-        <v>2085.5096</v>
+        <v>36079.1928</v>
       </c>
       <c r="G17" t="n">
-        <v>-3796976.8447</v>
+        <v>-4328525.9373</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="C18" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="D18" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="E18" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="F18" t="n">
-        <v>9714.0244</v>
+        <v>393.1114</v>
       </c>
       <c r="G18" t="n">
-        <v>-3806690.8691</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="C19" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="D19" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="E19" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="F19" t="n">
-        <v>9714.0245</v>
+        <v>3858.4169</v>
       </c>
       <c r="G19" t="n">
-        <v>-3796976.8446</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="C20" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="D20" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="E20" t="n">
-        <v>36.53</v>
+        <v>35.82</v>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>13807.1284</v>
       </c>
       <c r="G20" t="n">
-        <v>-3796976.8446</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36.53</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>36.52</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>36.53</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>36.52</v>
+        <v>36</v>
       </c>
       <c r="F21" t="n">
-        <v>8055.232</v>
+        <v>252.0781</v>
       </c>
       <c r="G21" t="n">
-        <v>-3805032.0766</v>
+        <v>-4328666.970600001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="C22" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="D22" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="E22" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>2141.2122</v>
       </c>
       <c r="G22" t="n">
-        <v>-3805032.0766</v>
+        <v>-4330808.182800001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="C23" t="n">
-        <v>36.52</v>
+        <v>35.79</v>
       </c>
       <c r="D23" t="n">
-        <v>36.52</v>
+        <v>35.82</v>
       </c>
       <c r="E23" t="n">
-        <v>36.52</v>
+        <v>35.79</v>
       </c>
       <c r="F23" t="n">
-        <v>1578.7061</v>
+        <v>11016.5635</v>
       </c>
       <c r="G23" t="n">
-        <v>-3805032.0766</v>
+        <v>-4341824.746300001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.52</v>
+        <v>35.71</v>
       </c>
       <c r="C24" t="n">
-        <v>36.52</v>
+        <v>35.69</v>
       </c>
       <c r="D24" t="n">
-        <v>36.52</v>
+        <v>35.71</v>
       </c>
       <c r="E24" t="n">
-        <v>36.52</v>
+        <v>35.69</v>
       </c>
       <c r="F24" t="n">
-        <v>6302.2235</v>
+        <v>8695.785599999999</v>
       </c>
       <c r="G24" t="n">
-        <v>-3805032.0766</v>
+        <v>-4350520.531900001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.52</v>
+        <v>35.61</v>
       </c>
       <c r="C25" t="n">
-        <v>36.5</v>
+        <v>35.6</v>
       </c>
       <c r="D25" t="n">
-        <v>36.52</v>
+        <v>35.61</v>
       </c>
       <c r="E25" t="n">
-        <v>36.5</v>
+        <v>35.6</v>
       </c>
       <c r="F25" t="n">
-        <v>40823.8867</v>
+        <v>8051.5924</v>
       </c>
       <c r="G25" t="n">
-        <v>-3845855.9633</v>
+        <v>-4358572.124300001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.5</v>
+        <v>35.54</v>
       </c>
       <c r="C26" t="n">
-        <v>36.5</v>
+        <v>35.54</v>
       </c>
       <c r="D26" t="n">
-        <v>36.5</v>
+        <v>35.54</v>
       </c>
       <c r="E26" t="n">
-        <v>36.5</v>
+        <v>35.54</v>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>9385.230799999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-3845855.9633</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.5</v>
+        <v>35.54</v>
       </c>
       <c r="C27" t="n">
-        <v>36.44</v>
+        <v>35.54</v>
       </c>
       <c r="D27" t="n">
-        <v>36.5</v>
+        <v>35.54</v>
       </c>
       <c r="E27" t="n">
-        <v>36.44</v>
+        <v>35.53</v>
       </c>
       <c r="F27" t="n">
-        <v>10073.3544</v>
+        <v>48971.5311</v>
       </c>
       <c r="G27" t="n">
-        <v>-3855929.3177</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>36.44</v>
+        <v>35.54</v>
       </c>
       <c r="C28" t="n">
-        <v>36.44</v>
+        <v>35.54</v>
       </c>
       <c r="D28" t="n">
-        <v>36.44</v>
+        <v>35.54</v>
       </c>
       <c r="E28" t="n">
-        <v>36.44</v>
+        <v>35.54</v>
       </c>
       <c r="F28" t="n">
-        <v>572.3418</v>
+        <v>0.5145999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-3855929.3177</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.28</v>
+        <v>35.75</v>
       </c>
       <c r="C29" t="n">
-        <v>36.28</v>
+        <v>35.75</v>
       </c>
       <c r="D29" t="n">
-        <v>36.28</v>
+        <v>35.75</v>
       </c>
       <c r="E29" t="n">
-        <v>36.28</v>
+        <v>35.75</v>
       </c>
       <c r="F29" t="n">
-        <v>352.3387</v>
+        <v>23.5104</v>
       </c>
       <c r="G29" t="n">
-        <v>-3856281.656400001</v>
+        <v>-4367933.844700001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.28</v>
+        <v>35.75</v>
       </c>
       <c r="C30" t="n">
-        <v>36.28</v>
+        <v>35.82</v>
       </c>
       <c r="D30" t="n">
-        <v>36.28</v>
+        <v>35.82</v>
       </c>
       <c r="E30" t="n">
-        <v>36.28</v>
+        <v>35.75</v>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>-3856281.656400001</v>
+        <v>-4367883.844700001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36.28</v>
+        <v>35.82</v>
       </c>
       <c r="C31" t="n">
-        <v>36.21</v>
+        <v>35.61</v>
       </c>
       <c r="D31" t="n">
-        <v>36.28</v>
+        <v>35.82</v>
       </c>
       <c r="E31" t="n">
-        <v>36.21</v>
+        <v>35.61</v>
       </c>
       <c r="F31" t="n">
-        <v>27000</v>
+        <v>2268.8205</v>
       </c>
       <c r="G31" t="n">
-        <v>-3883281.656400001</v>
+        <v>-4370152.665200002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>36.21</v>
+        <v>35.61</v>
       </c>
       <c r="C32" t="n">
-        <v>36.21</v>
+        <v>35.5</v>
       </c>
       <c r="D32" t="n">
-        <v>36.21</v>
+        <v>35.61</v>
       </c>
       <c r="E32" t="n">
-        <v>36.21</v>
+        <v>35.5</v>
       </c>
       <c r="F32" t="n">
-        <v>888</v>
+        <v>114335.8928</v>
       </c>
       <c r="G32" t="n">
-        <v>-3883281.656400001</v>
+        <v>-4484488.558000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36.21</v>
+        <v>35.51</v>
       </c>
       <c r="C33" t="n">
-        <v>36.2</v>
+        <v>35.51</v>
       </c>
       <c r="D33" t="n">
-        <v>36.21</v>
+        <v>35.51</v>
       </c>
       <c r="E33" t="n">
-        <v>36.2</v>
+        <v>35.51</v>
       </c>
       <c r="F33" t="n">
-        <v>600</v>
+        <v>4023.5291</v>
       </c>
       <c r="G33" t="n">
-        <v>-3883881.656400001</v>
+        <v>-4480465.028900001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.2</v>
+        <v>35.51</v>
       </c>
       <c r="C34" t="n">
-        <v>36.2</v>
+        <v>35.51</v>
       </c>
       <c r="D34" t="n">
-        <v>36.2</v>
+        <v>35.51</v>
       </c>
       <c r="E34" t="n">
-        <v>36.2</v>
+        <v>35.51</v>
       </c>
       <c r="F34" t="n">
-        <v>3000</v>
+        <v>24834.7648</v>
       </c>
       <c r="G34" t="n">
-        <v>-3883881.656400001</v>
+        <v>-4480465.028900001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,203 +1619,245 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.2</v>
+        <v>35.75</v>
       </c>
       <c r="C35" t="n">
-        <v>36.17</v>
+        <v>35.75</v>
       </c>
       <c r="D35" t="n">
-        <v>36.2</v>
+        <v>35.75</v>
       </c>
       <c r="E35" t="n">
-        <v>36.17</v>
+        <v>35.75</v>
       </c>
       <c r="F35" t="n">
-        <v>12206.8535</v>
+        <v>62.1293</v>
       </c>
       <c r="G35" t="n">
-        <v>-3896088.509900001</v>
+        <v>-4480402.899600001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="K35" t="n">
+        <v>35.51</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.17</v>
+        <v>35.75</v>
       </c>
       <c r="C36" t="n">
-        <v>36.15</v>
+        <v>35.75</v>
       </c>
       <c r="D36" t="n">
-        <v>36.17</v>
+        <v>35.75</v>
       </c>
       <c r="E36" t="n">
-        <v>36.15</v>
+        <v>35.75</v>
       </c>
       <c r="F36" t="n">
-        <v>35488.4324</v>
+        <v>50.7875</v>
       </c>
       <c r="G36" t="n">
-        <v>-3931576.942300001</v>
+        <v>-4480402.899600001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.43</v>
+        <v>35.6</v>
       </c>
       <c r="C37" t="n">
-        <v>36.43</v>
+        <v>35.6</v>
       </c>
       <c r="D37" t="n">
-        <v>36.43</v>
+        <v>35.6</v>
       </c>
       <c r="E37" t="n">
-        <v>36.43</v>
+        <v>35.6</v>
       </c>
       <c r="F37" t="n">
-        <v>10080.8492</v>
+        <v>15507.4136</v>
       </c>
       <c r="G37" t="n">
-        <v>-3921496.093100001</v>
+        <v>-4495910.313200001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36.2</v>
+        <v>35.57</v>
       </c>
       <c r="C38" t="n">
-        <v>36.2</v>
+        <v>36.29</v>
       </c>
       <c r="D38" t="n">
-        <v>36.2</v>
+        <v>36.29</v>
       </c>
       <c r="E38" t="n">
-        <v>36.2</v>
+        <v>35.52</v>
       </c>
       <c r="F38" t="n">
-        <v>12247.166</v>
+        <v>193450</v>
       </c>
       <c r="G38" t="n">
-        <v>-3933743.259100001</v>
+        <v>-4302460.313200001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36.14</v>
+        <v>35.61</v>
       </c>
       <c r="C39" t="n">
-        <v>36.12</v>
+        <v>36.3</v>
       </c>
       <c r="D39" t="n">
-        <v>36.14</v>
+        <v>36.89</v>
       </c>
       <c r="E39" t="n">
-        <v>36.12</v>
+        <v>35.52</v>
       </c>
       <c r="F39" t="n">
-        <v>57887.8968</v>
+        <v>190674.1855</v>
       </c>
       <c r="G39" t="n">
-        <v>-3991631.155900001</v>
+        <v>-4111786.127700001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="K39" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.11</v>
+        <v>36.17</v>
       </c>
       <c r="C40" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="D40" t="n">
-        <v>36.11</v>
+        <v>36.77</v>
       </c>
       <c r="E40" t="n">
-        <v>36.1</v>
+        <v>36.17</v>
       </c>
       <c r="F40" t="n">
-        <v>243182.9021</v>
+        <v>2422.1111</v>
       </c>
       <c r="G40" t="n">
-        <v>-4234814.058000001</v>
+        <v>-4109364.016600001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,93 +1866,102 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.1</v>
+        <v>36.38</v>
       </c>
       <c r="C41" t="n">
-        <v>36.1</v>
+        <v>36.38</v>
       </c>
       <c r="D41" t="n">
-        <v>36.1</v>
+        <v>36.38</v>
       </c>
       <c r="E41" t="n">
-        <v>36.1</v>
+        <v>36.38</v>
       </c>
       <c r="F41" t="n">
-        <v>4080.8744</v>
+        <v>488.6415</v>
       </c>
       <c r="G41" t="n">
-        <v>-4234814.058000001</v>
+        <v>-4109852.658100001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
+        <v>35.51</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.1</v>
+        <v>36.27</v>
       </c>
       <c r="C42" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
-        <v>36.1</v>
+        <v>36.27</v>
       </c>
       <c r="E42" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>23266.8503</v>
       </c>
       <c r="G42" t="n">
-        <v>-4234814.058000001</v>
+        <v>-4133119.508400001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1892,10 +1980,10 @@
         <v>36.1</v>
       </c>
       <c r="F43" t="n">
-        <v>69081.4757</v>
+        <v>50578.7371</v>
       </c>
       <c r="G43" t="n">
-        <v>-4234814.058000001</v>
+        <v>-4082540.771300001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1905,300 +1993,301 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>36.1</v>
+        <v>36.17</v>
       </c>
       <c r="C44" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="D44" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="E44" t="n">
-        <v>36.1</v>
+        <v>36.17</v>
       </c>
       <c r="F44" t="n">
-        <v>2626.8063</v>
+        <v>62</v>
       </c>
       <c r="G44" t="n">
-        <v>-4234814.058000001</v>
+        <v>-4082478.771300001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
+        <v>35.51</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>36.1</v>
+        <v>36.11</v>
       </c>
       <c r="C45" t="n">
-        <v>36.1</v>
+        <v>36.88</v>
       </c>
       <c r="D45" t="n">
-        <v>36.1</v>
+        <v>36.88</v>
       </c>
       <c r="E45" t="n">
         <v>36.1</v>
       </c>
       <c r="F45" t="n">
-        <v>2626.8063</v>
+        <v>171000</v>
       </c>
       <c r="G45" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3911478.771300001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="C46" t="n">
-        <v>36.1</v>
+        <v>36.21</v>
       </c>
       <c r="D46" t="n">
-        <v>36.1</v>
+        <v>36.21</v>
       </c>
       <c r="E46" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F46" t="n">
-        <v>13694.8275</v>
+        <v>35603.1823</v>
       </c>
       <c r="G46" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3947081.953600001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.1</v>
+        <v>36.21</v>
       </c>
       <c r="C47" t="n">
-        <v>36.1</v>
+        <v>36.21</v>
       </c>
       <c r="D47" t="n">
-        <v>36.1</v>
+        <v>36.21</v>
       </c>
       <c r="E47" t="n">
-        <v>36.1</v>
+        <v>36.21</v>
       </c>
       <c r="F47" t="n">
-        <v>19757.559</v>
+        <v>11813.568</v>
       </c>
       <c r="G47" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3947081.953600001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>35.51</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="C48" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="D48" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="E48" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="F48" t="n">
-        <v>2593.7644</v>
+        <v>14</v>
       </c>
       <c r="G48" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3947067.953600001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>36.09</v>
+        <v>36.3</v>
       </c>
       <c r="C49" t="n">
-        <v>35.98</v>
+        <v>36.3</v>
       </c>
       <c r="D49" t="n">
-        <v>36.09</v>
+        <v>36.3</v>
       </c>
       <c r="E49" t="n">
-        <v>35.98</v>
+        <v>36.3</v>
       </c>
       <c r="F49" t="n">
-        <v>56308.1853</v>
+        <v>275.4820936639118</v>
       </c>
       <c r="G49" t="n">
-        <v>-4291122.243300001</v>
+        <v>-3947067.953600001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>35.98</v>
+        <v>36.16</v>
       </c>
       <c r="C50" t="n">
-        <v>35.98</v>
+        <v>36.12</v>
       </c>
       <c r="D50" t="n">
-        <v>35.98</v>
+        <v>36.16</v>
       </c>
       <c r="E50" t="n">
-        <v>35.98</v>
+        <v>36.12</v>
       </c>
       <c r="F50" t="n">
-        <v>13524.1563</v>
+        <v>21038.1582</v>
       </c>
       <c r="G50" t="n">
-        <v>-4291122.243300001</v>
+        <v>-3968106.111800001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>35.98</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2208,28 +2297,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>35.84</v>
+        <v>36.12</v>
       </c>
       <c r="C51" t="n">
-        <v>35.84</v>
+        <v>36.1</v>
       </c>
       <c r="D51" t="n">
-        <v>35.84</v>
+        <v>36.12</v>
       </c>
       <c r="E51" t="n">
-        <v>35.84</v>
+        <v>36.1</v>
       </c>
       <c r="F51" t="n">
-        <v>15990.9326</v>
+        <v>17809.2528</v>
       </c>
       <c r="G51" t="n">
-        <v>-4307113.175900001</v>
+        <v>-3985915.3646</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2239,7 +2329,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2249,28 +2339,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>35.82</v>
+        <v>36.1</v>
       </c>
       <c r="C52" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
-        <v>35.82</v>
+        <v>36.1</v>
       </c>
       <c r="E52" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>20307.1905</v>
       </c>
       <c r="G52" t="n">
-        <v>-4307127.175900001</v>
+        <v>-4006222.5551</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2280,7 +2371,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2290,28 +2381,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="C53" t="n">
-        <v>36.1</v>
+        <v>36.19</v>
       </c>
       <c r="D53" t="n">
-        <v>36.1</v>
+        <v>36.19</v>
       </c>
       <c r="E53" t="n">
-        <v>36</v>
+        <v>36.19</v>
       </c>
       <c r="F53" t="n">
-        <v>50000</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>-4257127.175900001</v>
+        <v>-4006208.5551</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2321,7 +2413,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2331,28 +2423,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.18</v>
+        <v>36.19</v>
       </c>
       <c r="C54" t="n">
-        <v>36.3</v>
+        <v>36.19</v>
       </c>
       <c r="D54" t="n">
-        <v>36.3</v>
+        <v>36.19</v>
       </c>
       <c r="E54" t="n">
-        <v>36.18</v>
+        <v>36.19</v>
       </c>
       <c r="F54" t="n">
-        <v>62</v>
+        <v>9991.7068</v>
       </c>
       <c r="G54" t="n">
-        <v>-4257065.175900001</v>
+        <v>-4006208.5551</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2362,7 +2455,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2372,28 +2465,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>36.15</v>
+        <v>36.19</v>
       </c>
       <c r="C55" t="n">
-        <v>36.15</v>
+        <v>36.19</v>
       </c>
       <c r="D55" t="n">
-        <v>36.15</v>
+        <v>36.19</v>
       </c>
       <c r="E55" t="n">
-        <v>36.15</v>
+        <v>36.19</v>
       </c>
       <c r="F55" t="n">
-        <v>2794.0067</v>
+        <v>7442.0748</v>
       </c>
       <c r="G55" t="n">
-        <v>-4259859.182600001</v>
+        <v>-4006208.5551</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2403,7 +2497,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2413,28 +2507,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36.01</v>
+        <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
-        <v>36.01</v>
+        <v>36</v>
       </c>
       <c r="E56" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="F56" t="n">
-        <v>32786.2738</v>
+        <v>2253.8205</v>
       </c>
       <c r="G56" t="n">
-        <v>-4292645.4564</v>
+        <v>-4008462.3756</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2444,7 +2539,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2454,28 +2549,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C57" t="n">
-        <v>35.9</v>
+        <v>36.84</v>
       </c>
       <c r="D57" t="n">
-        <v>35.9</v>
+        <v>36.84</v>
       </c>
       <c r="E57" t="n">
-        <v>35.9</v>
+        <v>35.53</v>
       </c>
       <c r="F57" t="n">
-        <v>198.7119</v>
+        <v>380000</v>
       </c>
       <c r="G57" t="n">
-        <v>-4292446.7445</v>
+        <v>-3628462.3756</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2485,7 +2581,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2495,6 +2591,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2513,10 +2610,10 @@
         <v>35.9</v>
       </c>
       <c r="F58" t="n">
-        <v>198.712</v>
+        <v>400</v>
       </c>
       <c r="G58" t="n">
-        <v>-4292446.7445</v>
+        <v>-3628862.3756</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2526,7 +2623,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2536,28 +2633,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>35.9</v>
+        <v>35.92</v>
       </c>
       <c r="C59" t="n">
-        <v>35.83</v>
+        <v>35.91</v>
       </c>
       <c r="D59" t="n">
-        <v>35.9</v>
+        <v>35.92</v>
       </c>
       <c r="E59" t="n">
-        <v>35.83</v>
+        <v>35.91</v>
       </c>
       <c r="F59" t="n">
-        <v>36079.1928</v>
+        <v>15662.706</v>
       </c>
       <c r="G59" t="n">
-        <v>-4328525.9373</v>
+        <v>-3613199.669600001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2567,7 +2665,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2577,28 +2675,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>35.82</v>
+        <v>35.91</v>
       </c>
       <c r="C60" t="n">
-        <v>35.82</v>
+        <v>35.83</v>
       </c>
       <c r="D60" t="n">
-        <v>35.82</v>
+        <v>35.91</v>
       </c>
       <c r="E60" t="n">
-        <v>35.82</v>
+        <v>35.83</v>
       </c>
       <c r="F60" t="n">
-        <v>393.1114</v>
+        <v>30358.7836</v>
       </c>
       <c r="G60" t="n">
-        <v>-4328919.0487</v>
+        <v>-3643558.453200001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2608,7 +2707,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2618,28 +2717,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="C61" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="E61" t="n">
-        <v>35.82</v>
+        <v>36</v>
       </c>
       <c r="F61" t="n">
-        <v>3858.4169</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
-        <v>-4328919.0487</v>
+        <v>-3643544.453200001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2649,7 +2749,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2659,28 +2759,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="C62" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="D62" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="E62" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="F62" t="n">
-        <v>13807.1284</v>
+        <v>11912.9801</v>
       </c>
       <c r="G62" t="n">
-        <v>-4328919.0487</v>
+        <v>-3655457.433300001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2690,7 +2791,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2700,28 +2801,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="D63" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="E63" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="F63" t="n">
-        <v>252.0781</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="n">
-        <v>-4328666.970600001</v>
+        <v>-3660457.433300001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2731,7 +2833,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2741,28 +2843,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="C64" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="D64" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="E64" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="F64" t="n">
-        <v>2141.2122</v>
+        <v>1250.4109</v>
       </c>
       <c r="G64" t="n">
-        <v>-4330808.182800001</v>
+        <v>-3659207.022400001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2772,7 +2875,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2782,28 +2885,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="C65" t="n">
-        <v>35.79</v>
+        <v>35.9</v>
       </c>
       <c r="D65" t="n">
-        <v>35.82</v>
+        <v>35.9</v>
       </c>
       <c r="E65" t="n">
-        <v>35.79</v>
+        <v>35.9</v>
       </c>
       <c r="F65" t="n">
-        <v>11016.5635</v>
+        <v>375.1066</v>
       </c>
       <c r="G65" t="n">
-        <v>-4341824.746300001</v>
+        <v>-3659207.022400001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2813,7 +2917,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2823,28 +2927,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>35.71</v>
+        <v>36</v>
       </c>
       <c r="C66" t="n">
-        <v>35.69</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
-        <v>35.71</v>
+        <v>36</v>
       </c>
       <c r="E66" t="n">
-        <v>35.69</v>
+        <v>36</v>
       </c>
       <c r="F66" t="n">
-        <v>8695.785599999999</v>
+        <v>47.6246</v>
       </c>
       <c r="G66" t="n">
-        <v>-4350520.531900001</v>
+        <v>-3659159.3978</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2854,7 +2959,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2864,28 +2969,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.61</v>
+        <v>35.85</v>
       </c>
       <c r="C67" t="n">
-        <v>35.6</v>
+        <v>35.85</v>
       </c>
       <c r="D67" t="n">
-        <v>35.61</v>
+        <v>35.85</v>
       </c>
       <c r="E67" t="n">
-        <v>35.6</v>
+        <v>35.84</v>
       </c>
       <c r="F67" t="n">
-        <v>8051.5924</v>
+        <v>4077.7335</v>
       </c>
       <c r="G67" t="n">
-        <v>-4358572.124300001</v>
+        <v>-3663237.1313</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2895,7 +3001,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2905,28 +3011,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>35.54</v>
+        <v>35.84</v>
       </c>
       <c r="C68" t="n">
-        <v>35.54</v>
+        <v>35.84</v>
       </c>
       <c r="D68" t="n">
-        <v>35.54</v>
+        <v>35.84</v>
       </c>
       <c r="E68" t="n">
-        <v>35.54</v>
+        <v>35.84</v>
       </c>
       <c r="F68" t="n">
-        <v>9385.230799999999</v>
+        <v>3878.6534</v>
       </c>
       <c r="G68" t="n">
-        <v>-4367957.355100001</v>
+        <v>-3667115.784700001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2936,7 +3043,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2946,38 +3053,41 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>35.54</v>
+        <v>35.85</v>
       </c>
       <c r="C69" t="n">
-        <v>35.54</v>
+        <v>35.85</v>
       </c>
       <c r="D69" t="n">
-        <v>35.54</v>
+        <v>35.85</v>
       </c>
       <c r="E69" t="n">
-        <v>35.53</v>
+        <v>35.85</v>
       </c>
       <c r="F69" t="n">
-        <v>48971.5311</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>-4367957.355100001</v>
+        <v>-3666115.784700001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>35.84</v>
+      </c>
       <c r="K69" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2987,38 +3097,41 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>35.54</v>
+        <v>35.84</v>
       </c>
       <c r="C70" t="n">
-        <v>35.54</v>
+        <v>35.83</v>
       </c>
       <c r="D70" t="n">
-        <v>35.54</v>
+        <v>35.84</v>
       </c>
       <c r="E70" t="n">
-        <v>35.54</v>
+        <v>35.83</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5145999999999999</v>
+        <v>6959.0093</v>
       </c>
       <c r="G70" t="n">
-        <v>-4367957.355100001</v>
+        <v>-3673074.794000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>35.85</v>
+      </c>
       <c r="K70" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3028,38 +3141,41 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35.75</v>
+        <v>35.85</v>
       </c>
       <c r="C71" t="n">
-        <v>35.75</v>
+        <v>35.85</v>
       </c>
       <c r="D71" t="n">
-        <v>35.75</v>
+        <v>35.85</v>
       </c>
       <c r="E71" t="n">
-        <v>35.75</v>
+        <v>35.85</v>
       </c>
       <c r="F71" t="n">
-        <v>23.5104</v>
+        <v>522.0751</v>
       </c>
       <c r="G71" t="n">
-        <v>-4367933.844700001</v>
+        <v>-3672552.718900001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>35.83</v>
+      </c>
       <c r="K71" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3069,38 +3185,41 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>35.75</v>
+        <v>35.85</v>
       </c>
       <c r="C72" t="n">
-        <v>35.82</v>
+        <v>35.85</v>
       </c>
       <c r="D72" t="n">
-        <v>35.82</v>
+        <v>35.85</v>
       </c>
       <c r="E72" t="n">
-        <v>35.75</v>
+        <v>35.85</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>34414.1914</v>
       </c>
       <c r="G72" t="n">
-        <v>-4367883.844700001</v>
+        <v>-3672552.718900001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>35.85</v>
+      </c>
       <c r="K72" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3110,28 +3229,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>35.82</v>
+        <v>35.85</v>
       </c>
       <c r="C73" t="n">
-        <v>35.61</v>
+        <v>35.83</v>
       </c>
       <c r="D73" t="n">
-        <v>35.82</v>
+        <v>35.85</v>
       </c>
       <c r="E73" t="n">
-        <v>35.61</v>
+        <v>35.83</v>
       </c>
       <c r="F73" t="n">
-        <v>2268.8205</v>
+        <v>7788.3283</v>
       </c>
       <c r="G73" t="n">
-        <v>-4370152.665200002</v>
+        <v>-3680341.047200001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3141,7 +3261,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3151,28 +3271,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35.61</v>
+        <v>35.83</v>
       </c>
       <c r="C74" t="n">
-        <v>35.5</v>
+        <v>35.83</v>
       </c>
       <c r="D74" t="n">
-        <v>35.61</v>
+        <v>35.83</v>
       </c>
       <c r="E74" t="n">
-        <v>35.5</v>
+        <v>35.83</v>
       </c>
       <c r="F74" t="n">
-        <v>114335.8928</v>
+        <v>749.7804</v>
       </c>
       <c r="G74" t="n">
-        <v>-4484488.558000001</v>
+        <v>-3680341.047200001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3182,7 +3303,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3192,38 +3313,41 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="C75" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="E75" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="F75" t="n">
-        <v>4023.5291</v>
+        <v>14</v>
       </c>
       <c r="G75" t="n">
-        <v>-4480465.028900001</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>35.83</v>
+      </c>
       <c r="K75" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3233,28 +3357,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="C76" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="E76" t="n">
-        <v>35.51</v>
+        <v>36</v>
       </c>
       <c r="F76" t="n">
-        <v>24834.7648</v>
+        <v>47.6246</v>
       </c>
       <c r="G76" t="n">
-        <v>-4480465.028900001</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3264,7 +3389,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3274,28 +3399,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="C77" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="E77" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="F77" t="n">
-        <v>62.1293</v>
+        <v>1665.0449</v>
       </c>
       <c r="G77" t="n">
-        <v>-4480402.899600001</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3305,7 +3431,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3315,28 +3441,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="C78" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="D78" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="E78" t="n">
-        <v>35.75</v>
+        <v>36</v>
       </c>
       <c r="F78" t="n">
-        <v>50.7875</v>
+        <v>1017.3746</v>
       </c>
       <c r="G78" t="n">
-        <v>-4480402.899600001</v>
+        <v>-3680327.047200001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3346,7 +3473,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3356,28 +3483,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="C79" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="D79" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="E79" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="F79" t="n">
-        <v>15507.4136</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="n">
-        <v>-4495910.313200001</v>
+        <v>-3681327.047200001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3387,7 +3515,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3397,28 +3525,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>35.57</v>
+        <v>35.83</v>
       </c>
       <c r="C80" t="n">
-        <v>36.29</v>
+        <v>35.8</v>
       </c>
       <c r="D80" t="n">
-        <v>36.29</v>
+        <v>35.83</v>
       </c>
       <c r="E80" t="n">
-        <v>35.52</v>
+        <v>35.8</v>
       </c>
       <c r="F80" t="n">
-        <v>193450</v>
+        <v>61240.3979</v>
       </c>
       <c r="G80" t="n">
-        <v>-4302460.313200001</v>
+        <v>-3742567.445100001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3428,7 +3557,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3438,28 +3567,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.61</v>
+        <v>35.8</v>
       </c>
       <c r="C81" t="n">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
       <c r="D81" t="n">
-        <v>36.89</v>
+        <v>35.8</v>
       </c>
       <c r="E81" t="n">
-        <v>35.52</v>
+        <v>35.8</v>
       </c>
       <c r="F81" t="n">
-        <v>190674.1855</v>
+        <v>9322.685600000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-4111786.127700001</v>
+        <v>-3742567.445100001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3469,7 +3599,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3479,28 +3609,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="C82" t="n">
-        <v>36.59</v>
+        <v>36</v>
       </c>
       <c r="D82" t="n">
-        <v>36.77</v>
+        <v>36</v>
       </c>
       <c r="E82" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="F82" t="n">
-        <v>2422.1111</v>
+        <v>1385.4253</v>
       </c>
       <c r="G82" t="n">
-        <v>-4109364.016600001</v>
+        <v>-3741182.019800001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3510,7 +3641,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3520,28 +3651,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>36.38</v>
+        <v>35.8</v>
       </c>
       <c r="C83" t="n">
-        <v>36.38</v>
+        <v>35.8</v>
       </c>
       <c r="D83" t="n">
-        <v>36.38</v>
+        <v>35.8</v>
       </c>
       <c r="E83" t="n">
-        <v>36.38</v>
+        <v>35.8</v>
       </c>
       <c r="F83" t="n">
-        <v>488.6415</v>
+        <v>39518.6365</v>
       </c>
       <c r="G83" t="n">
-        <v>-4109852.658100001</v>
+        <v>-3780700.656300001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3551,7 +3683,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3561,28 +3693,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>36.27</v>
+        <v>35.8</v>
       </c>
       <c r="C84" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="D84" t="n">
-        <v>36.27</v>
+        <v>35.8</v>
       </c>
       <c r="E84" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="F84" t="n">
-        <v>23266.8503</v>
+        <v>20232.4371</v>
       </c>
       <c r="G84" t="n">
-        <v>-4133119.508400001</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3592,7 +3725,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3602,28 +3735,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="C85" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="D85" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="E85" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="F85" t="n">
-        <v>50578.7371</v>
+        <v>8142.1693</v>
       </c>
       <c r="G85" t="n">
-        <v>-4082540.771300001</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3633,7 +3767,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3643,28 +3777,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>36.17</v>
+        <v>35.7</v>
       </c>
       <c r="C86" t="n">
-        <v>36.59</v>
+        <v>35.7</v>
       </c>
       <c r="D86" t="n">
-        <v>36.59</v>
+        <v>35.7</v>
       </c>
       <c r="E86" t="n">
-        <v>36.17</v>
+        <v>35.7</v>
       </c>
       <c r="F86" t="n">
-        <v>62</v>
+        <v>31511.0922</v>
       </c>
       <c r="G86" t="n">
-        <v>-4082478.771300001</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3674,7 +3809,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3684,28 +3819,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>36.11</v>
+        <v>35.7</v>
       </c>
       <c r="C87" t="n">
-        <v>36.88</v>
+        <v>35.7</v>
       </c>
       <c r="D87" t="n">
-        <v>36.88</v>
+        <v>35.7</v>
       </c>
       <c r="E87" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="F87" t="n">
-        <v>171000</v>
+        <v>6479.7242</v>
       </c>
       <c r="G87" t="n">
-        <v>-3911478.771300001</v>
+        <v>-3800933.093400002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3715,7 +3851,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3725,28 +3861,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>36.2</v>
+        <v>35.7</v>
       </c>
       <c r="C88" t="n">
-        <v>36.21</v>
+        <v>36.24</v>
       </c>
       <c r="D88" t="n">
-        <v>36.21</v>
+        <v>36.24</v>
       </c>
       <c r="E88" t="n">
-        <v>36.2</v>
+        <v>35.6</v>
       </c>
       <c r="F88" t="n">
-        <v>35603.1823</v>
+        <v>380000</v>
       </c>
       <c r="G88" t="n">
-        <v>-3947081.953600001</v>
+        <v>-3420933.093400002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3756,7 +3893,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3766,28 +3903,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36.21</v>
+        <v>35.84</v>
       </c>
       <c r="C89" t="n">
-        <v>36.21</v>
+        <v>35.86</v>
       </c>
       <c r="D89" t="n">
-        <v>36.21</v>
+        <v>35.86</v>
       </c>
       <c r="E89" t="n">
-        <v>36.21</v>
+        <v>35.84</v>
       </c>
       <c r="F89" t="n">
-        <v>11813.568</v>
+        <v>123.5956</v>
       </c>
       <c r="G89" t="n">
-        <v>-3947081.953600001</v>
+        <v>-3421056.689000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3797,7 +3935,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3807,28 +3945,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
       <c r="C90" t="n">
-        <v>36.3</v>
+        <v>35.7</v>
       </c>
       <c r="D90" t="n">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
       <c r="E90" t="n">
-        <v>36.3</v>
+        <v>35.7</v>
       </c>
       <c r="F90" t="n">
-        <v>14</v>
+        <v>97564.3968</v>
       </c>
       <c r="G90" t="n">
-        <v>-3947067.953600001</v>
+        <v>-3518621.085800002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3838,7 +3977,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3848,28 +3987,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>36.3</v>
+        <v>35.84</v>
       </c>
       <c r="C91" t="n">
-        <v>36.3</v>
+        <v>35.98</v>
       </c>
       <c r="D91" t="n">
-        <v>36.3</v>
+        <v>35.98</v>
       </c>
       <c r="E91" t="n">
-        <v>36.3</v>
+        <v>35.84</v>
       </c>
       <c r="F91" t="n">
-        <v>275.4820936639118</v>
+        <v>62</v>
       </c>
       <c r="G91" t="n">
-        <v>-3947067.953600001</v>
+        <v>-3518559.085800002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3879,7 +4019,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3889,28 +4029,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>36.16</v>
+        <v>35.8</v>
       </c>
       <c r="C92" t="n">
-        <v>36.12</v>
+        <v>35.8</v>
       </c>
       <c r="D92" t="n">
-        <v>36.16</v>
+        <v>35.8</v>
       </c>
       <c r="E92" t="n">
-        <v>36.12</v>
+        <v>35.8</v>
       </c>
       <c r="F92" t="n">
-        <v>21038.1582</v>
+        <v>16978.7015</v>
       </c>
       <c r="G92" t="n">
-        <v>-3968106.111800001</v>
+        <v>-3535537.787300002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3920,7 +4061,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3930,28 +4071,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>36.12</v>
+        <v>35.79</v>
       </c>
       <c r="C93" t="n">
-        <v>36.1</v>
+        <v>35.65</v>
       </c>
       <c r="D93" t="n">
-        <v>36.12</v>
+        <v>35.79</v>
       </c>
       <c r="E93" t="n">
-        <v>36.1</v>
+        <v>35.65</v>
       </c>
       <c r="F93" t="n">
-        <v>17809.2528</v>
+        <v>25462.1016</v>
       </c>
       <c r="G93" t="n">
-        <v>-3985915.3646</v>
+        <v>-3560999.888900002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3961,7 +4103,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3971,28 +4113,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>36.1</v>
+        <v>35.65</v>
       </c>
       <c r="C94" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="D94" t="n">
-        <v>36.1</v>
+        <v>35.65</v>
       </c>
       <c r="E94" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="F94" t="n">
-        <v>20307.1905</v>
+        <v>62980.1615</v>
       </c>
       <c r="G94" t="n">
-        <v>-4006222.5551</v>
+        <v>-3623980.050400002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4002,7 +4145,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4012,28 +4155,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36.19</v>
+        <v>35.84</v>
       </c>
       <c r="C95" t="n">
-        <v>36.19</v>
+        <v>36.09</v>
       </c>
       <c r="D95" t="n">
-        <v>36.19</v>
+        <v>36.09</v>
       </c>
       <c r="E95" t="n">
-        <v>36.19</v>
+        <v>35.84</v>
       </c>
       <c r="F95" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="G95" t="n">
-        <v>-4006208.5551</v>
+        <v>-3623918.050400002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4043,7 +4187,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4053,28 +4197,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="C96" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="E96" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="F96" t="n">
-        <v>9991.7068</v>
+        <v>14</v>
       </c>
       <c r="G96" t="n">
-        <v>-4006208.5551</v>
+        <v>-3623932.050400002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4084,7 +4229,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4094,28 +4239,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="C97" t="n">
-        <v>36.19</v>
+        <v>36.09</v>
       </c>
       <c r="D97" t="n">
-        <v>36.19</v>
+        <v>36.09</v>
       </c>
       <c r="E97" t="n">
-        <v>36.19</v>
+        <v>36</v>
       </c>
       <c r="F97" t="n">
-        <v>7442.0748</v>
+        <v>33270.1464</v>
       </c>
       <c r="G97" t="n">
-        <v>-4006208.5551</v>
+        <v>-3590661.904000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4125,7 +4271,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4135,28 +4281,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C98" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D98" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="E98" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F98" t="n">
-        <v>2253.8205</v>
+        <v>20926.70475643647</v>
       </c>
       <c r="G98" t="n">
-        <v>-4008462.3756</v>
+        <v>-3569735.199243566</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4166,7 +4313,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4176,6 +4323,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4185,19 +4333,19 @@
         <v>36</v>
       </c>
       <c r="C99" t="n">
-        <v>36.84</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
-        <v>36.84</v>
+        <v>36</v>
       </c>
       <c r="E99" t="n">
-        <v>35.53</v>
+        <v>36</v>
       </c>
       <c r="F99" t="n">
-        <v>380000</v>
+        <v>20680.8492</v>
       </c>
       <c r="G99" t="n">
-        <v>-3628462.3756</v>
+        <v>-3590416.048443566</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4207,7 +4355,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4217,28 +4365,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C100" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="E100" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="F100" t="n">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="G100" t="n">
-        <v>-3628862.3756</v>
+        <v>-3590416.048443566</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4248,7 +4397,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4258,28 +4407,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35.92</v>
+        <v>36.17</v>
       </c>
       <c r="C101" t="n">
-        <v>35.91</v>
+        <v>36.17</v>
       </c>
       <c r="D101" t="n">
-        <v>35.92</v>
+        <v>36.17</v>
       </c>
       <c r="E101" t="n">
-        <v>35.91</v>
+        <v>36.17</v>
       </c>
       <c r="F101" t="n">
-        <v>15662.706</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
-        <v>-3613199.669600001</v>
+        <v>-3590402.048443566</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4289,7 +4439,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4299,28 +4449,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.91</v>
+        <v>36</v>
       </c>
       <c r="C102" t="n">
-        <v>35.83</v>
+        <v>36</v>
       </c>
       <c r="D102" t="n">
-        <v>35.91</v>
+        <v>36</v>
       </c>
       <c r="E102" t="n">
-        <v>35.83</v>
+        <v>36</v>
       </c>
       <c r="F102" t="n">
-        <v>30358.7836</v>
+        <v>756.3323</v>
       </c>
       <c r="G102" t="n">
-        <v>-3643558.453200001</v>
+        <v>-3591158.380743566</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4330,7 +4481,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4340,28 +4491,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="C103" t="n">
-        <v>36</v>
+        <v>35.74</v>
       </c>
       <c r="D103" t="n">
-        <v>36</v>
+        <v>35.83</v>
       </c>
       <c r="E103" t="n">
-        <v>36</v>
+        <v>35.74</v>
       </c>
       <c r="F103" t="n">
-        <v>14</v>
+        <v>57000</v>
       </c>
       <c r="G103" t="n">
-        <v>-3643544.453200001</v>
+        <v>-3648158.380743566</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4371,7 +4523,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4381,28 +4533,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>35.9</v>
+        <v>35.74</v>
       </c>
       <c r="C104" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="D104" t="n">
-        <v>35.9</v>
+        <v>35.74</v>
       </c>
       <c r="E104" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="F104" t="n">
-        <v>11912.9801</v>
+        <v>30106.9182</v>
       </c>
       <c r="G104" t="n">
-        <v>-3655457.433300001</v>
+        <v>-3678265.298943566</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4412,7 +4565,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4422,28 +4575,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>35.83</v>
+        <v>35.62</v>
       </c>
       <c r="C105" t="n">
-        <v>35.83</v>
+        <v>35.61</v>
       </c>
       <c r="D105" t="n">
-        <v>35.83</v>
+        <v>35.62</v>
       </c>
       <c r="E105" t="n">
-        <v>35.83</v>
+        <v>35.61</v>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>1126.0252</v>
       </c>
       <c r="G105" t="n">
-        <v>-3660457.433300001</v>
+        <v>-3678265.298943566</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4453,7 +4607,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4463,28 +4617,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="C106" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="D106" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="E106" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="F106" t="n">
-        <v>1250.4109</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="n">
-        <v>-3659207.022400001</v>
+        <v>-3678265.298943566</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4494,7 +4649,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4504,28 +4659,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.9</v>
+        <v>35.61</v>
       </c>
       <c r="C107" t="n">
-        <v>35.9</v>
+        <v>36.09</v>
       </c>
       <c r="D107" t="n">
-        <v>35.9</v>
+        <v>36.09</v>
       </c>
       <c r="E107" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="F107" t="n">
-        <v>375.1066</v>
+        <v>56787.3867</v>
       </c>
       <c r="G107" t="n">
-        <v>-3659207.022400001</v>
+        <v>-3621477.912243566</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4535,7 +4691,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4545,28 +4701,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>36</v>
+        <v>35.73</v>
       </c>
       <c r="C108" t="n">
-        <v>36</v>
+        <v>35.72</v>
       </c>
       <c r="D108" t="n">
-        <v>36</v>
+        <v>35.73</v>
       </c>
       <c r="E108" t="n">
-        <v>36</v>
+        <v>35.72</v>
       </c>
       <c r="F108" t="n">
-        <v>47.6246</v>
+        <v>19509.3562</v>
       </c>
       <c r="G108" t="n">
-        <v>-3659159.3978</v>
+        <v>-3640987.268443565</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4576,7 +4733,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4586,28 +4743,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="C109" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="D109" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="E109" t="n">
-        <v>35.84</v>
+        <v>35.89</v>
       </c>
       <c r="F109" t="n">
-        <v>4077.7335</v>
+        <v>14</v>
       </c>
       <c r="G109" t="n">
-        <v>-3663237.1313</v>
+        <v>-3640973.268443565</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4617,7 +4775,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4627,38 +4785,41 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>35.84</v>
+        <v>35.72</v>
       </c>
       <c r="C110" t="n">
-        <v>35.84</v>
+        <v>35.72</v>
       </c>
       <c r="D110" t="n">
-        <v>35.84</v>
+        <v>35.72</v>
       </c>
       <c r="E110" t="n">
-        <v>35.84</v>
+        <v>35.72</v>
       </c>
       <c r="F110" t="n">
-        <v>3878.6534</v>
+        <v>635.5423</v>
       </c>
       <c r="G110" t="n">
-        <v>-3667115.784700001</v>
+        <v>-3641608.810743565</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>35.89</v>
+      </c>
       <c r="K110" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4668,28 +4829,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="C111" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="D111" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="E111" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>33829.741</v>
       </c>
       <c r="G111" t="n">
-        <v>-3666115.784700001</v>
+        <v>-3607779.069743565</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4699,7 +4861,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4709,40 +4871,39 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>35.84</v>
+        <v>35.89</v>
       </c>
       <c r="C112" t="n">
-        <v>35.83</v>
+        <v>35.89</v>
       </c>
       <c r="D112" t="n">
-        <v>35.84</v>
+        <v>35.89</v>
       </c>
       <c r="E112" t="n">
-        <v>35.83</v>
+        <v>35.89</v>
       </c>
       <c r="F112" t="n">
-        <v>6959.0093</v>
+        <v>13973</v>
       </c>
       <c r="G112" t="n">
-        <v>-3673074.794000001</v>
+        <v>-3607779.069743565</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>35.85</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4752,40 +4913,39 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="C113" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="D113" t="n">
-        <v>35.85</v>
+        <v>35.89</v>
       </c>
       <c r="E113" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="F113" t="n">
-        <v>522.0751</v>
+        <v>400</v>
       </c>
       <c r="G113" t="n">
-        <v>-3672552.718900001</v>
+        <v>-3608179.069743565</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>35.83</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4795,28 +4955,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="C114" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="D114" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="E114" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="F114" t="n">
-        <v>34414.1914</v>
+        <v>549.7526</v>
       </c>
       <c r="G114" t="n">
-        <v>-3672552.718900001</v>
+        <v>-3608179.069743565</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4826,7 +4987,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4836,28 +4997,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>35.85</v>
+        <v>35.72</v>
       </c>
       <c r="C115" t="n">
-        <v>35.83</v>
+        <v>35.72</v>
       </c>
       <c r="D115" t="n">
-        <v>35.85</v>
+        <v>35.9</v>
       </c>
       <c r="E115" t="n">
-        <v>35.83</v>
+        <v>35.72</v>
       </c>
       <c r="F115" t="n">
-        <v>7788.3283</v>
+        <v>6208.4643</v>
       </c>
       <c r="G115" t="n">
-        <v>-3680341.047200001</v>
+        <v>-3608179.069743565</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4867,7 +5029,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4877,28 +5039,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="C116" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="D116" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="E116" t="n">
-        <v>35.83</v>
+        <v>35.9</v>
       </c>
       <c r="F116" t="n">
-        <v>749.7804</v>
+        <v>14233.3563</v>
       </c>
       <c r="G116" t="n">
-        <v>-3680341.047200001</v>
+        <v>-3593945.713443565</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4908,7 +5071,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4918,38 +5081,41 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="C117" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="D117" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="E117" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="F117" t="n">
-        <v>14</v>
+        <v>49420</v>
       </c>
       <c r="G117" t="n">
-        <v>-3680327.047200001</v>
+        <v>-3593945.713443565</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>35.9</v>
+      </c>
       <c r="K117" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4959,6 +5125,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4977,20 +5144,22 @@
         <v>36</v>
       </c>
       <c r="F118" t="n">
-        <v>47.6246</v>
+        <v>14</v>
       </c>
       <c r="G118" t="n">
-        <v>-3680327.047200001</v>
+        <v>-3593931.713443565</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>35.9</v>
+      </c>
       <c r="K118" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5000,38 +5169,41 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="C119" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="D119" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="E119" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="F119" t="n">
-        <v>1665.0449</v>
+        <v>0.3592</v>
       </c>
       <c r="G119" t="n">
-        <v>-3680327.047200001</v>
+        <v>-3593932.072643565</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>36</v>
+      </c>
       <c r="K119" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5041,38 +5213,41 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36</v>
+        <v>35.77</v>
       </c>
       <c r="C120" t="n">
-        <v>36</v>
+        <v>35.77</v>
       </c>
       <c r="D120" t="n">
-        <v>36</v>
+        <v>35.77</v>
       </c>
       <c r="E120" t="n">
-        <v>36</v>
+        <v>35.77</v>
       </c>
       <c r="F120" t="n">
-        <v>1017.3746</v>
+        <v>4394.133</v>
       </c>
       <c r="G120" t="n">
-        <v>-3680327.047200001</v>
+        <v>-3598326.205643565</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>35.9</v>
+      </c>
       <c r="K120" t="n">
-        <v>36.1</v>
+        <v>35.51</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5082,1728 +5257,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-3681327.047200001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="C122" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="E122" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>61240.3979</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-3742567.445100001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>9322.685600000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-3742567.445100001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>36</v>
-      </c>
-      <c r="C124" t="n">
-        <v>36</v>
-      </c>
-      <c r="D124" t="n">
-        <v>36</v>
-      </c>
-      <c r="E124" t="n">
-        <v>36</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1385.4253</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-3741182.019800001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>39518.6365</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-3780700.656300001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>20232.4371</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8142.1693</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>31511.0922</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C129" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E129" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6479.7242</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>36.24</v>
-      </c>
-      <c r="D130" t="n">
-        <v>36.24</v>
-      </c>
-      <c r="E130" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>380000</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-3420933.093400002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="C131" t="n">
-        <v>35.86</v>
-      </c>
-      <c r="D131" t="n">
-        <v>35.86</v>
-      </c>
-      <c r="E131" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="F131" t="n">
-        <v>123.5956</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-3421056.689000002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D132" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>97564.3968</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-3518621.085800002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="C133" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="D133" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="E133" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="F133" t="n">
-        <v>62</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-3518559.085800002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>16978.7015</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-3535537.787300002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="C135" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="D135" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="E135" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="F135" t="n">
-        <v>25462.1016</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-3560999.888900002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="C136" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="E136" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>62980.1615</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-3623980.050400002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="C137" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="D137" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="E137" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="F137" t="n">
-        <v>62</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-3623918.050400002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>36</v>
-      </c>
-      <c r="C138" t="n">
-        <v>36</v>
-      </c>
-      <c r="D138" t="n">
-        <v>36</v>
-      </c>
-      <c r="E138" t="n">
-        <v>36</v>
-      </c>
-      <c r="F138" t="n">
-        <v>14</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-3623932.050400002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>36</v>
-      </c>
-      <c r="C139" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="D139" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="E139" t="n">
-        <v>36</v>
-      </c>
-      <c r="F139" t="n">
-        <v>33270.1464</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-3590661.904000002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>20926.70475643647</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-3569735.199243566</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>36</v>
-      </c>
-      <c r="C141" t="n">
-        <v>36</v>
-      </c>
-      <c r="D141" t="n">
-        <v>36</v>
-      </c>
-      <c r="E141" t="n">
-        <v>36</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20680.8492</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-3590416.048443566</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>36</v>
-      </c>
-      <c r="C142" t="n">
-        <v>36</v>
-      </c>
-      <c r="D142" t="n">
-        <v>36</v>
-      </c>
-      <c r="E142" t="n">
-        <v>36</v>
-      </c>
-      <c r="F142" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-3590416.048443566</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="C143" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="D143" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="E143" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="F143" t="n">
-        <v>14</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-3590402.048443566</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>36</v>
-      </c>
-      <c r="C144" t="n">
-        <v>36</v>
-      </c>
-      <c r="D144" t="n">
-        <v>36</v>
-      </c>
-      <c r="E144" t="n">
-        <v>36</v>
-      </c>
-      <c r="F144" t="n">
-        <v>756.3323</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-3591158.380743566</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="C145" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="D145" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="E145" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="F145" t="n">
-        <v>57000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-3648158.380743566</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="C146" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="D146" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="E146" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F146" t="n">
-        <v>30106.9182</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-3678265.298943566</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>35.62</v>
-      </c>
-      <c r="C147" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="D147" t="n">
-        <v>35.62</v>
-      </c>
-      <c r="E147" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1126.0252</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-3678265.298943566</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="C148" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="D148" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="E148" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-3678265.298943566</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="C149" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="D149" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="E149" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>56787.3867</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-3621477.912243566</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="C150" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="D150" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="E150" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="F150" t="n">
-        <v>19509.3562</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-3640987.268443565</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="C151" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="D151" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="E151" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="F151" t="n">
-        <v>14</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-3640973.268443565</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="C152" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="D152" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="E152" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="F152" t="n">
-        <v>635.5423</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-3641608.810743565</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="C153" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="D153" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="E153" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="F153" t="n">
-        <v>33829.741</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-3607779.069743565</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="C154" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="D154" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="E154" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="F154" t="n">
-        <v>13973</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-3607779.069743565</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="C155" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="D155" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="E155" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="F155" t="n">
-        <v>400</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-3608179.069743565</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="C156" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="D156" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="E156" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="F156" t="n">
-        <v>549.7526</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-3608179.069743565</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="C157" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="D157" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E157" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6208.4643</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-3608179.069743565</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C158" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14233.3563</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-3593945.713443565</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C159" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>49420</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-3593945.713443565</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>36</v>
-      </c>
-      <c r="C160" t="n">
-        <v>36</v>
-      </c>
-      <c r="D160" t="n">
-        <v>36</v>
-      </c>
-      <c r="E160" t="n">
-        <v>36</v>
-      </c>
-      <c r="F160" t="n">
-        <v>14</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-3593931.713443565</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.3592</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-3593932.072643565</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="C162" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="D162" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="E162" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4394.133</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-3598326.205643565</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.1</v>
+        <v>36.62</v>
       </c>
       <c r="C2" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="D2" t="n">
-        <v>36.1</v>
+        <v>37.19</v>
       </c>
       <c r="E2" t="n">
-        <v>36.1</v>
+        <v>36.58</v>
       </c>
       <c r="F2" t="n">
-        <v>2626.8063</v>
+        <v>1079360</v>
       </c>
       <c r="G2" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3947670.4045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36.1</v>
+        <v>36.45</v>
       </c>
       <c r="C3" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="D3" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="E3" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2626.8063</v>
+        <v>55000</v>
       </c>
       <c r="G3" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3947670.4045</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.1</v>
+        <v>36.28</v>
       </c>
       <c r="C4" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="D4" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="E4" t="n">
-        <v>36.1</v>
+        <v>36.19</v>
       </c>
       <c r="F4" t="n">
-        <v>13694.8275</v>
+        <v>67900</v>
       </c>
       <c r="G4" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3947670.4045</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="D5" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="E5" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="F5" t="n">
-        <v>19757.559</v>
+        <v>14632.0626</v>
       </c>
       <c r="G5" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3962302.4671</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="C6" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1</v>
+        <v>36.59</v>
       </c>
       <c r="E6" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2593.7644</v>
+        <v>140694.4558</v>
       </c>
       <c r="G6" t="n">
-        <v>-4234814.058000001</v>
+        <v>-3821608.0113</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.09</v>
+        <v>36.59</v>
       </c>
       <c r="C7" t="n">
-        <v>35.98</v>
+        <v>37.08</v>
       </c>
       <c r="D7" t="n">
-        <v>36.09</v>
+        <v>37.08</v>
       </c>
       <c r="E7" t="n">
-        <v>35.98</v>
+        <v>36.31</v>
       </c>
       <c r="F7" t="n">
-        <v>56308.1853</v>
+        <v>2019000</v>
       </c>
       <c r="G7" t="n">
-        <v>-4291122.243300001</v>
+        <v>-1802608.0113</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.98</v>
+        <v>36.45</v>
       </c>
       <c r="C8" t="n">
-        <v>35.98</v>
+        <v>36.31</v>
       </c>
       <c r="D8" t="n">
-        <v>35.98</v>
+        <v>36.45</v>
       </c>
       <c r="E8" t="n">
-        <v>35.98</v>
+        <v>36.31</v>
       </c>
       <c r="F8" t="n">
-        <v>13524.1563</v>
+        <v>1000000</v>
       </c>
       <c r="G8" t="n">
-        <v>-4291122.243300001</v>
+        <v>-2802608.0113</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.84</v>
+        <v>36.62</v>
       </c>
       <c r="C9" t="n">
-        <v>35.84</v>
+        <v>37.08</v>
       </c>
       <c r="D9" t="n">
-        <v>35.84</v>
+        <v>37.08</v>
       </c>
       <c r="E9" t="n">
-        <v>35.84</v>
+        <v>36.62</v>
       </c>
       <c r="F9" t="n">
-        <v>15990.9326</v>
+        <v>1000150</v>
       </c>
       <c r="G9" t="n">
-        <v>-4307113.175900001</v>
+        <v>-1802458.0113</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.82</v>
+        <v>36.7</v>
       </c>
       <c r="C10" t="n">
-        <v>35.82</v>
+        <v>37.06</v>
       </c>
       <c r="D10" t="n">
-        <v>35.82</v>
+        <v>37.06</v>
       </c>
       <c r="E10" t="n">
-        <v>35.82</v>
+        <v>36.62</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>2000220.0221</v>
       </c>
       <c r="G10" t="n">
-        <v>-4307127.175900001</v>
+        <v>-3802678.0334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>37.06</v>
       </c>
       <c r="C11" t="n">
-        <v>36.1</v>
+        <v>37.06</v>
       </c>
       <c r="D11" t="n">
-        <v>36.1</v>
+        <v>37.07</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>36.61</v>
       </c>
       <c r="F11" t="n">
-        <v>50000</v>
+        <v>43241.89054971675</v>
       </c>
       <c r="G11" t="n">
-        <v>-4257127.175900001</v>
+        <v>-3802678.0334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.18</v>
+        <v>36.71</v>
       </c>
       <c r="C12" t="n">
-        <v>36.3</v>
+        <v>36.31</v>
       </c>
       <c r="D12" t="n">
-        <v>36.3</v>
+        <v>36.71</v>
       </c>
       <c r="E12" t="n">
-        <v>36.18</v>
+        <v>36.31</v>
       </c>
       <c r="F12" t="n">
-        <v>62</v>
+        <v>990000</v>
       </c>
       <c r="G12" t="n">
-        <v>-4257065.175900001</v>
+        <v>-4792678.0334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.15</v>
+        <v>36.79</v>
       </c>
       <c r="C13" t="n">
-        <v>36.15</v>
+        <v>37.19</v>
       </c>
       <c r="D13" t="n">
-        <v>36.15</v>
+        <v>37.2</v>
       </c>
       <c r="E13" t="n">
-        <v>36.15</v>
+        <v>36.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2794.0067</v>
+        <v>1105000</v>
       </c>
       <c r="G13" t="n">
-        <v>-4259859.182600001</v>
+        <v>-3687678.0334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36.01</v>
+        <v>36.58</v>
       </c>
       <c r="C14" t="n">
-        <v>35.82</v>
+        <v>36.9</v>
       </c>
       <c r="D14" t="n">
-        <v>36.01</v>
+        <v>36.9</v>
       </c>
       <c r="E14" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="F14" t="n">
-        <v>32786.2738</v>
+        <v>77000</v>
       </c>
       <c r="G14" t="n">
-        <v>-4292645.4564</v>
+        <v>-3764678.0334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="C15" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="D15" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="E15" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="F15" t="n">
-        <v>198.7119</v>
+        <v>33116.2097</v>
       </c>
       <c r="G15" t="n">
-        <v>-4292446.7445</v>
+        <v>-3797794.2431</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="C16" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="D16" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="E16" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="F16" t="n">
-        <v>198.712</v>
+        <v>50797.0132</v>
       </c>
       <c r="G16" t="n">
-        <v>-4292446.7445</v>
+        <v>-3797794.2431</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="C17" t="n">
-        <v>35.83</v>
+        <v>36.51</v>
       </c>
       <c r="D17" t="n">
-        <v>35.9</v>
+        <v>36.51</v>
       </c>
       <c r="E17" t="n">
-        <v>35.83</v>
+        <v>36.51</v>
       </c>
       <c r="F17" t="n">
-        <v>36079.1928</v>
+        <v>36978.6426</v>
       </c>
       <c r="G17" t="n">
-        <v>-4328525.9373</v>
+        <v>-3797794.2431</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35.82</v>
+        <v>36.51</v>
       </c>
       <c r="C18" t="n">
-        <v>35.82</v>
+        <v>36.51</v>
       </c>
       <c r="D18" t="n">
-        <v>35.82</v>
+        <v>36.51</v>
       </c>
       <c r="E18" t="n">
-        <v>35.82</v>
+        <v>36.51</v>
       </c>
       <c r="F18" t="n">
-        <v>393.1114</v>
+        <v>9400</v>
       </c>
       <c r="G18" t="n">
-        <v>-4328919.0487</v>
+        <v>-3797794.2431</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.82</v>
+        <v>36.51</v>
       </c>
       <c r="C19" t="n">
-        <v>35.82</v>
+        <v>36.48</v>
       </c>
       <c r="D19" t="n">
-        <v>35.82</v>
+        <v>36.51</v>
       </c>
       <c r="E19" t="n">
-        <v>35.82</v>
+        <v>36.48</v>
       </c>
       <c r="F19" t="n">
-        <v>3858.4169</v>
+        <v>523.5998</v>
       </c>
       <c r="G19" t="n">
-        <v>-4328919.0487</v>
+        <v>-3798317.8429</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>35.82</v>
+        <v>36.4</v>
       </c>
       <c r="C20" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="D20" t="n">
-        <v>35.82</v>
+        <v>36.4</v>
       </c>
       <c r="E20" t="n">
-        <v>35.82</v>
+        <v>36.2</v>
       </c>
       <c r="F20" t="n">
-        <v>13807.1284</v>
+        <v>27298.3641</v>
       </c>
       <c r="G20" t="n">
-        <v>-4328919.0487</v>
+        <v>-3825616.207</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="F21" t="n">
-        <v>252.0781</v>
+        <v>10321.6234</v>
       </c>
       <c r="G21" t="n">
-        <v>-4328666.970600001</v>
+        <v>-3825616.207</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35.82</v>
+        <v>36.45</v>
       </c>
       <c r="C22" t="n">
-        <v>35.82</v>
+        <v>36.45</v>
       </c>
       <c r="D22" t="n">
-        <v>35.82</v>
+        <v>36.45</v>
       </c>
       <c r="E22" t="n">
-        <v>35.82</v>
+        <v>36.45</v>
       </c>
       <c r="F22" t="n">
-        <v>2141.2122</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>-4330808.182800001</v>
+        <v>-3825609.207</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>35.82</v>
+        <v>36.45</v>
       </c>
       <c r="C23" t="n">
-        <v>35.79</v>
+        <v>36.45</v>
       </c>
       <c r="D23" t="n">
-        <v>35.82</v>
+        <v>36.45</v>
       </c>
       <c r="E23" t="n">
-        <v>35.79</v>
+        <v>36.45</v>
       </c>
       <c r="F23" t="n">
-        <v>11016.5635</v>
+        <v>53.8744</v>
       </c>
       <c r="G23" t="n">
-        <v>-4341824.746300001</v>
+        <v>-3825609.207</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35.71</v>
+        <v>36.47</v>
       </c>
       <c r="C24" t="n">
-        <v>35.69</v>
+        <v>36.61</v>
       </c>
       <c r="D24" t="n">
-        <v>35.71</v>
+        <v>36.61</v>
       </c>
       <c r="E24" t="n">
-        <v>35.69</v>
+        <v>36.47</v>
       </c>
       <c r="F24" t="n">
-        <v>8695.785599999999</v>
+        <v>29.9557</v>
       </c>
       <c r="G24" t="n">
-        <v>-4350520.531900001</v>
+        <v>-3825579.2513</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>35.61</v>
+        <v>36.47</v>
       </c>
       <c r="C25" t="n">
-        <v>35.6</v>
+        <v>36.47</v>
       </c>
       <c r="D25" t="n">
-        <v>35.61</v>
+        <v>36.47</v>
       </c>
       <c r="E25" t="n">
-        <v>35.6</v>
+        <v>36.47</v>
       </c>
       <c r="F25" t="n">
-        <v>8051.5924</v>
+        <v>66.5581</v>
       </c>
       <c r="G25" t="n">
-        <v>-4358572.124300001</v>
+        <v>-3825645.8094</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="C26" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="D26" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="E26" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="F26" t="n">
-        <v>9385.230799999999</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>-4367957.355100001</v>
+        <v>-3825638.8094</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="C27" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="D27" t="n">
-        <v>35.54</v>
+        <v>36.61</v>
       </c>
       <c r="E27" t="n">
-        <v>35.53</v>
+        <v>36.61</v>
       </c>
       <c r="F27" t="n">
-        <v>48971.5311</v>
+        <v>38.6838</v>
       </c>
       <c r="G27" t="n">
-        <v>-4367957.355100001</v>
+        <v>-3825638.8094</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.54</v>
+        <v>36.63</v>
       </c>
       <c r="C28" t="n">
-        <v>35.54</v>
+        <v>36.62</v>
       </c>
       <c r="D28" t="n">
-        <v>35.54</v>
+        <v>36.63</v>
       </c>
       <c r="E28" t="n">
-        <v>35.54</v>
+        <v>36.62</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5145999999999999</v>
+        <v>4896.1891</v>
       </c>
       <c r="G28" t="n">
-        <v>-4367957.355100001</v>
+        <v>-3820742.6203</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35.75</v>
+        <v>36.62</v>
       </c>
       <c r="C29" t="n">
-        <v>35.75</v>
+        <v>36.62</v>
       </c>
       <c r="D29" t="n">
-        <v>35.75</v>
+        <v>36.62</v>
       </c>
       <c r="E29" t="n">
-        <v>35.75</v>
+        <v>36.62</v>
       </c>
       <c r="F29" t="n">
-        <v>23.5104</v>
+        <v>3000</v>
       </c>
       <c r="G29" t="n">
-        <v>-4367933.844700001</v>
+        <v>-3820742.6203</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.75</v>
+        <v>36.62</v>
       </c>
       <c r="C30" t="n">
-        <v>35.82</v>
+        <v>36.61</v>
       </c>
       <c r="D30" t="n">
-        <v>35.82</v>
+        <v>36.62</v>
       </c>
       <c r="E30" t="n">
-        <v>35.75</v>
+        <v>36.61</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>16764.4594</v>
       </c>
       <c r="G30" t="n">
-        <v>-4367883.844700001</v>
+        <v>-3837507.0797</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35.82</v>
+        <v>36.6</v>
       </c>
       <c r="C31" t="n">
-        <v>35.61</v>
+        <v>36.6</v>
       </c>
       <c r="D31" t="n">
-        <v>35.82</v>
+        <v>36.6</v>
       </c>
       <c r="E31" t="n">
-        <v>35.61</v>
+        <v>36.6</v>
       </c>
       <c r="F31" t="n">
-        <v>2268.8205</v>
+        <v>7785.3482</v>
       </c>
       <c r="G31" t="n">
-        <v>-4370152.665200002</v>
+        <v>-3845292.4279</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.61</v>
+        <v>36.47</v>
       </c>
       <c r="C32" t="n">
-        <v>35.5</v>
+        <v>36.47</v>
       </c>
       <c r="D32" t="n">
-        <v>35.61</v>
+        <v>36.47</v>
       </c>
       <c r="E32" t="n">
-        <v>35.5</v>
+        <v>36.47</v>
       </c>
       <c r="F32" t="n">
-        <v>114335.8928</v>
+        <v>5698.8425</v>
       </c>
       <c r="G32" t="n">
-        <v>-4484488.558000001</v>
+        <v>-3850991.2704</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>35.51</v>
+        <v>36.47</v>
       </c>
       <c r="C33" t="n">
-        <v>35.51</v>
+        <v>36.47</v>
       </c>
       <c r="D33" t="n">
-        <v>35.51</v>
+        <v>36.47</v>
       </c>
       <c r="E33" t="n">
-        <v>35.51</v>
+        <v>36.47</v>
       </c>
       <c r="F33" t="n">
-        <v>4023.5291</v>
+        <v>5698.8425</v>
       </c>
       <c r="G33" t="n">
-        <v>-4480465.028900001</v>
+        <v>-3850991.2704</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.51</v>
+        <v>36.6</v>
       </c>
       <c r="C34" t="n">
-        <v>35.51</v>
+        <v>36.6</v>
       </c>
       <c r="D34" t="n">
-        <v>35.51</v>
+        <v>36.6</v>
       </c>
       <c r="E34" t="n">
-        <v>35.51</v>
+        <v>36.6</v>
       </c>
       <c r="F34" t="n">
-        <v>24834.7648</v>
+        <v>21923.7232</v>
       </c>
       <c r="G34" t="n">
-        <v>-4480465.028900001</v>
+        <v>-3829067.5472</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,35 +1626,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35.75</v>
+        <v>36.6</v>
       </c>
       <c r="C35" t="n">
-        <v>35.75</v>
+        <v>36.6</v>
       </c>
       <c r="D35" t="n">
-        <v>35.75</v>
+        <v>36.6</v>
       </c>
       <c r="E35" t="n">
-        <v>35.75</v>
+        <v>36.6</v>
       </c>
       <c r="F35" t="n">
-        <v>62.1293</v>
+        <v>76.27679999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-4480402.899600001</v>
+        <v>-3829067.5472</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="K35" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1666,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.75</v>
+        <v>36.52</v>
       </c>
       <c r="C36" t="n">
-        <v>35.75</v>
+        <v>36.52</v>
       </c>
       <c r="D36" t="n">
-        <v>35.75</v>
+        <v>36.52</v>
       </c>
       <c r="E36" t="n">
-        <v>35.75</v>
+        <v>36.52</v>
       </c>
       <c r="F36" t="n">
-        <v>50.7875</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>-4480402.899600001</v>
+        <v>-3834067.5472</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="K36" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1710,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.6</v>
+        <v>36.52</v>
       </c>
       <c r="C37" t="n">
-        <v>35.6</v>
+        <v>36.52</v>
       </c>
       <c r="D37" t="n">
-        <v>35.6</v>
+        <v>36.52</v>
       </c>
       <c r="E37" t="n">
-        <v>35.6</v>
+        <v>36.52</v>
       </c>
       <c r="F37" t="n">
-        <v>15507.4136</v>
+        <v>30.6372</v>
       </c>
       <c r="G37" t="n">
-        <v>-4495910.313200001</v>
+        <v>-3834067.5472</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="K37" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1754,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.57</v>
+        <v>36.51</v>
       </c>
       <c r="C38" t="n">
-        <v>36.29</v>
+        <v>36.51</v>
       </c>
       <c r="D38" t="n">
-        <v>36.29</v>
+        <v>36.51</v>
       </c>
       <c r="E38" t="n">
-        <v>35.52</v>
+        <v>36.51</v>
       </c>
       <c r="F38" t="n">
-        <v>193450</v>
+        <v>5099.0238</v>
       </c>
       <c r="G38" t="n">
-        <v>-4302460.313200001</v>
+        <v>-3839166.571</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1798,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35.61</v>
+        <v>36.52</v>
       </c>
       <c r="C39" t="n">
-        <v>36.3</v>
+        <v>36.52</v>
       </c>
       <c r="D39" t="n">
-        <v>36.89</v>
+        <v>36.52</v>
       </c>
       <c r="E39" t="n">
-        <v>35.52</v>
+        <v>36.52</v>
       </c>
       <c r="F39" t="n">
-        <v>190674.1855</v>
+        <v>58271.4028</v>
       </c>
       <c r="G39" t="n">
-        <v>-4111786.127700001</v>
+        <v>-3780895.1682</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="K39" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>36.17</v>
+        <v>36.52</v>
       </c>
       <c r="C40" t="n">
-        <v>36.59</v>
+        <v>36.52</v>
       </c>
       <c r="D40" t="n">
-        <v>36.77</v>
+        <v>36.52</v>
       </c>
       <c r="E40" t="n">
-        <v>36.17</v>
+        <v>36.52</v>
       </c>
       <c r="F40" t="n">
-        <v>2422.1111</v>
+        <v>11370.6258</v>
       </c>
       <c r="G40" t="n">
-        <v>-4109364.016600001</v>
+        <v>-3780895.1682</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1866,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1884,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>36.38</v>
+        <v>36.51</v>
       </c>
       <c r="C41" t="n">
-        <v>36.38</v>
+        <v>36.51</v>
       </c>
       <c r="D41" t="n">
-        <v>36.38</v>
+        <v>36.51</v>
       </c>
       <c r="E41" t="n">
-        <v>36.38</v>
+        <v>36.51</v>
       </c>
       <c r="F41" t="n">
-        <v>488.6415</v>
+        <v>14076.5401</v>
       </c>
       <c r="G41" t="n">
-        <v>-4109852.658100001</v>
+        <v>-3794971.7083</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1908,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1926,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36.27</v>
+        <v>36.51</v>
       </c>
       <c r="C42" t="n">
-        <v>36</v>
+        <v>36.51</v>
       </c>
       <c r="D42" t="n">
-        <v>36.27</v>
+        <v>36.51</v>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>36.51</v>
       </c>
       <c r="F42" t="n">
-        <v>23266.8503</v>
+        <v>1795.9827</v>
       </c>
       <c r="G42" t="n">
-        <v>-4133119.508400001</v>
+        <v>-3794971.7083</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1950,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1968,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="C43" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="D43" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="E43" t="n">
-        <v>36.1</v>
+        <v>36.51</v>
       </c>
       <c r="F43" t="n">
-        <v>50578.7371</v>
+        <v>16.0923</v>
       </c>
       <c r="G43" t="n">
-        <v>-4082540.771300001</v>
+        <v>-3794971.7083</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1992,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2010,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>36.17</v>
+        <v>36.55</v>
       </c>
       <c r="C44" t="n">
-        <v>36.59</v>
+        <v>36.55</v>
       </c>
       <c r="D44" t="n">
-        <v>36.59</v>
+        <v>36.55</v>
       </c>
       <c r="E44" t="n">
-        <v>36.17</v>
+        <v>36.55</v>
       </c>
       <c r="F44" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-4082478.771300001</v>
+        <v>-3794951.7083</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2034,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2052,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>36.11</v>
+        <v>36.75</v>
       </c>
       <c r="C45" t="n">
-        <v>36.88</v>
+        <v>36.75</v>
       </c>
       <c r="D45" t="n">
-        <v>36.88</v>
+        <v>36.75</v>
       </c>
       <c r="E45" t="n">
-        <v>36.1</v>
+        <v>36.75</v>
       </c>
       <c r="F45" t="n">
-        <v>171000</v>
+        <v>60.3732</v>
       </c>
       <c r="G45" t="n">
-        <v>-3911478.771300001</v>
+        <v>-3794891.3351</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2076,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C46" t="n">
-        <v>36.21</v>
+        <v>36.55</v>
       </c>
       <c r="D46" t="n">
-        <v>36.21</v>
+        <v>36.6</v>
       </c>
       <c r="E46" t="n">
-        <v>36.2</v>
+        <v>36.55</v>
       </c>
       <c r="F46" t="n">
-        <v>35603.1823</v>
+        <v>2085.5096</v>
       </c>
       <c r="G46" t="n">
-        <v>-3947081.953600001</v>
+        <v>-3796976.8447</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2118,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2136,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.21</v>
+        <v>36.52</v>
       </c>
       <c r="C47" t="n">
-        <v>36.21</v>
+        <v>36.52</v>
       </c>
       <c r="D47" t="n">
-        <v>36.21</v>
+        <v>36.52</v>
       </c>
       <c r="E47" t="n">
-        <v>36.21</v>
+        <v>36.52</v>
       </c>
       <c r="F47" t="n">
-        <v>11813.568</v>
+        <v>9714.0244</v>
       </c>
       <c r="G47" t="n">
-        <v>-3947081.953600001</v>
+        <v>-3806690.8691</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2160,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="C48" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="D48" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="E48" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>9714.0245</v>
       </c>
       <c r="G48" t="n">
-        <v>-3947067.953600001</v>
+        <v>-3796976.8446</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2202,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2220,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="C49" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="D49" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="E49" t="n">
-        <v>36.3</v>
+        <v>36.53</v>
       </c>
       <c r="F49" t="n">
-        <v>275.4820936639118</v>
+        <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>-3947067.953600001</v>
+        <v>-3796976.8446</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2244,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2262,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>36.16</v>
+        <v>36.53</v>
       </c>
       <c r="C50" t="n">
-        <v>36.12</v>
+        <v>36.52</v>
       </c>
       <c r="D50" t="n">
-        <v>36.16</v>
+        <v>36.53</v>
       </c>
       <c r="E50" t="n">
-        <v>36.12</v>
+        <v>36.52</v>
       </c>
       <c r="F50" t="n">
-        <v>21038.1582</v>
+        <v>8055.232</v>
       </c>
       <c r="G50" t="n">
-        <v>-3968106.111800001</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2286,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2304,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>36.12</v>
+        <v>36.52</v>
       </c>
       <c r="C51" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="D51" t="n">
-        <v>36.12</v>
+        <v>36.52</v>
       </c>
       <c r="E51" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="F51" t="n">
-        <v>17809.2528</v>
+        <v>20000</v>
       </c>
       <c r="G51" t="n">
-        <v>-3985915.3646</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2328,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="C52" t="n">
-        <v>36</v>
+        <v>36.52</v>
       </c>
       <c r="D52" t="n">
-        <v>36.1</v>
+        <v>36.52</v>
       </c>
       <c r="E52" t="n">
-        <v>36</v>
+        <v>36.52</v>
       </c>
       <c r="F52" t="n">
-        <v>20307.1905</v>
+        <v>1578.7061</v>
       </c>
       <c r="G52" t="n">
-        <v>-4006222.5551</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2370,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2388,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>36.19</v>
+        <v>36.52</v>
       </c>
       <c r="C53" t="n">
-        <v>36.19</v>
+        <v>36.52</v>
       </c>
       <c r="D53" t="n">
-        <v>36.19</v>
+        <v>36.52</v>
       </c>
       <c r="E53" t="n">
-        <v>36.19</v>
+        <v>36.52</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>6302.2235</v>
       </c>
       <c r="G53" t="n">
-        <v>-4006208.5551</v>
+        <v>-3805032.0766</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2412,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2430,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.19</v>
+        <v>36.52</v>
       </c>
       <c r="C54" t="n">
-        <v>36.19</v>
+        <v>36.5</v>
       </c>
       <c r="D54" t="n">
-        <v>36.19</v>
+        <v>36.52</v>
       </c>
       <c r="E54" t="n">
-        <v>36.19</v>
+        <v>36.5</v>
       </c>
       <c r="F54" t="n">
-        <v>9991.7068</v>
+        <v>40823.8867</v>
       </c>
       <c r="G54" t="n">
-        <v>-4006208.5551</v>
+        <v>-3845855.9633</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2454,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2472,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>36.19</v>
+        <v>36.5</v>
       </c>
       <c r="C55" t="n">
-        <v>36.19</v>
+        <v>36.5</v>
       </c>
       <c r="D55" t="n">
-        <v>36.19</v>
+        <v>36.5</v>
       </c>
       <c r="E55" t="n">
-        <v>36.19</v>
+        <v>36.5</v>
       </c>
       <c r="F55" t="n">
-        <v>7442.0748</v>
+        <v>1500</v>
       </c>
       <c r="G55" t="n">
-        <v>-4006208.5551</v>
+        <v>-3845855.9633</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2496,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2514,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>36</v>
+        <v>36.5</v>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>36.44</v>
       </c>
       <c r="D56" t="n">
-        <v>36</v>
+        <v>36.5</v>
       </c>
       <c r="E56" t="n">
-        <v>36</v>
+        <v>36.44</v>
       </c>
       <c r="F56" t="n">
-        <v>2253.8205</v>
+        <v>10073.3544</v>
       </c>
       <c r="G56" t="n">
-        <v>-4008462.3756</v>
+        <v>-3855929.3177</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2538,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2556,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36</v>
+        <v>36.44</v>
       </c>
       <c r="C57" t="n">
-        <v>36.84</v>
+        <v>36.44</v>
       </c>
       <c r="D57" t="n">
-        <v>36.84</v>
+        <v>36.44</v>
       </c>
       <c r="E57" t="n">
-        <v>35.53</v>
+        <v>36.44</v>
       </c>
       <c r="F57" t="n">
-        <v>380000</v>
+        <v>572.3418</v>
       </c>
       <c r="G57" t="n">
-        <v>-3628462.3756</v>
+        <v>-3855929.3177</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2580,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="C58" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="D58" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="E58" t="n">
-        <v>35.9</v>
+        <v>36.28</v>
       </c>
       <c r="F58" t="n">
-        <v>400</v>
+        <v>352.3387</v>
       </c>
       <c r="G58" t="n">
-        <v>-3628862.3756</v>
+        <v>-3856281.656400001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2622,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>35.92</v>
+        <v>36.28</v>
       </c>
       <c r="C59" t="n">
-        <v>35.91</v>
+        <v>36.28</v>
       </c>
       <c r="D59" t="n">
-        <v>35.92</v>
+        <v>36.28</v>
       </c>
       <c r="E59" t="n">
-        <v>35.91</v>
+        <v>36.28</v>
       </c>
       <c r="F59" t="n">
-        <v>15662.706</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="n">
-        <v>-3613199.669600001</v>
+        <v>-3856281.656400001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2664,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2682,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>35.91</v>
+        <v>36.28</v>
       </c>
       <c r="C60" t="n">
-        <v>35.83</v>
+        <v>36.21</v>
       </c>
       <c r="D60" t="n">
-        <v>35.91</v>
+        <v>36.28</v>
       </c>
       <c r="E60" t="n">
-        <v>35.83</v>
+        <v>36.21</v>
       </c>
       <c r="F60" t="n">
-        <v>30358.7836</v>
+        <v>27000</v>
       </c>
       <c r="G60" t="n">
-        <v>-3643558.453200001</v>
+        <v>-3883281.656400001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2706,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2724,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="C61" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="D61" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="E61" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>888</v>
       </c>
       <c r="G61" t="n">
-        <v>-3643544.453200001</v>
+        <v>-3883281.656400001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2748,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2766,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>35.9</v>
+        <v>36.21</v>
       </c>
       <c r="C62" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="D62" t="n">
-        <v>35.9</v>
+        <v>36.21</v>
       </c>
       <c r="E62" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="F62" t="n">
-        <v>11912.9801</v>
+        <v>600</v>
       </c>
       <c r="G62" t="n">
-        <v>-3655457.433300001</v>
+        <v>-3883881.656400001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2790,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2808,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>35.83</v>
+        <v>36.2</v>
       </c>
       <c r="C63" t="n">
-        <v>35.83</v>
+        <v>36.2</v>
       </c>
       <c r="D63" t="n">
-        <v>35.83</v>
+        <v>36.2</v>
       </c>
       <c r="E63" t="n">
-        <v>35.83</v>
+        <v>36.2</v>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G63" t="n">
-        <v>-3660457.433300001</v>
+        <v>-3883881.656400001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2832,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C64" t="n">
-        <v>35.9</v>
+        <v>36.17</v>
       </c>
       <c r="D64" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="E64" t="n">
-        <v>35.9</v>
+        <v>36.17</v>
       </c>
       <c r="F64" t="n">
-        <v>1250.4109</v>
+        <v>12206.8535</v>
       </c>
       <c r="G64" t="n">
-        <v>-3659207.022400001</v>
+        <v>-3896088.509900001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2874,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2892,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>35.9</v>
+        <v>36.17</v>
       </c>
       <c r="C65" t="n">
-        <v>35.9</v>
+        <v>36.15</v>
       </c>
       <c r="D65" t="n">
-        <v>35.9</v>
+        <v>36.17</v>
       </c>
       <c r="E65" t="n">
-        <v>35.9</v>
+        <v>36.15</v>
       </c>
       <c r="F65" t="n">
-        <v>375.1066</v>
+        <v>35488.4324</v>
       </c>
       <c r="G65" t="n">
-        <v>-3659207.022400001</v>
+        <v>-3931576.942300001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2916,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>36</v>
+        <v>36.43</v>
       </c>
       <c r="C66" t="n">
-        <v>36</v>
+        <v>36.43</v>
       </c>
       <c r="D66" t="n">
-        <v>36</v>
+        <v>36.43</v>
       </c>
       <c r="E66" t="n">
-        <v>36</v>
+        <v>36.43</v>
       </c>
       <c r="F66" t="n">
-        <v>47.6246</v>
+        <v>10080.8492</v>
       </c>
       <c r="G66" t="n">
-        <v>-3659159.3978</v>
+        <v>-3921496.093100001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2958,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2976,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.85</v>
+        <v>36.2</v>
       </c>
       <c r="C67" t="n">
-        <v>35.85</v>
+        <v>36.2</v>
       </c>
       <c r="D67" t="n">
-        <v>35.85</v>
+        <v>36.2</v>
       </c>
       <c r="E67" t="n">
-        <v>35.84</v>
+        <v>36.2</v>
       </c>
       <c r="F67" t="n">
-        <v>4077.7335</v>
+        <v>12247.166</v>
       </c>
       <c r="G67" t="n">
-        <v>-3663237.1313</v>
+        <v>-3933743.259100001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3000,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3018,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>35.84</v>
+        <v>36.14</v>
       </c>
       <c r="C68" t="n">
-        <v>35.84</v>
+        <v>36.12</v>
       </c>
       <c r="D68" t="n">
-        <v>35.84</v>
+        <v>36.14</v>
       </c>
       <c r="E68" t="n">
-        <v>35.84</v>
+        <v>36.12</v>
       </c>
       <c r="F68" t="n">
-        <v>3878.6534</v>
+        <v>57887.8968</v>
       </c>
       <c r="G68" t="n">
-        <v>-3667115.784700001</v>
+        <v>-3991631.155900001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3042,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3060,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>35.85</v>
+        <v>36.11</v>
       </c>
       <c r="C69" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="D69" t="n">
-        <v>35.85</v>
+        <v>36.11</v>
       </c>
       <c r="E69" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>243182.9021</v>
       </c>
       <c r="G69" t="n">
-        <v>-3666115.784700001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="K69" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3104,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>35.84</v>
+        <v>36.1</v>
       </c>
       <c r="C70" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="D70" t="n">
-        <v>35.84</v>
+        <v>36.1</v>
       </c>
       <c r="E70" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="F70" t="n">
-        <v>6959.0093</v>
+        <v>4080.8744</v>
       </c>
       <c r="G70" t="n">
-        <v>-3673074.794000001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="K70" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3148,40 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="C71" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="D71" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="E71" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="F71" t="n">
-        <v>522.0751</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>-3672552.718900001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K71" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3192,40 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="C72" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="D72" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="E72" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="F72" t="n">
-        <v>34414.1914</v>
+        <v>69081.4757</v>
       </c>
       <c r="G72" t="n">
-        <v>-3672552.718900001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="K72" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="C73" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="D73" t="n">
-        <v>35.85</v>
+        <v>36.1</v>
       </c>
       <c r="E73" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="F73" t="n">
-        <v>7788.3283</v>
+        <v>2626.8063</v>
       </c>
       <c r="G73" t="n">
-        <v>-3680341.047200001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3260,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="C74" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="D74" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="E74" t="n">
-        <v>35.83</v>
+        <v>36.1</v>
       </c>
       <c r="F74" t="n">
-        <v>749.7804</v>
+        <v>2626.8063</v>
       </c>
       <c r="G74" t="n">
-        <v>-3680341.047200001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3302,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3320,40 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D75" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E75" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F75" t="n">
-        <v>14</v>
+        <v>13694.8275</v>
       </c>
       <c r="G75" t="n">
-        <v>-3680327.047200001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K75" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3364,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D76" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E76" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F76" t="n">
-        <v>47.6246</v>
+        <v>19757.559</v>
       </c>
       <c r="G76" t="n">
-        <v>-3680327.047200001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3388,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3406,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C77" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D77" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E77" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1665.0449</v>
+        <v>2593.7644</v>
       </c>
       <c r="G77" t="n">
-        <v>-3680327.047200001</v>
+        <v>-4234814.058000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3430,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3448,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>36</v>
+        <v>36.09</v>
       </c>
       <c r="C78" t="n">
-        <v>36</v>
+        <v>35.98</v>
       </c>
       <c r="D78" t="n">
-        <v>36</v>
+        <v>36.09</v>
       </c>
       <c r="E78" t="n">
-        <v>36</v>
+        <v>35.98</v>
       </c>
       <c r="F78" t="n">
-        <v>1017.3746</v>
+        <v>56308.1853</v>
       </c>
       <c r="G78" t="n">
-        <v>-3680327.047200001</v>
+        <v>-4291122.243300001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3472,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.9</v>
+        <v>35.98</v>
       </c>
       <c r="C79" t="n">
-        <v>35.9</v>
+        <v>35.98</v>
       </c>
       <c r="D79" t="n">
-        <v>35.9</v>
+        <v>35.98</v>
       </c>
       <c r="E79" t="n">
-        <v>35.9</v>
+        <v>35.98</v>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>13524.1563</v>
       </c>
       <c r="G79" t="n">
-        <v>-3681327.047200001</v>
+        <v>-4291122.243300001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3514,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>35.83</v>
+        <v>35.84</v>
       </c>
       <c r="C80" t="n">
-        <v>35.8</v>
+        <v>35.84</v>
       </c>
       <c r="D80" t="n">
-        <v>35.83</v>
+        <v>35.84</v>
       </c>
       <c r="E80" t="n">
-        <v>35.8</v>
+        <v>35.84</v>
       </c>
       <c r="F80" t="n">
-        <v>61240.3979</v>
+        <v>15990.9326</v>
       </c>
       <c r="G80" t="n">
-        <v>-3742567.445100001</v>
+        <v>-4307113.175900001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3556,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3574,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.8</v>
+        <v>35.82</v>
       </c>
       <c r="C81" t="n">
-        <v>35.8</v>
+        <v>35.82</v>
       </c>
       <c r="D81" t="n">
-        <v>35.8</v>
+        <v>35.82</v>
       </c>
       <c r="E81" t="n">
-        <v>35.8</v>
+        <v>35.82</v>
       </c>
       <c r="F81" t="n">
-        <v>9322.685600000001</v>
+        <v>14</v>
       </c>
       <c r="G81" t="n">
-        <v>-3742567.445100001</v>
+        <v>-4307127.175900001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3598,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3619,19 +3321,19 @@
         <v>36</v>
       </c>
       <c r="C82" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D82" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E82" t="n">
         <v>36</v>
       </c>
       <c r="F82" t="n">
-        <v>1385.4253</v>
+        <v>50000</v>
       </c>
       <c r="G82" t="n">
-        <v>-3741182.019800001</v>
+        <v>-4257127.175900001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3640,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>35.8</v>
+        <v>36.18</v>
       </c>
       <c r="C83" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="D83" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="E83" t="n">
-        <v>35.8</v>
+        <v>36.18</v>
       </c>
       <c r="F83" t="n">
-        <v>39518.6365</v>
+        <v>62</v>
       </c>
       <c r="G83" t="n">
-        <v>-3780700.656300001</v>
+        <v>-4257065.175900001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3682,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3700,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>35.8</v>
+        <v>36.15</v>
       </c>
       <c r="C84" t="n">
-        <v>35.7</v>
+        <v>36.15</v>
       </c>
       <c r="D84" t="n">
-        <v>35.8</v>
+        <v>36.15</v>
       </c>
       <c r="E84" t="n">
-        <v>35.7</v>
+        <v>36.15</v>
       </c>
       <c r="F84" t="n">
-        <v>20232.4371</v>
+        <v>2794.0067</v>
       </c>
       <c r="G84" t="n">
-        <v>-3800933.093400002</v>
+        <v>-4259859.182600001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3724,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3742,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>35.7</v>
+        <v>36.01</v>
       </c>
       <c r="C85" t="n">
-        <v>35.7</v>
+        <v>35.82</v>
       </c>
       <c r="D85" t="n">
-        <v>35.7</v>
+        <v>36.01</v>
       </c>
       <c r="E85" t="n">
-        <v>35.7</v>
+        <v>35.82</v>
       </c>
       <c r="F85" t="n">
-        <v>8142.1693</v>
+        <v>32786.2738</v>
       </c>
       <c r="G85" t="n">
-        <v>-3800933.093400002</v>
+        <v>-4292645.4564</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3766,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C86" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="D86" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="E86" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="F86" t="n">
-        <v>31511.0922</v>
+        <v>198.7119</v>
       </c>
       <c r="G86" t="n">
-        <v>-3800933.093400002</v>
+        <v>-4292446.7445</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3808,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3826,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C87" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="D87" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="E87" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="F87" t="n">
-        <v>6479.7242</v>
+        <v>198.712</v>
       </c>
       <c r="G87" t="n">
-        <v>-3800933.093400002</v>
+        <v>-4292446.7445</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3850,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3868,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C88" t="n">
-        <v>36.24</v>
+        <v>35.83</v>
       </c>
       <c r="D88" t="n">
-        <v>36.24</v>
+        <v>35.9</v>
       </c>
       <c r="E88" t="n">
-        <v>35.6</v>
+        <v>35.83</v>
       </c>
       <c r="F88" t="n">
-        <v>380000</v>
+        <v>36079.1928</v>
       </c>
       <c r="G88" t="n">
-        <v>-3420933.093400002</v>
+        <v>-4328525.9373</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3892,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3910,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.84</v>
+        <v>35.82</v>
       </c>
       <c r="C89" t="n">
-        <v>35.86</v>
+        <v>35.82</v>
       </c>
       <c r="D89" t="n">
-        <v>35.86</v>
+        <v>35.82</v>
       </c>
       <c r="E89" t="n">
-        <v>35.84</v>
+        <v>35.82</v>
       </c>
       <c r="F89" t="n">
-        <v>123.5956</v>
+        <v>393.1114</v>
       </c>
       <c r="G89" t="n">
-        <v>-3421056.689000002</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3934,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3952,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35.8</v>
+        <v>35.82</v>
       </c>
       <c r="C90" t="n">
-        <v>35.7</v>
+        <v>35.82</v>
       </c>
       <c r="D90" t="n">
-        <v>35.8</v>
+        <v>35.82</v>
       </c>
       <c r="E90" t="n">
-        <v>35.7</v>
+        <v>35.82</v>
       </c>
       <c r="F90" t="n">
-        <v>97564.3968</v>
+        <v>3858.4169</v>
       </c>
       <c r="G90" t="n">
-        <v>-3518621.085800002</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3976,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3994,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35.84</v>
+        <v>35.82</v>
       </c>
       <c r="C91" t="n">
-        <v>35.98</v>
+        <v>35.82</v>
       </c>
       <c r="D91" t="n">
-        <v>35.98</v>
+        <v>35.82</v>
       </c>
       <c r="E91" t="n">
-        <v>35.84</v>
+        <v>35.82</v>
       </c>
       <c r="F91" t="n">
-        <v>62</v>
+        <v>13807.1284</v>
       </c>
       <c r="G91" t="n">
-        <v>-3518559.085800002</v>
+        <v>-4328919.0487</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4018,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="C92" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D92" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E92" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="F92" t="n">
-        <v>16978.7015</v>
+        <v>252.0781</v>
       </c>
       <c r="G92" t="n">
-        <v>-3535537.787300002</v>
+        <v>-4328666.970600001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4060,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4078,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>35.79</v>
+        <v>35.82</v>
       </c>
       <c r="C93" t="n">
-        <v>35.65</v>
+        <v>35.82</v>
       </c>
       <c r="D93" t="n">
-        <v>35.79</v>
+        <v>35.82</v>
       </c>
       <c r="E93" t="n">
-        <v>35.65</v>
+        <v>35.82</v>
       </c>
       <c r="F93" t="n">
-        <v>25462.1016</v>
+        <v>2141.2122</v>
       </c>
       <c r="G93" t="n">
-        <v>-3560999.888900002</v>
+        <v>-4330808.182800001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4102,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>35.65</v>
+        <v>35.82</v>
       </c>
       <c r="C94" t="n">
-        <v>35.6</v>
+        <v>35.79</v>
       </c>
       <c r="D94" t="n">
-        <v>35.65</v>
+        <v>35.82</v>
       </c>
       <c r="E94" t="n">
-        <v>35.6</v>
+        <v>35.79</v>
       </c>
       <c r="F94" t="n">
-        <v>62980.1615</v>
+        <v>11016.5635</v>
       </c>
       <c r="G94" t="n">
-        <v>-3623980.050400002</v>
+        <v>-4341824.746300001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4144,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.84</v>
+        <v>35.71</v>
       </c>
       <c r="C95" t="n">
-        <v>36.09</v>
+        <v>35.69</v>
       </c>
       <c r="D95" t="n">
-        <v>36.09</v>
+        <v>35.71</v>
       </c>
       <c r="E95" t="n">
-        <v>35.84</v>
+        <v>35.69</v>
       </c>
       <c r="F95" t="n">
-        <v>62</v>
+        <v>8695.785599999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-3623918.050400002</v>
+        <v>-4350520.531900001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4186,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="C96" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="D96" t="n">
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="E96" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="F96" t="n">
-        <v>14</v>
+        <v>8051.5924</v>
       </c>
       <c r="G96" t="n">
-        <v>-3623932.050400002</v>
+        <v>-4358572.124300001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4228,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4246,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="C97" t="n">
-        <v>36.09</v>
+        <v>35.54</v>
       </c>
       <c r="D97" t="n">
-        <v>36.09</v>
+        <v>35.54</v>
       </c>
       <c r="E97" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="F97" t="n">
-        <v>33270.1464</v>
+        <v>9385.230799999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-3590661.904000002</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4270,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4288,36 +3894,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>36.1</v>
+        <v>35.54</v>
       </c>
       <c r="C98" t="n">
-        <v>36.2</v>
+        <v>35.54</v>
       </c>
       <c r="D98" t="n">
-        <v>36.2</v>
+        <v>35.54</v>
       </c>
       <c r="E98" t="n">
-        <v>36.1</v>
+        <v>35.53</v>
       </c>
       <c r="F98" t="n">
-        <v>20926.70475643647</v>
+        <v>48971.5311</v>
       </c>
       <c r="G98" t="n">
-        <v>-3569735.199243566</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J98" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -4330,33 +3936,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="C99" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="D99" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="E99" t="n">
-        <v>36</v>
+        <v>35.54</v>
       </c>
       <c r="F99" t="n">
-        <v>20680.8492</v>
+        <v>0.5145999999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-3590416.048443566</v>
+        <v>-4367957.355100001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J99" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,33 +3978,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>36</v>
+        <v>35.75</v>
       </c>
       <c r="C100" t="n">
-        <v>36</v>
+        <v>35.75</v>
       </c>
       <c r="D100" t="n">
-        <v>36</v>
+        <v>35.75</v>
       </c>
       <c r="E100" t="n">
-        <v>36</v>
+        <v>35.75</v>
       </c>
       <c r="F100" t="n">
-        <v>24000</v>
+        <v>23.5104</v>
       </c>
       <c r="G100" t="n">
-        <v>-3590416.048443566</v>
+        <v>-4367933.844700001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J100" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4414,33 +4020,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.17</v>
+        <v>35.75</v>
       </c>
       <c r="C101" t="n">
-        <v>36.17</v>
+        <v>35.82</v>
       </c>
       <c r="D101" t="n">
-        <v>36.17</v>
+        <v>35.82</v>
       </c>
       <c r="E101" t="n">
-        <v>36.17</v>
+        <v>35.75</v>
       </c>
       <c r="F101" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>-3590402.048443566</v>
+        <v>-4367883.844700001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J101" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,33 +4062,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="C102" t="n">
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="D102" t="n">
-        <v>36</v>
+        <v>35.82</v>
       </c>
       <c r="E102" t="n">
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="F102" t="n">
-        <v>756.3323</v>
+        <v>2268.8205</v>
       </c>
       <c r="G102" t="n">
-        <v>-3591158.380743566</v>
+        <v>-4370152.665200002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J102" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,33 +4104,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>35.83</v>
+        <v>35.61</v>
       </c>
       <c r="C103" t="n">
-        <v>35.74</v>
+        <v>35.5</v>
       </c>
       <c r="D103" t="n">
-        <v>35.83</v>
+        <v>35.61</v>
       </c>
       <c r="E103" t="n">
-        <v>35.74</v>
+        <v>35.5</v>
       </c>
       <c r="F103" t="n">
-        <v>57000</v>
+        <v>114335.8928</v>
       </c>
       <c r="G103" t="n">
-        <v>-3648158.380743566</v>
+        <v>-4484488.558000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J103" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,33 +4146,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>35.74</v>
+        <v>35.51</v>
       </c>
       <c r="C104" t="n">
-        <v>35.61</v>
+        <v>35.51</v>
       </c>
       <c r="D104" t="n">
-        <v>35.74</v>
+        <v>35.51</v>
       </c>
       <c r="E104" t="n">
-        <v>35.61</v>
+        <v>35.51</v>
       </c>
       <c r="F104" t="n">
-        <v>30106.9182</v>
+        <v>4023.5291</v>
       </c>
       <c r="G104" t="n">
-        <v>-3678265.298943566</v>
+        <v>-4480465.028900001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J104" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4582,33 +4188,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>35.62</v>
+        <v>35.51</v>
       </c>
       <c r="C105" t="n">
-        <v>35.61</v>
+        <v>35.51</v>
       </c>
       <c r="D105" t="n">
-        <v>35.62</v>
+        <v>35.51</v>
       </c>
       <c r="E105" t="n">
-        <v>35.61</v>
+        <v>35.51</v>
       </c>
       <c r="F105" t="n">
-        <v>1126.0252</v>
+        <v>24834.7648</v>
       </c>
       <c r="G105" t="n">
-        <v>-3678265.298943566</v>
+        <v>-4480465.028900001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
+      <c r="J105" t="n">
         <v>35.51</v>
       </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,33 +4230,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="C106" t="n">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="D106" t="n">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="E106" t="n">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>62.1293</v>
       </c>
       <c r="G106" t="n">
-        <v>-3678265.298943566</v>
+        <v>-4480402.899600001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
+      <c r="J106" t="n">
         <v>35.51</v>
       </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,33 +4272,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="C107" t="n">
-        <v>36.09</v>
+        <v>35.75</v>
       </c>
       <c r="D107" t="n">
-        <v>36.09</v>
+        <v>35.75</v>
       </c>
       <c r="E107" t="n">
-        <v>35.6</v>
+        <v>35.75</v>
       </c>
       <c r="F107" t="n">
-        <v>56787.3867</v>
+        <v>50.7875</v>
       </c>
       <c r="G107" t="n">
-        <v>-3621477.912243566</v>
+        <v>-4480402.899600001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J107" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,33 +4314,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>35.73</v>
+        <v>35.6</v>
       </c>
       <c r="C108" t="n">
-        <v>35.72</v>
+        <v>35.6</v>
       </c>
       <c r="D108" t="n">
-        <v>35.73</v>
+        <v>35.6</v>
       </c>
       <c r="E108" t="n">
-        <v>35.72</v>
+        <v>35.6</v>
       </c>
       <c r="F108" t="n">
-        <v>19509.3562</v>
+        <v>15507.4136</v>
       </c>
       <c r="G108" t="n">
-        <v>-3640987.268443565</v>
+        <v>-4495910.313200001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J108" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,33 +4356,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>35.89</v>
+        <v>35.57</v>
       </c>
       <c r="C109" t="n">
-        <v>35.89</v>
+        <v>36.29</v>
       </c>
       <c r="D109" t="n">
-        <v>35.89</v>
+        <v>36.29</v>
       </c>
       <c r="E109" t="n">
-        <v>35.89</v>
+        <v>35.52</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>193450</v>
       </c>
       <c r="G109" t="n">
-        <v>-3640973.268443565</v>
+        <v>-4302460.313200001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J109" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,22 +4398,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>35.72</v>
+        <v>35.61</v>
       </c>
       <c r="C110" t="n">
-        <v>35.72</v>
+        <v>36.3</v>
       </c>
       <c r="D110" t="n">
-        <v>35.72</v>
+        <v>36.89</v>
       </c>
       <c r="E110" t="n">
-        <v>35.72</v>
+        <v>35.52</v>
       </c>
       <c r="F110" t="n">
-        <v>635.5423</v>
+        <v>190674.1855</v>
       </c>
       <c r="G110" t="n">
-        <v>-3641608.810743565</v>
+        <v>-4111786.127700001</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4816,11 +4422,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="K110" t="n">
-        <v>35.51</v>
-      </c>
+        <v>36.29</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4836,22 +4440,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>35.89</v>
+        <v>36.17</v>
       </c>
       <c r="C111" t="n">
-        <v>35.89</v>
+        <v>36.59</v>
       </c>
       <c r="D111" t="n">
-        <v>35.89</v>
+        <v>36.77</v>
       </c>
       <c r="E111" t="n">
-        <v>35.89</v>
+        <v>36.17</v>
       </c>
       <c r="F111" t="n">
-        <v>33829.741</v>
+        <v>2422.1111</v>
       </c>
       <c r="G111" t="n">
-        <v>-3607779.069743565</v>
+        <v>-4109364.016600001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4860,9 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,22 +4480,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>35.89</v>
+        <v>36.38</v>
       </c>
       <c r="C112" t="n">
-        <v>35.89</v>
+        <v>36.38</v>
       </c>
       <c r="D112" t="n">
-        <v>35.89</v>
+        <v>36.38</v>
       </c>
       <c r="E112" t="n">
-        <v>35.89</v>
+        <v>36.38</v>
       </c>
       <c r="F112" t="n">
-        <v>13973</v>
+        <v>488.6415</v>
       </c>
       <c r="G112" t="n">
-        <v>-3607779.069743565</v>
+        <v>-4109852.658100001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4902,9 +4504,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,22 +4520,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.89</v>
+        <v>36.27</v>
       </c>
       <c r="C113" t="n">
-        <v>35.72</v>
+        <v>36</v>
       </c>
       <c r="D113" t="n">
-        <v>35.89</v>
+        <v>36.27</v>
       </c>
       <c r="E113" t="n">
-        <v>35.72</v>
+        <v>36</v>
       </c>
       <c r="F113" t="n">
-        <v>400</v>
+        <v>23266.8503</v>
       </c>
       <c r="G113" t="n">
-        <v>-3608179.069743565</v>
+        <v>-4133119.508400001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4944,9 +4544,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,22 +4560,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>35.72</v>
+        <v>36.1</v>
       </c>
       <c r="C114" t="n">
-        <v>35.72</v>
+        <v>36.1</v>
       </c>
       <c r="D114" t="n">
-        <v>35.72</v>
+        <v>36.1</v>
       </c>
       <c r="E114" t="n">
-        <v>35.72</v>
+        <v>36.1</v>
       </c>
       <c r="F114" t="n">
-        <v>549.7526</v>
+        <v>50578.7371</v>
       </c>
       <c r="G114" t="n">
-        <v>-3608179.069743565</v>
+        <v>-4082540.771300001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4986,9 +4584,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,22 +4600,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>35.72</v>
+        <v>36.17</v>
       </c>
       <c r="C115" t="n">
-        <v>35.72</v>
+        <v>36.59</v>
       </c>
       <c r="D115" t="n">
-        <v>35.9</v>
+        <v>36.59</v>
       </c>
       <c r="E115" t="n">
-        <v>35.72</v>
+        <v>36.17</v>
       </c>
       <c r="F115" t="n">
-        <v>6208.4643</v>
+        <v>62</v>
       </c>
       <c r="G115" t="n">
-        <v>-3608179.069743565</v>
+        <v>-4082478.771300001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5028,9 +4624,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,22 +4640,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>35.9</v>
+        <v>36.11</v>
       </c>
       <c r="C116" t="n">
-        <v>35.9</v>
+        <v>36.88</v>
       </c>
       <c r="D116" t="n">
-        <v>35.9</v>
+        <v>36.88</v>
       </c>
       <c r="E116" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="F116" t="n">
-        <v>14233.3563</v>
+        <v>171000</v>
       </c>
       <c r="G116" t="n">
-        <v>-3593945.713443565</v>
+        <v>-3911478.771300001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5070,9 +4664,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,35 +4680,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C117" t="n">
-        <v>35.9</v>
+        <v>36.21</v>
       </c>
       <c r="D117" t="n">
-        <v>35.9</v>
+        <v>36.21</v>
       </c>
       <c r="E117" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="F117" t="n">
-        <v>49420</v>
+        <v>35603.1823</v>
       </c>
       <c r="G117" t="n">
-        <v>-3593945.713443565</v>
+        <v>-3947081.953600001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="K117" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,35 +4720,31 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="C118" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="D118" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="E118" t="n">
-        <v>36</v>
+        <v>36.21</v>
       </c>
       <c r="F118" t="n">
-        <v>14</v>
+        <v>11813.568</v>
       </c>
       <c r="G118" t="n">
-        <v>-3593931.713443565</v>
+        <v>-3947081.953600001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="K118" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,35 +4760,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="C119" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="D119" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="E119" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3592</v>
+        <v>14</v>
       </c>
       <c r="G119" t="n">
-        <v>-3593932.072643565</v>
+        <v>-3947067.953600001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>36</v>
-      </c>
-      <c r="K119" t="n">
-        <v>35.51</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,44 +4800,2898 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>275.4820936639118</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3947067.953600001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="C121" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="D121" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="E121" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="F121" t="n">
+        <v>21038.1582</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3968106.111800001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="C122" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="E122" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>17809.2528</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3985915.3646</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>36</v>
+      </c>
+      <c r="D123" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>36</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20307.1905</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4006222.5551</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="C124" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="E124" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4006208.5551</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="D125" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="E125" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9991.7068</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4006208.5551</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="C126" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="E126" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7442.0748</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4006208.5551</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>36</v>
+      </c>
+      <c r="C127" t="n">
+        <v>36</v>
+      </c>
+      <c r="D127" t="n">
+        <v>36</v>
+      </c>
+      <c r="E127" t="n">
+        <v>36</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2253.8205</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4008462.3756</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>36</v>
+      </c>
+      <c r="C128" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="D128" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="E128" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="F128" t="n">
+        <v>380000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3628462.3756</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3628862.3756</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="C130" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="E130" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15662.706</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-3613199.669600001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="D131" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="E131" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="F131" t="n">
+        <v>30358.7836</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3643558.453200001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>36</v>
+      </c>
+      <c r="C132" t="n">
+        <v>36</v>
+      </c>
+      <c r="D132" t="n">
+        <v>36</v>
+      </c>
+      <c r="E132" t="n">
+        <v>36</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3643544.453200001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11912.9801</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3655457.433300001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C134" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="D134" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="E134" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3660457.433300001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1250.4109</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3659207.022400001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>375.1066</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3659207.022400001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>36</v>
+      </c>
+      <c r="C137" t="n">
+        <v>36</v>
+      </c>
+      <c r="D137" t="n">
+        <v>36</v>
+      </c>
+      <c r="E137" t="n">
+        <v>36</v>
+      </c>
+      <c r="F137" t="n">
+        <v>47.6246</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3659159.3978</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="C138" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="D138" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="E138" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4077.7335</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3663237.1313</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C139" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="D139" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="E139" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3878.6534</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3667115.784700001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="C140" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="D140" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="E140" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3666115.784700001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C141" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="D141" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="E141" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6959.0093</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-3673074.794000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="C142" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="D142" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="E142" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="F142" t="n">
+        <v>522.0751</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3672552.718900001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="C143" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="D143" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="E143" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="F143" t="n">
+        <v>34414.1914</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-3672552.718900001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="C144" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="D144" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="E144" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7788.3283</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3680341.047200001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="D145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="E145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="F145" t="n">
+        <v>749.7804</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3680341.047200001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>36</v>
+      </c>
+      <c r="C146" t="n">
+        <v>36</v>
+      </c>
+      <c r="D146" t="n">
+        <v>36</v>
+      </c>
+      <c r="E146" t="n">
+        <v>36</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-3680327.047200001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>36</v>
+      </c>
+      <c r="C147" t="n">
+        <v>36</v>
+      </c>
+      <c r="D147" t="n">
+        <v>36</v>
+      </c>
+      <c r="E147" t="n">
+        <v>36</v>
+      </c>
+      <c r="F147" t="n">
+        <v>47.6246</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3680327.047200001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>36</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>36</v>
+      </c>
+      <c r="C148" t="n">
+        <v>36</v>
+      </c>
+      <c r="D148" t="n">
+        <v>36</v>
+      </c>
+      <c r="E148" t="n">
+        <v>36</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1665.0449</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3680327.047200001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>36</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>36</v>
+      </c>
+      <c r="C149" t="n">
+        <v>36</v>
+      </c>
+      <c r="D149" t="n">
+        <v>36</v>
+      </c>
+      <c r="E149" t="n">
+        <v>36</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1017.3746</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3680327.047200001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C150" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3681327.047200001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C151" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="E151" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>61240.3979</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3742567.445100001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9322.685600000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-3742567.445100001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>36</v>
+      </c>
+      <c r="C153" t="n">
+        <v>36</v>
+      </c>
+      <c r="D153" t="n">
+        <v>36</v>
+      </c>
+      <c r="E153" t="n">
+        <v>36</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1385.4253</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-3741182.019800001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>39518.6365</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-3780700.656300001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20232.4371</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3800933.093400002</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8142.1693</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3800933.093400002</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>31511.0922</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3800933.093400002</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6479.7242</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3800933.093400002</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>36.24</v>
+      </c>
+      <c r="D159" t="n">
+        <v>36.24</v>
+      </c>
+      <c r="E159" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>380000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3420933.093400002</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C160" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="D160" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="E160" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F160" t="n">
+        <v>123.5956</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3421056.689000002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>97564.3968</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3518621.085800002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C162" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="D162" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="E162" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F162" t="n">
+        <v>62</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3518559.085800002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>16978.7015</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3535537.787300002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="C164" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="D164" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25462.1016</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3560999.888900002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="C165" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="E165" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>62980.1615</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3623980.050400002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="C166" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D166" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E166" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F166" t="n">
+        <v>62</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3623918.050400002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>36</v>
+      </c>
+      <c r="C167" t="n">
+        <v>36</v>
+      </c>
+      <c r="D167" t="n">
+        <v>36</v>
+      </c>
+      <c r="E167" t="n">
+        <v>36</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3623932.050400002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>36</v>
+      </c>
+      <c r="C168" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D168" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E168" t="n">
+        <v>36</v>
+      </c>
+      <c r="F168" t="n">
+        <v>33270.1464</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3590661.904000002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20926.70475643647</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3569735.199243566</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>36</v>
+      </c>
+      <c r="C170" t="n">
+        <v>36</v>
+      </c>
+      <c r="D170" t="n">
+        <v>36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>36</v>
+      </c>
+      <c r="F170" t="n">
+        <v>20680.8492</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3590416.048443566</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>36</v>
+      </c>
+      <c r="C171" t="n">
+        <v>36</v>
+      </c>
+      <c r="D171" t="n">
+        <v>36</v>
+      </c>
+      <c r="E171" t="n">
+        <v>36</v>
+      </c>
+      <c r="F171" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3590416.048443566</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="C172" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="D172" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="E172" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="F172" t="n">
+        <v>14</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-3590402.048443566</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>36</v>
+      </c>
+      <c r="C173" t="n">
+        <v>36</v>
+      </c>
+      <c r="D173" t="n">
+        <v>36</v>
+      </c>
+      <c r="E173" t="n">
+        <v>36</v>
+      </c>
+      <c r="F173" t="n">
+        <v>756.3323</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-3591158.380743566</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="C174" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="D174" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="E174" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="F174" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-3648158.380743566</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="C175" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D175" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="E175" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30106.9182</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-3678265.298943566</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="C176" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D176" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="E176" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1126.0252</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-3678265.298943566</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="C177" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D177" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="E177" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-3678265.298943566</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="C178" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>56787.3867</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-3621477.912243566</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="C179" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D179" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="E179" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19509.3562</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-3640987.268443565</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C180" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D180" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E180" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-3640973.268443565</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C181" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D181" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E181" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F181" t="n">
+        <v>635.5423</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-3641608.810743565</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C182" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D182" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E182" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F182" t="n">
+        <v>33829.741</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-3607779.069743565</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C183" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="D183" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E183" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13973</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-3607779.069743565</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="C184" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D184" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="E184" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F184" t="n">
+        <v>400</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-3608179.069743565</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C185" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D185" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E185" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F185" t="n">
+        <v>549.7526</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-3608179.069743565</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="C186" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D186" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6208.4643</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-3608179.069743565</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14233.3563</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-3593945.713443565</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>49420</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-3593945.713443565</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>36</v>
+      </c>
+      <c r="C189" t="n">
+        <v>36</v>
+      </c>
+      <c r="D189" t="n">
+        <v>36</v>
+      </c>
+      <c r="E189" t="n">
+        <v>36</v>
+      </c>
+      <c r="F189" t="n">
+        <v>14</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-3593931.713443565</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-3593932.072643565</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>35.77</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C191" t="n">
         <v>35.77</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D191" t="n">
         <v>35.77</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E191" t="n">
         <v>35.77</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F191" t="n">
         <v>4394.133</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G191" t="n">
         <v>-3598326.205643565</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="K120" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-3962302.4671</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-3821608.0113</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-1802608.0113</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-2802608.0113</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-1802458.0113</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-3802678.0334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-3802678.0334</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-3825616.207</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-3820742.6203</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-3837507.0797</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-3850991.2704</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-3806690.8691</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-3856281.656400001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-3883281.656400001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-3883881.656400001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-3931576.942300001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-3921496.093100001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-3933743.259100001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-3991631.155900001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-4307113.175900001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-4307127.175900001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-4257127.175900001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-4257065.175900001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-4259859.182600001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-4292645.4564</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-4292446.7445</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-4292446.7445</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-4328525.9373</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-4328919.0487</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-4328919.0487</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-4328919.0487</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-4328666.970600001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-4330808.182800001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-4341824.746300001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-4350520.531900001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-4358572.124300001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,24 +3619,15 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>35.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3954,24 +3652,15 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>35.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3996,24 +3685,15 @@
         <v>-4367933.844700001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>35.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,22 +3720,13 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>35.75</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4080,24 +3751,15 @@
         <v>-4370152.665200002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4122,24 +3784,15 @@
         <v>-4484488.558000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>35.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4166,22 +3819,13 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4206,24 +3850,15 @@
         <v>-4480465.028900001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>35.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4248,24 +3883,15 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>35.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4290,24 +3916,15 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>35.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4332,24 +3949,19 @@
         <v>-4495910.313200001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>35.75</v>
       </c>
       <c r="J108" t="n">
         <v>35.75</v>
       </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4374,24 +3986,23 @@
         <v>-4302460.313200001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J109" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4416,24 +4027,21 @@
         <v>-4111786.127700001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4460,20 +4068,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4500,20 +4107,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4538,22 +4144,21 @@
         <v>-4133119.508400001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4580,20 +4185,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4620,20 +4224,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4660,20 +4263,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4700,20 +4302,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4738,22 +4339,21 @@
         <v>-3947081.953600001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4780,20 +4380,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4820,20 +4419,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4860,20 +4458,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4900,20 +4497,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4940,20 +4536,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4978,22 +4573,21 @@
         <v>-4006208.5551</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5018,22 +4612,21 @@
         <v>-4006208.5551</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5060,20 +4653,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5100,20 +4692,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5140,20 +4731,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5180,20 +4770,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5220,20 +4809,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5260,20 +4848,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5298,22 +4885,21 @@
         <v>-3643544.453200001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5338,22 +4924,21 @@
         <v>-3655457.433300001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5380,20 +4965,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5420,20 +5004,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5458,22 +5041,21 @@
         <v>-3659207.022400001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5498,22 +5080,21 @@
         <v>-3659159.3978</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5540,20 +5121,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5578,24 +5158,21 @@
         <v>-3667115.784700001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5620,24 +5197,21 @@
         <v>-3666115.784700001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5664,22 +5238,19 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5704,24 +5275,21 @@
         <v>-3672552.718900001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5748,20 +5316,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5786,24 +5353,21 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5828,24 +5392,21 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5870,24 +5431,21 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5912,24 +5470,21 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>36</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5954,24 +5509,21 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>36</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5998,20 +5550,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6038,20 +5589,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6078,20 +5628,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6118,20 +5667,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6158,20 +5706,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6198,20 +5745,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6238,20 +5784,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6278,20 +5823,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6318,20 +5862,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6358,20 +5901,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6398,20 +5940,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6438,20 +5979,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6478,20 +6018,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6518,20 +6057,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6558,20 +6096,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6598,20 +6135,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6638,20 +6174,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6678,20 +6213,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6718,20 +6252,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6758,20 +6291,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6798,20 +6330,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6838,20 +6369,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6878,20 +6408,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6918,20 +6447,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6958,20 +6486,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6998,20 +6525,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7038,20 +6564,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7076,22 +6601,21 @@
         <v>-3678265.298943566</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7116,22 +6640,21 @@
         <v>-3678265.298943566</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7156,22 +6679,21 @@
         <v>-3621477.912243566</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7196,22 +6718,21 @@
         <v>-3640987.268443565</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7238,20 +6759,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7278,20 +6798,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7318,20 +6837,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7356,22 +6874,21 @@
         <v>-3607779.069743565</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7398,20 +6915,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7438,20 +6954,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7478,20 +6993,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7518,20 +7032,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7558,20 +7071,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7596,22 +7108,21 @@
         <v>-3593931.713443565</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7638,20 +7149,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7676,24 +7186,23 @@
         <v>-3598326.205643565</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3962302.4671</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3821608.0113</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1802608.0113</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2802608.0113</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1802458.0113</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3802678.0334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3802678.0334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4792678.0334</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3825616.207</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3820742.6203</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3837507.0797</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3850991.2704</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3806690.8691</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3856281.656400001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3883281.656400001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3883881.656400001</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3931576.942300001</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3921496.093100001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3933743.259100001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3991631.155900001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4307113.175900001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4307127.175900001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4257127.175900001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4257065.175900001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4259859.182600001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4292645.4564</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4292446.7445</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4292446.7445</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4328525.9373</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3324,8 +3324,12 @@
       <c r="H89" t="n">
         <v>1</v>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="J89" t="n">
+        <v>35.83</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3357,9 +3361,17 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="J90" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3390,9 +3402,17 @@
       <c r="H91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="J91" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3423,8 +3443,12 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="J92" t="n">
+        <v>35.82</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3456,9 +3480,17 @@
       <c r="H93" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>36</v>
+      </c>
+      <c r="J93" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3489,9 +3521,17 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="J94" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3522,9 +3562,17 @@
       <c r="H95" t="n">
         <v>1</v>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="J95" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3555,9 +3603,17 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="J96" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3588,9 +3644,17 @@
       <c r="H97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3683,19 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="J98" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3724,19 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="J99" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3765,19 @@
         <v>-4367933.844700001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="J100" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3720,9 +3808,17 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3847,19 @@
         <v>-4370152.665200002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="J102" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3888,19 @@
         <v>-4484488.558000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="J103" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3819,9 +3931,17 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3970,19 @@
         <v>-4480465.028900001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="J105" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4011,19 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="J106" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4052,19 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J107" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,15 +4093,19 @@
         <v>-4495910.313200001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>35.75</v>
       </c>
       <c r="J108" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+        <v>35.82</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,17 +4134,17 @@
         <v>-4302460.313200001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>35.6</v>
       </c>
       <c r="J109" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4027,11 +4175,13 @@
         <v>-4111786.127700001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>36.29</v>
+      </c>
       <c r="J110" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4066,11 +4216,13 @@
         <v>-4109364.016600001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J111" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4109,7 +4261,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4144,11 +4296,11 @@
         <v>-4133119.508400001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4183,11 +4335,13 @@
         <v>-4082540.771300001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>36</v>
+      </c>
       <c r="J114" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4222,11 +4376,13 @@
         <v>-4082478.771300001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J115" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4265,7 +4421,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4304,7 +4460,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4339,11 +4495,11 @@
         <v>-3947081.953600001</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4382,7 +4538,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4421,7 +4577,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4460,7 +4616,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4499,7 +4655,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4534,11 +4690,13 @@
         <v>-4006222.5551</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J123" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4573,11 +4731,11 @@
         <v>-4006208.5551</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4612,11 +4770,11 @@
         <v>-4006208.5551</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4655,7 +4813,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4694,7 +4852,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4733,7 +4891,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4772,7 +4930,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4811,7 +4969,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4850,7 +5008,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4885,11 +5043,11 @@
         <v>-3643544.453200001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4924,11 +5082,11 @@
         <v>-3655457.433300001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4967,7 +5125,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5006,7 +5164,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5041,11 +5199,11 @@
         <v>-3659207.022400001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5080,11 +5238,11 @@
         <v>-3659159.3978</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5123,7 +5281,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5158,11 +5316,13 @@
         <v>-3667115.784700001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>35.85</v>
+      </c>
       <c r="J139" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5197,11 +5357,13 @@
         <v>-3666115.784700001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>35.84</v>
+      </c>
       <c r="J140" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5238,9 +5400,11 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>35.85</v>
+      </c>
       <c r="J141" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5275,11 +5439,13 @@
         <v>-3672552.718900001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>35.83</v>
+      </c>
       <c r="J142" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5318,7 +5484,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5357,7 +5523,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5392,11 +5558,13 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>35.83</v>
+      </c>
       <c r="J145" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5435,7 +5603,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5474,7 +5642,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5513,7 +5681,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5548,11 +5716,13 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>36</v>
+      </c>
       <c r="J149" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5591,7 +5761,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5630,7 +5800,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5669,7 +5839,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5708,7 +5878,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5747,7 +5917,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5786,7 +5956,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5825,7 +5995,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5864,7 +6034,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5903,7 +6073,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5942,7 +6112,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5981,7 +6151,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6020,7 +6190,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6059,7 +6229,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6098,7 +6268,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6137,7 +6307,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6176,7 +6346,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6215,7 +6385,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6254,7 +6424,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6293,7 +6463,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6332,7 +6502,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6371,7 +6541,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6410,7 +6580,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6449,7 +6619,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6488,7 +6658,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6527,7 +6697,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6566,7 +6736,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6601,11 +6771,11 @@
         <v>-3678265.298943566</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6640,11 +6810,11 @@
         <v>-3678265.298943566</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6679,11 +6849,11 @@
         <v>-3621477.912243566</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6718,11 +6888,11 @@
         <v>-3640987.268443565</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6761,7 +6931,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6800,7 +6970,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6839,7 +7009,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6876,9 +7046,11 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>35.89</v>
+      </c>
       <c r="J183" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6913,11 +7085,13 @@
         <v>-3608179.069743565</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>35.89</v>
+      </c>
       <c r="J184" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6952,11 +7126,13 @@
         <v>-3608179.069743565</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>35.72</v>
+      </c>
       <c r="J185" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6995,7 +7171,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7030,11 +7206,13 @@
         <v>-3593945.713443565</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>35.72</v>
+      </c>
       <c r="J187" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7073,7 +7251,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7108,11 +7286,11 @@
         <v>-3593931.713443565</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7151,7 +7329,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7186,11 +7364,11 @@
         <v>-3598326.205643565</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7203,6 +7381,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3962302.4671</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3821608.0113</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3802678.0334</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3802678.0334</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4792678.0334</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3794951.7083</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3794891.3351</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3796976.8447</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3806690.8691</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3991631.155900001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3322,14 +3322,10 @@
         <v>-4328919.0487</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="J89" t="n">
-        <v>35.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,19 +3355,11 @@
         <v>-4328919.0487</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="J90" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3400,19 +3388,11 @@
         <v>-4328919.0487</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="J91" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,14 +3421,10 @@
         <v>-4328666.970600001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="J92" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3478,19 +3454,11 @@
         <v>-4330808.182800001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3519,60 +3487,50 @@
         <v>-4341824.746300001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="J94" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="D95" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="E95" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8695.785599999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-4350520.531900001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>35.71</v>
-      </c>
-      <c r="C95" t="n">
-        <v>35.69</v>
-      </c>
-      <c r="D95" t="n">
-        <v>35.71</v>
-      </c>
-      <c r="E95" t="n">
-        <v>35.69</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8695.785599999999</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-4350520.531900001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="J95" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3601,14 +3559,10 @@
         <v>-4358572.124300001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>35.69</v>
-      </c>
-      <c r="J96" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,9 +3601,7 @@
       <c r="I97" t="n">
         <v>35.6</v>
       </c>
-      <c r="J97" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,9 +3640,7 @@
       <c r="I98" t="n">
         <v>35.54</v>
       </c>
-      <c r="J98" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3729,9 +3679,7 @@
       <c r="I99" t="n">
         <v>35.54</v>
       </c>
-      <c r="J99" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,9 +3718,7 @@
       <c r="I100" t="n">
         <v>35.54</v>
       </c>
-      <c r="J100" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3811,9 +3757,7 @@
       <c r="I101" t="n">
         <v>35.75</v>
       </c>
-      <c r="J101" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,14 +3791,10 @@
         <v>-4370152.665200002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="J102" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3833,7 @@
       <c r="I103" t="n">
         <v>35.61</v>
       </c>
-      <c r="J103" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,9 +3872,7 @@
       <c r="I104" t="n">
         <v>35.5</v>
       </c>
-      <c r="J104" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,9 +3911,7 @@
       <c r="I105" t="n">
         <v>35.51</v>
       </c>
-      <c r="J105" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,9 +3950,7 @@
       <c r="I106" t="n">
         <v>35.51</v>
       </c>
-      <c r="J106" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,14 +3984,10 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="J107" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,14 +4021,10 @@
         <v>-4495910.313200001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="J108" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,14 +4058,10 @@
         <v>-4302460.313200001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,14 +4095,10 @@
         <v>-4111786.127700001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="J110" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,14 +4132,10 @@
         <v>-4109364.016600001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>35.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4260,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>35.82</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4335,22 +4243,16 @@
         <v>-4082540.771300001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>36</v>
-      </c>
-      <c r="J114" t="n">
-        <v>35.82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4376,19 +4278,11 @@
         <v>-4082478.771300001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4417,17 +4311,11 @@
         <v>-3911478.771300001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4456,17 +4344,11 @@
         <v>-3947081.953600001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4498,14 +4380,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4537,14 +4413,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4573,17 +4443,11 @@
         <v>-3947067.953600001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4612,17 +4476,11 @@
         <v>-3968106.111800001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4651,17 +4509,11 @@
         <v>-3985915.3646</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4690,19 +4542,11 @@
         <v>-4006222.5551</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4578,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4611,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4644,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4776,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4809,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4842,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4875,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +4908,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4941,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4974,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5238,17 +5004,11 @@
         <v>-3659159.3978</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5277,17 +5037,11 @@
         <v>-3663237.1313</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5316,19 +5070,11 @@
         <v>-3667115.784700001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="J139" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5357,19 +5103,11 @@
         <v>-3666115.784700001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="J140" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5398,19 +5136,11 @@
         <v>-3673074.794000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>35.85</v>
-      </c>
-      <c r="J141" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5439,19 +5169,11 @@
         <v>-3672552.718900001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="J142" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5483,14 +5205,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +5238,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5558,19 +5268,11 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="J145" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5599,17 +5301,11 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5638,17 +5334,11 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5677,17 +5367,11 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5716,19 +5400,11 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>36</v>
-      </c>
-      <c r="J149" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5757,17 +5433,11 @@
         <v>-3681327.047200001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5796,17 +5466,11 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5835,17 +5499,11 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5877,14 +5535,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5568,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5955,14 +5601,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5991,17 +5631,11 @@
         <v>-3800933.093400002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6033,14 +5667,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6072,14 +5700,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6111,14 +5733,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6150,14 +5766,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6189,14 +5799,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6228,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6267,14 +5865,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6306,14 +5898,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6345,14 +5931,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6384,14 +5964,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +5997,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +6030,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +6063,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6540,14 +6096,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +6129,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +6195,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +6228,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +6261,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +6294,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6327,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +6360,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6393,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6930,14 +6426,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6459,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7008,14 +6492,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7044,19 +6522,11 @@
         <v>-3607779.069743565</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="J183" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7085,19 +6555,11 @@
         <v>-3608179.069743565</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="J184" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7126,19 +6588,11 @@
         <v>-3608179.069743565</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="J185" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +6624,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7206,19 +6654,11 @@
         <v>-3593945.713443565</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="J187" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7250,14 +6690,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7289,14 +6723,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +6756,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7367,20 +6789,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>35.82</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2802608.0113</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3794951.7083</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3794891.3351</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3796976.8447</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3806690.8691</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3883881.656400001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3883881.656400001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3896088.509900001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3931576.942300001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3921496.093100001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3933743.259100001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4307113.175900001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4259859.182600001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4292645.4564</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4292446.7445</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3520,17 +3520,11 @@
         <v>-4350520.531900001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>35.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3596,17 +3586,11 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3635,17 +3619,11 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>35.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3674,17 +3652,11 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>35.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3718,12 +3690,10 @@
       <c r="I100" t="n">
         <v>35.54</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3752,15 +3722,15 @@
         <v>-4367883.844700001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3794,10 +3764,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3833,10 +3805,12 @@
       <c r="I103" t="n">
         <v>35.61</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3872,7 +3846,9 @@
       <c r="I104" t="n">
         <v>35.5</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,7 +3887,9 @@
       <c r="I105" t="n">
         <v>35.51</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,7 +3928,9 @@
       <c r="I106" t="n">
         <v>35.51</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3984,10 +3964,14 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J107" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,10 +4005,14 @@
         <v>-4495910.313200001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J108" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,10 +4046,14 @@
         <v>-4302460.313200001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4090,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,7 +4129,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,7 +4168,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4207,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4243,16 +4243,20 @@
         <v>-4082540.771300001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>35.54</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4281,8 +4285,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +4321,17 @@
         <v>-3911478.771300001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4344,11 +4360,17 @@
         <v>-3947081.953600001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4380,8 +4402,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4413,8 +4441,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4477,17 @@
         <v>-3947067.953600001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4516,17 @@
         <v>-3968106.111800001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4555,17 @@
         <v>-3985915.3646</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4545,8 +4597,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4578,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +4675,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +4753,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4743,8 +4831,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4776,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4809,8 +4909,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4842,8 +4948,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4875,8 +4987,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4908,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4941,8 +5065,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +5140,17 @@
         <v>-3659159.3978</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +5179,17 @@
         <v>-3663237.1313</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +5218,17 @@
         <v>-3667115.784700001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5103,11 +5257,17 @@
         <v>-3666115.784700001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +5296,17 @@
         <v>-3673074.794000001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5335,17 @@
         <v>-3672552.718900001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +5377,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5238,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5452,17 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +5491,17 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5530,17 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +5569,17 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +5608,17 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5647,17 @@
         <v>-3681327.047200001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5686,17 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5725,17 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5535,8 +5767,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +5806,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5601,8 +5845,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +5881,17 @@
         <v>-3800933.093400002</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5667,8 +5923,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5700,8 +5962,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5733,8 +6001,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5766,8 +6040,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5799,8 +6079,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6118,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6196,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5964,8 +6274,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5997,8 +6313,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +6352,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +6391,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6096,8 +6430,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6469,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6508,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6195,8 +6547,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6228,8 +6586,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +6625,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6294,8 +6664,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6327,8 +6703,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6360,8 +6742,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6393,8 +6781,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6426,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +6859,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6492,8 +6898,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6525,8 +6937,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6558,8 +6976,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6591,8 +7015,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6624,8 +7054,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +7093,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6690,8 +7132,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7171,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6756,8 +7210,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6789,8 +7249,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest FCT.xlsx
+++ b/BackTest/2020-01-14 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1079360</v>
       </c>
       <c r="G2" t="n">
-        <v>-3947670.4045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>55000</v>
       </c>
       <c r="G3" t="n">
-        <v>-3947670.4045</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>67900</v>
       </c>
       <c r="G4" t="n">
-        <v>-3947670.4045</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>14632.0626</v>
       </c>
       <c r="G5" t="n">
-        <v>-3962302.4671</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>140694.4558</v>
       </c>
       <c r="G6" t="n">
-        <v>-3821608.0113</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2019000</v>
       </c>
       <c r="G7" t="n">
-        <v>-1802608.0113</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1000000</v>
       </c>
       <c r="G8" t="n">
-        <v>-2802608.0113</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1000150</v>
       </c>
       <c r="G9" t="n">
-        <v>-1802458.0113</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2000220.0221</v>
       </c>
       <c r="G10" t="n">
-        <v>-3802678.0334</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>43241.89054971675</v>
       </c>
       <c r="G11" t="n">
-        <v>-3802678.0334</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>990000</v>
       </c>
       <c r="G12" t="n">
-        <v>-4792678.0334</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1105000</v>
       </c>
       <c r="G13" t="n">
-        <v>-3687678.0334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>77000</v>
       </c>
       <c r="G14" t="n">
-        <v>-3764678.0334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>33116.2097</v>
       </c>
       <c r="G15" t="n">
-        <v>-3797794.2431</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>50797.0132</v>
       </c>
       <c r="G16" t="n">
-        <v>-3797794.2431</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>36978.6426</v>
       </c>
       <c r="G17" t="n">
-        <v>-3797794.2431</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>9400</v>
       </c>
       <c r="G18" t="n">
-        <v>-3797794.2431</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>523.5998</v>
       </c>
       <c r="G19" t="n">
-        <v>-3798317.8429</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>27298.3641</v>
       </c>
       <c r="G20" t="n">
-        <v>-3825616.207</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10321.6234</v>
       </c>
       <c r="G21" t="n">
-        <v>-3825616.207</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>-3825609.207</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>53.8744</v>
       </c>
       <c r="G23" t="n">
-        <v>-3825609.207</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>29.9557</v>
       </c>
       <c r="G24" t="n">
-        <v>-3825579.2513</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>66.5581</v>
       </c>
       <c r="G25" t="n">
-        <v>-3825645.8094</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>-3825638.8094</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>38.6838</v>
       </c>
       <c r="G27" t="n">
-        <v>-3825638.8094</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4896.1891</v>
       </c>
       <c r="G28" t="n">
-        <v>-3820742.6203</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3000</v>
       </c>
       <c r="G29" t="n">
-        <v>-3820742.6203</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>16764.4594</v>
       </c>
       <c r="G30" t="n">
-        <v>-3837507.0797</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>7785.3482</v>
       </c>
       <c r="G31" t="n">
-        <v>-3845292.4279</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>5698.8425</v>
       </c>
       <c r="G32" t="n">
-        <v>-3850991.2704</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>5698.8425</v>
       </c>
       <c r="G33" t="n">
-        <v>-3850991.2704</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>21923.7232</v>
       </c>
       <c r="G34" t="n">
-        <v>-3829067.5472</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>76.27679999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-3829067.5472</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>-3834067.5472</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>30.6372</v>
       </c>
       <c r="G37" t="n">
-        <v>-3834067.5472</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5099.0238</v>
       </c>
       <c r="G38" t="n">
-        <v>-3839166.571</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>58271.4028</v>
       </c>
       <c r="G39" t="n">
-        <v>-3780895.1682</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11370.6258</v>
       </c>
       <c r="G40" t="n">
-        <v>-3780895.1682</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>14076.5401</v>
       </c>
       <c r="G41" t="n">
-        <v>-3794971.7083</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1795.9827</v>
       </c>
       <c r="G42" t="n">
-        <v>-3794971.7083</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>16.0923</v>
       </c>
       <c r="G43" t="n">
-        <v>-3794971.7083</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-3794951.7083</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>60.3732</v>
       </c>
       <c r="G45" t="n">
-        <v>-3794891.3351</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2085.5096</v>
       </c>
       <c r="G46" t="n">
-        <v>-3796976.8447</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>9714.0244</v>
       </c>
       <c r="G47" t="n">
-        <v>-3806690.8691</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>9714.0245</v>
       </c>
       <c r="G48" t="n">
-        <v>-3796976.8446</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>-3796976.8446</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>8055.232</v>
       </c>
       <c r="G50" t="n">
-        <v>-3805032.0766</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>20000</v>
       </c>
       <c r="G51" t="n">
-        <v>-3805032.0766</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1578.7061</v>
       </c>
       <c r="G52" t="n">
-        <v>-3805032.0766</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>6302.2235</v>
       </c>
       <c r="G53" t="n">
-        <v>-3805032.0766</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>40823.8867</v>
       </c>
       <c r="G54" t="n">
-        <v>-3845855.9633</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1500</v>
       </c>
       <c r="G55" t="n">
-        <v>-3845855.9633</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>10073.3544</v>
       </c>
       <c r="G56" t="n">
-        <v>-3855929.3177</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>572.3418</v>
       </c>
       <c r="G57" t="n">
-        <v>-3855929.3177</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>352.3387</v>
       </c>
       <c r="G58" t="n">
-        <v>-3856281.656400001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>4000</v>
       </c>
       <c r="G59" t="n">
-        <v>-3856281.656400001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>27000</v>
       </c>
       <c r="G60" t="n">
-        <v>-3883281.656400001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>888</v>
       </c>
       <c r="G61" t="n">
-        <v>-3883281.656400001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>600</v>
       </c>
       <c r="G62" t="n">
-        <v>-3883881.656400001</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3000</v>
       </c>
       <c r="G63" t="n">
-        <v>-3883881.656400001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>12206.8535</v>
       </c>
       <c r="G64" t="n">
-        <v>-3896088.509900001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>35488.4324</v>
       </c>
       <c r="G65" t="n">
-        <v>-3931576.942300001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>10080.8492</v>
       </c>
       <c r="G66" t="n">
-        <v>-3921496.093100001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>12247.166</v>
       </c>
       <c r="G67" t="n">
-        <v>-3933743.259100001</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>57887.8968</v>
       </c>
       <c r="G68" t="n">
-        <v>-3991631.155900001</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>243182.9021</v>
       </c>
       <c r="G69" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>4080.8744</v>
       </c>
       <c r="G70" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>69081.4757</v>
       </c>
       <c r="G72" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2626.8063</v>
       </c>
       <c r="G73" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2626.8063</v>
       </c>
       <c r="G74" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>13694.8275</v>
       </c>
       <c r="G75" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>19757.559</v>
       </c>
       <c r="G76" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2593.7644</v>
       </c>
       <c r="G77" t="n">
-        <v>-4234814.058000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>56308.1853</v>
       </c>
       <c r="G78" t="n">
-        <v>-4291122.243300001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>13524.1563</v>
       </c>
       <c r="G79" t="n">
-        <v>-4291122.243300001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>15990.9326</v>
       </c>
       <c r="G80" t="n">
-        <v>-4307113.175900001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>14</v>
       </c>
       <c r="G81" t="n">
-        <v>-4307127.175900001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>50000</v>
       </c>
       <c r="G82" t="n">
-        <v>-4257127.175900001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>62</v>
       </c>
       <c r="G83" t="n">
-        <v>-4257065.175900001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2794.0067</v>
       </c>
       <c r="G84" t="n">
-        <v>-4259859.182600001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>32786.2738</v>
       </c>
       <c r="G85" t="n">
-        <v>-4292645.4564</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>198.7119</v>
       </c>
       <c r="G86" t="n">
-        <v>-4292446.7445</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>198.712</v>
       </c>
       <c r="G87" t="n">
-        <v>-4292446.7445</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>36079.1928</v>
       </c>
       <c r="G88" t="n">
-        <v>-4328525.9373</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>393.1114</v>
       </c>
       <c r="G89" t="n">
-        <v>-4328919.0487</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>3858.4169</v>
       </c>
       <c r="G90" t="n">
-        <v>-4328919.0487</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>13807.1284</v>
       </c>
       <c r="G91" t="n">
-        <v>-4328919.0487</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>252.0781</v>
       </c>
       <c r="G92" t="n">
-        <v>-4328666.970600001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2141.2122</v>
       </c>
       <c r="G93" t="n">
-        <v>-4330808.182800001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>11016.5635</v>
       </c>
       <c r="G94" t="n">
-        <v>-4341824.746300001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>8695.785599999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-4350520.531900001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>8051.5924</v>
       </c>
       <c r="G96" t="n">
-        <v>-4358572.124300001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>9385.230799999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-4367957.355100001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>48971.5311</v>
       </c>
       <c r="G98" t="n">
-        <v>-4367957.355100001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>0.5145999999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-4367957.355100001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,22 +3383,15 @@
         <v>23.5104</v>
       </c>
       <c r="G100" t="n">
-        <v>-4367933.844700001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3719,24 +3413,15 @@
         <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>-4367883.844700001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3758,24 +3443,15 @@
         <v>2268.8205</v>
       </c>
       <c r="G102" t="n">
-        <v>-4370152.665200002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,26 +3473,15 @@
         <v>114335.8928</v>
       </c>
       <c r="G103" t="n">
-        <v>-4484488.558000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="J103" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3838,26 +3503,15 @@
         <v>4023.5291</v>
       </c>
       <c r="G104" t="n">
-        <v>-4480465.028900001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3879,26 +3533,19 @@
         <v>24834.7648</v>
       </c>
       <c r="G105" t="n">
-        <v>-4480465.028900001</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>35.51</v>
       </c>
       <c r="I105" t="n">
         <v>35.51</v>
       </c>
-      <c r="J105" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3920,26 +3567,23 @@
         <v>62.1293</v>
       </c>
       <c r="G106" t="n">
-        <v>-4480402.899600001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>35.51</v>
       </c>
       <c r="I106" t="n">
         <v>35.51</v>
       </c>
-      <c r="J106" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3961,26 +3605,23 @@
         <v>50.7875</v>
       </c>
       <c r="G107" t="n">
-        <v>-4480402.899600001</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>35.75</v>
       </c>
       <c r="I107" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="J107" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>35.51</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4002,26 +3643,19 @@
         <v>15507.4136</v>
       </c>
       <c r="G108" t="n">
-        <v>-4495910.313200001</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>35.75</v>
       </c>
       <c r="I108" t="n">
         <v>35.75</v>
       </c>
-      <c r="J108" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4043,26 +3677,23 @@
         <v>193450</v>
       </c>
       <c r="G109" t="n">
-        <v>-4302460.313200001</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>35.6</v>
       </c>
       <c r="I109" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>35.75</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4084,24 +3715,21 @@
         <v>190674.1855</v>
       </c>
       <c r="G110" t="n">
-        <v>-4111786.127700001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4123,24 +3751,21 @@
         <v>2422.1111</v>
       </c>
       <c r="G111" t="n">
-        <v>-4109364.016600001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4162,24 +3787,21 @@
         <v>488.6415</v>
       </c>
       <c r="G112" t="n">
-        <v>-4109852.658100001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4201,24 +3823,21 @@
         <v>23266.8503</v>
       </c>
       <c r="G113" t="n">
-        <v>-4133119.508400001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4240,24 +3859,21 @@
         <v>50578.7371</v>
       </c>
       <c r="G114" t="n">
-        <v>-4082540.771300001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4279,24 +3895,21 @@
         <v>62</v>
       </c>
       <c r="G115" t="n">
-        <v>-4082478.771300001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4318,24 +3931,21 @@
         <v>171000</v>
       </c>
       <c r="G116" t="n">
-        <v>-3911478.771300001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4357,24 +3967,21 @@
         <v>35603.1823</v>
       </c>
       <c r="G117" t="n">
-        <v>-3947081.953600001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4396,24 +4003,21 @@
         <v>11813.568</v>
       </c>
       <c r="G118" t="n">
-        <v>-3947081.953600001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4435,24 +4039,21 @@
         <v>14</v>
       </c>
       <c r="G119" t="n">
-        <v>-3947067.953600001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4474,24 +4075,21 @@
         <v>275.4820936639118</v>
       </c>
       <c r="G120" t="n">
-        <v>-3947067.953600001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4513,24 +4111,21 @@
         <v>21038.1582</v>
       </c>
       <c r="G121" t="n">
-        <v>-3968106.111800001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4552,24 +4147,21 @@
         <v>17809.2528</v>
       </c>
       <c r="G122" t="n">
-        <v>-3985915.3646</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4591,24 +4183,21 @@
         <v>20307.1905</v>
       </c>
       <c r="G123" t="n">
-        <v>-4006222.5551</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4630,24 +4219,21 @@
         <v>14</v>
       </c>
       <c r="G124" t="n">
-        <v>-4006208.5551</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4669,24 +4255,21 @@
         <v>9991.7068</v>
       </c>
       <c r="G125" t="n">
-        <v>-4006208.5551</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4708,24 +4291,21 @@
         <v>7442.0748</v>
       </c>
       <c r="G126" t="n">
-        <v>-4006208.5551</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4747,24 +4327,21 @@
         <v>2253.8205</v>
       </c>
       <c r="G127" t="n">
-        <v>-4008462.3756</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4786,24 +4363,21 @@
         <v>380000</v>
       </c>
       <c r="G128" t="n">
-        <v>-3628462.3756</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4825,24 +4399,21 @@
         <v>400</v>
       </c>
       <c r="G129" t="n">
-        <v>-3628862.3756</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4864,24 +4435,21 @@
         <v>15662.706</v>
       </c>
       <c r="G130" t="n">
-        <v>-3613199.669600001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4903,24 +4471,21 @@
         <v>30358.7836</v>
       </c>
       <c r="G131" t="n">
-        <v>-3643558.453200001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4942,24 +4507,21 @@
         <v>14</v>
       </c>
       <c r="G132" t="n">
-        <v>-3643544.453200001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4981,24 +4543,21 @@
         <v>11912.9801</v>
       </c>
       <c r="G133" t="n">
-        <v>-3655457.433300001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5020,24 +4579,21 @@
         <v>5000</v>
       </c>
       <c r="G134" t="n">
-        <v>-3660457.433300001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5059,24 +4615,21 @@
         <v>1250.4109</v>
       </c>
       <c r="G135" t="n">
-        <v>-3659207.022400001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5098,24 +4651,21 @@
         <v>375.1066</v>
       </c>
       <c r="G136" t="n">
-        <v>-3659207.022400001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5137,24 +4687,21 @@
         <v>47.6246</v>
       </c>
       <c r="G137" t="n">
-        <v>-3659159.3978</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5176,24 +4723,21 @@
         <v>4077.7335</v>
       </c>
       <c r="G138" t="n">
-        <v>-3663237.1313</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5215,24 +4759,21 @@
         <v>3878.6534</v>
       </c>
       <c r="G139" t="n">
-        <v>-3667115.784700001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5254,24 +4795,21 @@
         <v>1000</v>
       </c>
       <c r="G140" t="n">
-        <v>-3666115.784700001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5293,24 +4831,21 @@
         <v>6959.0093</v>
       </c>
       <c r="G141" t="n">
-        <v>-3673074.794000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5332,24 +4867,21 @@
         <v>522.0751</v>
       </c>
       <c r="G142" t="n">
-        <v>-3672552.718900001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5371,24 +4903,21 @@
         <v>34414.1914</v>
       </c>
       <c r="G143" t="n">
-        <v>-3672552.718900001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5410,24 +4939,21 @@
         <v>7788.3283</v>
       </c>
       <c r="G144" t="n">
-        <v>-3680341.047200001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5449,24 +4975,21 @@
         <v>749.7804</v>
       </c>
       <c r="G145" t="n">
-        <v>-3680341.047200001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5488,24 +5011,21 @@
         <v>14</v>
       </c>
       <c r="G146" t="n">
-        <v>-3680327.047200001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5527,24 +5047,21 @@
         <v>47.6246</v>
       </c>
       <c r="G147" t="n">
-        <v>-3680327.047200001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5566,24 +5083,21 @@
         <v>1665.0449</v>
       </c>
       <c r="G148" t="n">
-        <v>-3680327.047200001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5605,24 +5119,21 @@
         <v>1017.3746</v>
       </c>
       <c r="G149" t="n">
-        <v>-3680327.047200001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5644,24 +5155,21 @@
         <v>1000</v>
       </c>
       <c r="G150" t="n">
-        <v>-3681327.047200001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5683,24 +5191,21 @@
         <v>61240.3979</v>
       </c>
       <c r="G151" t="n">
-        <v>-3742567.445100001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5722,24 +5227,21 @@
         <v>9322.685600000001</v>
       </c>
       <c r="G152" t="n">
-        <v>-3742567.445100001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5761,24 +5263,21 @@
         <v>1385.4253</v>
       </c>
       <c r="G153" t="n">
-        <v>-3741182.019800001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5800,24 +5299,21 @@
         <v>39518.6365</v>
       </c>
       <c r="G154" t="n">
-        <v>-3780700.656300001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5839,24 +5335,21 @@
         <v>20232.4371</v>
       </c>
       <c r="G155" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5878,24 +5371,21 @@
         <v>8142.1693</v>
       </c>
       <c r="G156" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5917,24 +5407,21 @@
         <v>31511.0922</v>
       </c>
       <c r="G157" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5956,24 +5443,21 @@
         <v>6479.7242</v>
       </c>
       <c r="G158" t="n">
-        <v>-3800933.093400002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5995,24 +5479,21 @@
         <v>380000</v>
       </c>
       <c r="G159" t="n">
-        <v>-3420933.093400002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6034,24 +5515,21 @@
         <v>123.5956</v>
       </c>
       <c r="G160" t="n">
-        <v>-3421056.689000002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6073,24 +5551,21 @@
         <v>97564.3968</v>
       </c>
       <c r="G161" t="n">
-        <v>-3518621.085800002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6112,24 +5587,21 @@
         <v>62</v>
       </c>
       <c r="G162" t="n">
-        <v>-3518559.085800002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6151,24 +5623,21 @@
         <v>16978.7015</v>
       </c>
       <c r="G163" t="n">
-        <v>-3535537.787300002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6190,24 +5659,21 @@
         <v>25462.1016</v>
       </c>
       <c r="G164" t="n">
-        <v>-3560999.888900002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6229,24 +5695,21 @@
         <v>62980.1615</v>
       </c>
       <c r="G165" t="n">
-        <v>-3623980.050400002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6268,24 +5731,21 @@
         <v>62</v>
       </c>
       <c r="G166" t="n">
-        <v>-3623918.050400002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6307,24 +5767,21 @@
         <v>14</v>
       </c>
       <c r="G167" t="n">
-        <v>-3623932.050400002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6346,24 +5803,21 @@
         <v>33270.1464</v>
       </c>
       <c r="G168" t="n">
-        <v>-3590661.904000002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6385,24 +5839,21 @@
         <v>20926.70475643647</v>
       </c>
       <c r="G169" t="n">
-        <v>-3569735.199243566</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6424,24 +5875,21 @@
         <v>20680.8492</v>
       </c>
       <c r="G170" t="n">
-        <v>-3590416.048443566</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6463,24 +5911,21 @@
         <v>24000</v>
       </c>
       <c r="G171" t="n">
-        <v>-3590416.048443566</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6502,24 +5947,21 @@
         <v>14</v>
       </c>
       <c r="G172" t="n">
-        <v>-3590402.048443566</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6541,24 +5983,21 @@
         <v>756.3323</v>
       </c>
       <c r="G173" t="n">
-        <v>-3591158.380743566</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6580,24 +6019,21 @@
         <v>57000</v>
       </c>
       <c r="G174" t="n">
-        <v>-3648158.380743566</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6619,24 +6055,21 @@
         <v>30106.9182</v>
       </c>
       <c r="G175" t="n">
-        <v>-3678265.298943566</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6658,24 +6091,21 @@
         <v>1126.0252</v>
       </c>
       <c r="G176" t="n">
-        <v>-3678265.298943566</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6697,24 +6127,21 @@
         <v>1200</v>
       </c>
       <c r="G177" t="n">
-        <v>-3678265.298943566</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6736,24 +6163,21 @@
         <v>56787.3867</v>
       </c>
       <c r="G178" t="n">
-        <v>-3621477.912243566</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6775,24 +6199,21 @@
         <v>19509.3562</v>
       </c>
       <c r="G179" t="n">
-        <v>-3640987.268443565</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6814,24 +6235,21 @@
         <v>14</v>
       </c>
       <c r="G180" t="n">
-        <v>-3640973.268443565</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6853,24 +6271,21 @@
         <v>635.5423</v>
       </c>
       <c r="G181" t="n">
-        <v>-3641608.810743565</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6892,24 +6307,21 @@
         <v>33829.741</v>
       </c>
       <c r="G182" t="n">
-        <v>-3607779.069743565</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6931,24 +6343,21 @@
         <v>13973</v>
       </c>
       <c r="G183" t="n">
-        <v>-3607779.069743565</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6970,24 +6379,21 @@
         <v>400</v>
       </c>
       <c r="G184" t="n">
-        <v>-3608179.069743565</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7009,24 +6415,21 @@
         <v>549.7526</v>
       </c>
       <c r="G185" t="n">
-        <v>-3608179.069743565</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7048,24 +6451,21 @@
         <v>6208.4643</v>
       </c>
       <c r="G186" t="n">
-        <v>-3608179.069743565</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7087,24 +6487,21 @@
         <v>14233.3563</v>
       </c>
       <c r="G187" t="n">
-        <v>-3593945.713443565</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7126,24 +6523,21 @@
         <v>49420</v>
       </c>
       <c r="G188" t="n">
-        <v>-3593945.713443565</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7165,24 +6559,21 @@
         <v>14</v>
       </c>
       <c r="G189" t="n">
-        <v>-3593931.713443565</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7204,24 +6595,21 @@
         <v>0.3592</v>
       </c>
       <c r="G190" t="n">
-        <v>-3593932.072643565</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7243,24 +6631,21 @@
         <v>4394.133</v>
       </c>
       <c r="G191" t="n">
-        <v>-3598326.205643565</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
